--- a/cta策略/result/螺纹/ROC_1d/wfo净值.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo净值.xlsx
@@ -447,7 +447,7 @@
         <v>41843</v>
       </c>
       <c r="B8">
-        <v>10000000</v>
+        <v>9990000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>41844</v>
       </c>
       <c r="B9">
-        <v>10000000</v>
+        <v>10029405.33368357</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>41845</v>
       </c>
       <c r="B10">
-        <v>10000000</v>
+        <v>10003024.75742987</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>41848</v>
       </c>
       <c r="B11">
-        <v>10000000</v>
+        <v>9983177.182836685</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>41849</v>
       </c>
       <c r="B12">
-        <v>10000000</v>
+        <v>9831656.956698276</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>41850</v>
       </c>
       <c r="B13">
-        <v>10000000</v>
+        <v>9873531.863341546</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>41851</v>
       </c>
       <c r="B14">
-        <v>10000000</v>
+        <v>9794071.905657042</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>41852</v>
       </c>
       <c r="B15">
-        <v>10000000</v>
+        <v>9758684.851277184</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>41855</v>
       </c>
       <c r="B16">
-        <v>10000000</v>
+        <v>9765040.238690402</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>41856</v>
       </c>
       <c r="B17">
-        <v>10000000</v>
+        <v>9898680.699934114</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>41857</v>
       </c>
       <c r="B18">
-        <v>10000000</v>
+        <v>9841327.570507646</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>41858</v>
       </c>
       <c r="B19">
-        <v>10000000</v>
+        <v>9776752.362683654</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>41859</v>
       </c>
       <c r="B20">
-        <v>10000000</v>
+        <v>9741891.666269362</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>41862</v>
       </c>
       <c r="B21">
-        <v>10000000</v>
+        <v>9704006.491523506</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>41863</v>
       </c>
       <c r="B22">
-        <v>10000000</v>
+        <v>9596229.896811279</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>41864</v>
       </c>
       <c r="B23">
-        <v>10000000</v>
+        <v>9577056.93762264</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>41865</v>
       </c>
       <c r="B24">
-        <v>10000000</v>
+        <v>9645932.112199465</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>41866</v>
       </c>
       <c r="B25">
-        <v>10000000</v>
+        <v>9718224.971238239</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>41869</v>
       </c>
       <c r="B26">
-        <v>10000000</v>
+        <v>9679837.425060626</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>41870</v>
       </c>
       <c r="B27">
-        <v>10000000</v>
+        <v>9747162.493231887</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>41871</v>
       </c>
       <c r="B28">
-        <v>10000000</v>
+        <v>9743881.426356271</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -615,7 +615,7 @@
         <v>41872</v>
       </c>
       <c r="B29">
-        <v>10000000</v>
+        <v>9805350.117166905</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -623,7 +623,7 @@
         <v>41873</v>
       </c>
       <c r="B30">
-        <v>10000000</v>
+        <v>9841087.886824638</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>41876</v>
       </c>
       <c r="B31">
-        <v>10000000</v>
+        <v>9857487.625460058</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -639,7 +639,7 @@
         <v>41877</v>
       </c>
       <c r="B32">
-        <v>10000000</v>
+        <v>9857471.225721423</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>41878</v>
       </c>
       <c r="B33">
-        <v>10000000</v>
+        <v>9830937.173417291</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -655,7 +655,7 @@
         <v>41879</v>
       </c>
       <c r="B34">
-        <v>10000000</v>
+        <v>9903591.094214343</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>41880</v>
       </c>
       <c r="B35">
-        <v>10000000</v>
+        <v>9999706.245221792</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41883</v>
       </c>
       <c r="B36">
-        <v>10000000</v>
+        <v>9962491.926924115</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -679,7 +679,7 @@
         <v>41884</v>
       </c>
       <c r="B37">
-        <v>10000000</v>
+        <v>10057572.22257799</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -687,7 +687,7 @@
         <v>41885</v>
       </c>
       <c r="B38">
-        <v>10000000</v>
+        <v>10101862.34788013</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -695,7 +695,7 @@
         <v>41886</v>
       </c>
       <c r="B39">
-        <v>10000000</v>
+        <v>10268007.13586684</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -703,7 +703,7 @@
         <v>41887</v>
       </c>
       <c r="B40">
-        <v>10000000</v>
+        <v>10320881.07788692</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -711,7 +711,7 @@
         <v>41891</v>
       </c>
       <c r="B41">
-        <v>10000000</v>
+        <v>10389478.09776979</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -719,7 +719,7 @@
         <v>41892</v>
       </c>
       <c r="B42">
-        <v>10000000</v>
+        <v>10608783.12267817</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -727,7 +727,7 @@
         <v>41893</v>
       </c>
       <c r="B43">
-        <v>9990000</v>
+        <v>10555916.26319468</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -735,7 +735,7 @@
         <v>41894</v>
       </c>
       <c r="B44">
-        <v>10054833.35996485</v>
+        <v>10624738.82676921</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -743,7 +743,7 @@
         <v>41897</v>
       </c>
       <c r="B45">
-        <v>9851705.364117332</v>
+        <v>10410104.29694081</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -751,7 +751,7 @@
         <v>41898</v>
       </c>
       <c r="B46">
-        <v>9801392.552368024</v>
+        <v>10356939.77418186</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -759,7 +759,7 @@
         <v>41899</v>
       </c>
       <c r="B47">
-        <v>9874577.659061691</v>
+        <v>10413607.55075555</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -767,7 +767,7 @@
         <v>41900</v>
       </c>
       <c r="B48">
-        <v>9886381.455622263</v>
+        <v>10380286.82924162</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -775,7 +775,7 @@
         <v>41901</v>
       </c>
       <c r="B49">
-        <v>9732550.856311461</v>
+        <v>10238648.9050652</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -783,7 +783,7 @@
         <v>41904</v>
       </c>
       <c r="B50">
-        <v>9961890.941847648</v>
+        <v>9977393.99202783</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -791,7 +791,7 @@
         <v>41905</v>
       </c>
       <c r="B51">
-        <v>10264822.97058716</v>
+        <v>10296581.17528223</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -799,7 +799,7 @@
         <v>41906</v>
       </c>
       <c r="B52">
-        <v>10256894.04094203</v>
+        <v>10288624.12263295</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -807,7 +807,7 @@
         <v>41907</v>
       </c>
       <c r="B53">
-        <v>10242695.41538633</v>
+        <v>10284670.19225361</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -815,7 +815,7 @@
         <v>41908</v>
       </c>
       <c r="B54">
-        <v>10242695.41538633</v>
+        <v>10556088.28761112</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -823,7 +823,7 @@
         <v>41911</v>
       </c>
       <c r="B55">
-        <v>10242695.41538633</v>
+        <v>10390231.25505357</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -831,7 +831,7 @@
         <v>41912</v>
       </c>
       <c r="B56">
-        <v>10242695.41538633</v>
+        <v>10582134.05998859</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -839,7 +839,7 @@
         <v>41920</v>
       </c>
       <c r="B57">
-        <v>10242695.41538633</v>
+        <v>10512416.03685906</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -847,7 +847,7 @@
         <v>41921</v>
       </c>
       <c r="B58">
-        <v>10242695.41538633</v>
+        <v>10686264.69122009</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -855,7 +855,7 @@
         <v>41922</v>
       </c>
       <c r="B59">
-        <v>10242695.41538633</v>
+        <v>10539444.10255799</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -863,7 +863,7 @@
         <v>41925</v>
       </c>
       <c r="B60">
-        <v>10242695.41538633</v>
+        <v>10782693.99073027</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -871,7 +871,7 @@
         <v>41926</v>
       </c>
       <c r="B61">
-        <v>10242695.41538633</v>
+        <v>10534664.60940469</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -879,7 +879,7 @@
         <v>41927</v>
       </c>
       <c r="B62">
-        <v>10242695.41538633</v>
+        <v>10502044.19613365</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -887,7 +887,7 @@
         <v>41928</v>
       </c>
       <c r="B63">
-        <v>10242695.41538633</v>
+        <v>10426583.67732956</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -895,7 +895,7 @@
         <v>41929</v>
       </c>
       <c r="B64">
-        <v>10242695.41538633</v>
+        <v>10489268.85815715</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -903,7 +903,7 @@
         <v>41932</v>
       </c>
       <c r="B65">
-        <v>10242695.41538633</v>
+        <v>10418185.38614809</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -911,7 +911,7 @@
         <v>41933</v>
       </c>
       <c r="B66">
-        <v>10242695.41538633</v>
+        <v>10429350.50544955</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -919,7 +919,7 @@
         <v>41934</v>
       </c>
       <c r="B67">
-        <v>10242695.41538633</v>
+        <v>10360669.49300453</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -927,7 +927,7 @@
         <v>41935</v>
       </c>
       <c r="B68">
-        <v>10242695.41538633</v>
+        <v>10593249.68613241</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -935,7 +935,7 @@
         <v>41936</v>
       </c>
       <c r="B69">
-        <v>10242695.41538633</v>
+        <v>10625603.67642803</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -943,7 +943,7 @@
         <v>41939</v>
       </c>
       <c r="B70">
-        <v>10242695.41538633</v>
+        <v>10525165.35050288</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -951,7 +951,7 @@
         <v>41940</v>
       </c>
       <c r="B71">
-        <v>10242695.41538633</v>
+        <v>10558090.05559696</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -959,7 +959,7 @@
         <v>41941</v>
       </c>
       <c r="B72">
-        <v>10242695.41538633</v>
+        <v>10574622.6857085</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -967,7 +967,7 @@
         <v>41942</v>
       </c>
       <c r="B73">
-        <v>10242695.41538633</v>
+        <v>10752639.16449323</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -975,7 +975,7 @@
         <v>41943</v>
       </c>
       <c r="B74">
-        <v>10242695.41538633</v>
+        <v>10744290.40602831</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -983,7 +983,7 @@
         <v>41946</v>
       </c>
       <c r="B75">
-        <v>10242695.41538633</v>
+        <v>10623735.46712334</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -991,7 +991,7 @@
         <v>41947</v>
       </c>
       <c r="B76">
-        <v>10242695.41538633</v>
+        <v>10497547.65199737</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -999,7 +999,7 @@
         <v>41948</v>
       </c>
       <c r="B77">
-        <v>10242695.41538633</v>
+        <v>10417716.20772438</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>41949</v>
       </c>
       <c r="B78">
-        <v>10242695.41538633</v>
+        <v>10549192.12242761</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>41950</v>
       </c>
       <c r="B79">
-        <v>10242695.41538633</v>
+        <v>10528427.61957731</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>41953</v>
       </c>
       <c r="B80">
-        <v>10242695.41538633</v>
+        <v>10394686.35043693</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>41954</v>
       </c>
       <c r="B81">
-        <v>10242695.41538633</v>
+        <v>10390236.78861054</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>41955</v>
       </c>
       <c r="B82">
-        <v>10242695.41538633</v>
+        <v>10410553.84973099</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>41956</v>
       </c>
       <c r="B83">
-        <v>10242695.41538633</v>
+        <v>10365843.33505177</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>41957</v>
       </c>
       <c r="B84">
-        <v>10242695.41538633</v>
+        <v>10206343.96284065</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>41960</v>
       </c>
       <c r="B85">
-        <v>10242695.41538633</v>
+        <v>10148424.25383133</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>41961</v>
       </c>
       <c r="B86">
-        <v>10242695.41538633</v>
+        <v>10233147.60974017</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>41962</v>
       </c>
       <c r="B87">
-        <v>10242695.41538633</v>
+        <v>10503901.99485514</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>41963</v>
       </c>
       <c r="B88">
-        <v>10242695.41538633</v>
+        <v>10478503.22712397</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>41964</v>
       </c>
       <c r="B89">
-        <v>10242695.41538633</v>
+        <v>10581447.12038114</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>41967</v>
       </c>
       <c r="B90">
-        <v>10242695.41538633</v>
+        <v>10352598.83876464</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>41968</v>
       </c>
       <c r="B91">
-        <v>10242695.41538633</v>
+        <v>10177657.8454516</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>41969</v>
       </c>
       <c r="B92">
-        <v>10242695.41538633</v>
+        <v>10127336.76352595</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>41970</v>
       </c>
       <c r="B93">
-        <v>10232452.71997094</v>
+        <v>10179612.91698061</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>41971</v>
       </c>
       <c r="B94">
-        <v>10503142.28702056</v>
+        <v>10169433.30406363</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>41974</v>
       </c>
       <c r="B95">
-        <v>10531300.93749658</v>
+        <v>10197649.14844463</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>41975</v>
       </c>
       <c r="B96">
-        <v>10610158.7299826</v>
+        <v>10274002.39938493</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>41976</v>
       </c>
       <c r="B97">
-        <v>10407352.3255394</v>
+        <v>10057618.21552173</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>41977</v>
       </c>
       <c r="B98">
-        <v>10555602.58461615</v>
+        <v>9913364.342586558</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>41978</v>
       </c>
       <c r="B99">
-        <v>10699346.04136556</v>
+        <v>9754337.065189682</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>41981</v>
       </c>
       <c r="B100">
-        <v>10682750.51038282</v>
+        <v>9738758.10302379</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>41982</v>
       </c>
       <c r="B101">
-        <v>10536355.0039875</v>
+        <v>9624573.784186535</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>41983</v>
       </c>
       <c r="B102">
-        <v>10418114.61209809</v>
+        <v>9693481.632282635</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>41984</v>
       </c>
       <c r="B103">
-        <v>10407578.25709411</v>
+        <v>9674163.576866167</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>41985</v>
       </c>
       <c r="B104">
-        <v>10407578.25709411</v>
+        <v>9704429.759177424</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>41988</v>
       </c>
       <c r="B105">
-        <v>10407578.25709411</v>
+        <v>9794852.756278368</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>41989</v>
       </c>
       <c r="B106">
-        <v>10407578.25709411</v>
+        <v>9663490.250762086</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>41990</v>
       </c>
       <c r="B107">
-        <v>10407578.25709411</v>
+        <v>9571266.310739355</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>41991</v>
       </c>
       <c r="B108">
-        <v>10407578.25709411</v>
+        <v>9536845.072157452</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>41992</v>
       </c>
       <c r="B109">
-        <v>10407578.25709411</v>
+        <v>9517987.786773719</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>41995</v>
       </c>
       <c r="B110">
-        <v>10407578.25709411</v>
+        <v>9461496.161018522</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>41996</v>
       </c>
       <c r="B111">
-        <v>10407578.25709411</v>
+        <v>9208519.175332313</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>41997</v>
       </c>
       <c r="B112">
-        <v>10407578.25709411</v>
+        <v>9325847.170880916</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>41998</v>
       </c>
       <c r="B113">
-        <v>10407578.25709411</v>
+        <v>9221277.005809603</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>41999</v>
       </c>
       <c r="B114">
-        <v>10407578.25709411</v>
+        <v>9262346.011788001</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>42002</v>
       </c>
       <c r="B115">
-        <v>10407578.25709411</v>
+        <v>9269884.735703975</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>42003</v>
       </c>
       <c r="B116">
-        <v>10407578.25709411</v>
+        <v>9430587.993088374</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>42004</v>
       </c>
       <c r="B117">
-        <v>10407578.25709411</v>
+        <v>9794702.99073907</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>42009</v>
       </c>
       <c r="B118">
-        <v>10407578.25709411</v>
+        <v>9549143.589315021</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>42010</v>
       </c>
       <c r="B119">
-        <v>10407578.25709411</v>
+        <v>9552735.245979419</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>42011</v>
       </c>
       <c r="B120">
-        <v>10407578.25709411</v>
+        <v>9792070.097837284</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>42012</v>
       </c>
       <c r="B121">
-        <v>10407578.25709411</v>
+        <v>9663243.276742255</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>42013</v>
       </c>
       <c r="B122">
-        <v>10407578.25709411</v>
+        <v>9647579.788327739</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>42016</v>
       </c>
       <c r="B123">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>42017</v>
       </c>
       <c r="B124">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>42018</v>
       </c>
       <c r="B125">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>42019</v>
       </c>
       <c r="B126">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>42020</v>
       </c>
       <c r="B127">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>42023</v>
       </c>
       <c r="B128">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>42024</v>
       </c>
       <c r="B129">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>42025</v>
       </c>
       <c r="B130">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>42026</v>
       </c>
       <c r="B131">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>42027</v>
       </c>
       <c r="B132">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>42030</v>
       </c>
       <c r="B133">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>42031</v>
       </c>
       <c r="B134">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>42032</v>
       </c>
       <c r="B135">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>42033</v>
       </c>
       <c r="B136">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>42034</v>
       </c>
       <c r="B137">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>42037</v>
       </c>
       <c r="B138">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>42038</v>
       </c>
       <c r="B139">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>42039</v>
       </c>
       <c r="B140">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>42040</v>
       </c>
       <c r="B141">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>42041</v>
       </c>
       <c r="B142">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>42044</v>
       </c>
       <c r="B143">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>42045</v>
       </c>
       <c r="B144">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>42046</v>
       </c>
       <c r="B145">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>42047</v>
       </c>
       <c r="B146">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>42048</v>
       </c>
       <c r="B147">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>42051</v>
       </c>
       <c r="B148">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>42052</v>
       </c>
       <c r="B149">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>42060</v>
       </c>
       <c r="B150">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>42061</v>
       </c>
       <c r="B151">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>42062</v>
       </c>
       <c r="B152">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>42065</v>
       </c>
       <c r="B153">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>42066</v>
       </c>
       <c r="B154">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>42067</v>
       </c>
       <c r="B155">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>42068</v>
       </c>
       <c r="B156">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>42069</v>
       </c>
       <c r="B157">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>42072</v>
       </c>
       <c r="B158">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>42073</v>
       </c>
       <c r="B159">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>42074</v>
       </c>
       <c r="B160">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>42075</v>
       </c>
       <c r="B161">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>42076</v>
       </c>
       <c r="B162">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>42079</v>
       </c>
       <c r="B163">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>42080</v>
       </c>
       <c r="B164">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>42081</v>
       </c>
       <c r="B165">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>42082</v>
       </c>
       <c r="B166">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>42083</v>
       </c>
       <c r="B167">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>42086</v>
       </c>
       <c r="B168">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>42087</v>
       </c>
       <c r="B169">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>42088</v>
       </c>
       <c r="B170">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>42089</v>
       </c>
       <c r="B171">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>42090</v>
       </c>
       <c r="B172">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>42093</v>
       </c>
       <c r="B173">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>42094</v>
       </c>
       <c r="B174">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>42095</v>
       </c>
       <c r="B175">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>42096</v>
       </c>
       <c r="B176">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>42097</v>
       </c>
       <c r="B177">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>42101</v>
       </c>
       <c r="B178">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>42102</v>
       </c>
       <c r="B179">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>42103</v>
       </c>
       <c r="B180">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>42104</v>
       </c>
       <c r="B181">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>42107</v>
       </c>
       <c r="B182">
-        <v>10407578.25709411</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>42108</v>
       </c>
       <c r="B183">
-        <v>10397170.67883701</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>42109</v>
       </c>
       <c r="B184">
-        <v>10432803.08279931</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>42110</v>
       </c>
       <c r="B185">
-        <v>10571138.73504048</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>42111</v>
       </c>
       <c r="B186">
-        <v>10475673.84412245</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>42114</v>
       </c>
       <c r="B187">
-        <v>10509430.88120795</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>42115</v>
       </c>
       <c r="B188">
-        <v>10382016.56890308</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>42116</v>
       </c>
       <c r="B189">
-        <v>10384179.40782819</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>42117</v>
       </c>
       <c r="B190">
-        <v>10153925.77541409</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>42118</v>
       </c>
       <c r="B191">
-        <v>10140327.22585158</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>42121</v>
       </c>
       <c r="B192">
-        <v>10397725.47551223</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>42122</v>
       </c>
       <c r="B193">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>42123</v>
       </c>
       <c r="B194">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>42124</v>
       </c>
       <c r="B195">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>42128</v>
       </c>
       <c r="B196">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>42129</v>
       </c>
       <c r="B197">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>42130</v>
       </c>
       <c r="B198">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>42131</v>
       </c>
       <c r="B199">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>42132</v>
       </c>
       <c r="B200">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>42135</v>
       </c>
       <c r="B201">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>42136</v>
       </c>
       <c r="B202">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>42137</v>
       </c>
       <c r="B203">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>42138</v>
       </c>
       <c r="B204">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>42139</v>
       </c>
       <c r="B205">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>42142</v>
       </c>
       <c r="B206">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>42143</v>
       </c>
       <c r="B207">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>42144</v>
       </c>
       <c r="B208">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>42145</v>
       </c>
       <c r="B209">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>42146</v>
       </c>
       <c r="B210">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>42149</v>
       </c>
       <c r="B211">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>42150</v>
       </c>
       <c r="B212">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>42151</v>
       </c>
       <c r="B213">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>42152</v>
       </c>
       <c r="B214">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>42153</v>
       </c>
       <c r="B215">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>42156</v>
       </c>
       <c r="B216">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>42157</v>
       </c>
       <c r="B217">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>42158</v>
       </c>
       <c r="B218">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>42159</v>
       </c>
       <c r="B219">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>42160</v>
       </c>
       <c r="B220">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>42163</v>
       </c>
       <c r="B221">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>42164</v>
       </c>
       <c r="B222">
-        <v>10527810.04926581</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>42165</v>
       </c>
       <c r="B223">
-        <v>10517282.23921654</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>42166</v>
       </c>
       <c r="B224">
-        <v>10490227.2170694</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>42167</v>
       </c>
       <c r="B225">
-        <v>10451254.17724129</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>42170</v>
       </c>
       <c r="B226">
-        <v>10207149.64231374</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>42171</v>
       </c>
       <c r="B227">
-        <v>10320718.69525889</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>42172</v>
       </c>
       <c r="B228">
-        <v>10468646.96455423</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>42173</v>
       </c>
       <c r="B229">
-        <v>10532939.022173</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>42174</v>
       </c>
       <c r="B230">
-        <v>10443558.93144709</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>42178</v>
       </c>
       <c r="B231">
-        <v>10466951.67279916</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>42179</v>
       </c>
       <c r="B232">
-        <v>10471585.91985122</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>42180</v>
       </c>
       <c r="B233">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>42181</v>
       </c>
       <c r="B234">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>42184</v>
       </c>
       <c r="B235">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>42185</v>
       </c>
       <c r="B236">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>42186</v>
       </c>
       <c r="B237">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>42187</v>
       </c>
       <c r="B238">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>42188</v>
       </c>
       <c r="B239">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>42191</v>
       </c>
       <c r="B240">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>42192</v>
       </c>
       <c r="B241">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>42193</v>
       </c>
       <c r="B242">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>42194</v>
       </c>
       <c r="B243">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>42195</v>
       </c>
       <c r="B244">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>42198</v>
       </c>
       <c r="B245">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>42199</v>
       </c>
       <c r="B246">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>42200</v>
       </c>
       <c r="B247">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>42201</v>
       </c>
       <c r="B248">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>42202</v>
       </c>
       <c r="B249">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>42205</v>
       </c>
       <c r="B250">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>42206</v>
       </c>
       <c r="B251">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>42207</v>
       </c>
       <c r="B252">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>42208</v>
       </c>
       <c r="B253">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>42209</v>
       </c>
       <c r="B254">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>42212</v>
       </c>
       <c r="B255">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>42213</v>
       </c>
       <c r="B256">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>42214</v>
       </c>
       <c r="B257">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>42215</v>
       </c>
       <c r="B258">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>42216</v>
       </c>
       <c r="B259">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>42219</v>
       </c>
       <c r="B260">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>42220</v>
       </c>
       <c r="B261">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>42221</v>
       </c>
       <c r="B262">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>42222</v>
       </c>
       <c r="B263">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>42223</v>
       </c>
       <c r="B264">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>42226</v>
       </c>
       <c r="B265">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>42227</v>
       </c>
       <c r="B266">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>42228</v>
       </c>
       <c r="B267">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>42229</v>
       </c>
       <c r="B268">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>42230</v>
       </c>
       <c r="B269">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>42233</v>
       </c>
       <c r="B270">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>42234</v>
       </c>
       <c r="B271">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>42235</v>
       </c>
       <c r="B272">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>42236</v>
       </c>
       <c r="B273">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>42237</v>
       </c>
       <c r="B274">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>42240</v>
       </c>
       <c r="B275">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>42241</v>
       </c>
       <c r="B276">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>42242</v>
       </c>
       <c r="B277">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>42243</v>
       </c>
       <c r="B278">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>42244</v>
       </c>
       <c r="B279">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>42247</v>
       </c>
       <c r="B280">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>42248</v>
       </c>
       <c r="B281">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>42249</v>
       </c>
       <c r="B282">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>42254</v>
       </c>
       <c r="B283">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>42255</v>
       </c>
       <c r="B284">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>42256</v>
       </c>
       <c r="B285">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>42257</v>
       </c>
       <c r="B286">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>42258</v>
       </c>
       <c r="B287">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>42261</v>
       </c>
       <c r="B288">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>42262</v>
       </c>
       <c r="B289">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>42263</v>
       </c>
       <c r="B290">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>42264</v>
       </c>
       <c r="B291">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>42265</v>
       </c>
       <c r="B292">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>42268</v>
       </c>
       <c r="B293">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>42269</v>
       </c>
       <c r="B294">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>42270</v>
       </c>
       <c r="B295">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>42271</v>
       </c>
       <c r="B296">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>42272</v>
       </c>
       <c r="B297">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>42275</v>
       </c>
       <c r="B298">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>42276</v>
       </c>
       <c r="B299">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>42277</v>
       </c>
       <c r="B300">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>42285</v>
       </c>
       <c r="B301">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>42286</v>
       </c>
       <c r="B302">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>42289</v>
       </c>
       <c r="B303">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>42290</v>
       </c>
       <c r="B304">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>42291</v>
       </c>
       <c r="B305">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>42292</v>
       </c>
       <c r="B306">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>42293</v>
       </c>
       <c r="B307">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>42296</v>
       </c>
       <c r="B308">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>42297</v>
       </c>
       <c r="B309">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>42298</v>
       </c>
       <c r="B310">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>42299</v>
       </c>
       <c r="B311">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>42300</v>
       </c>
       <c r="B312">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>42303</v>
       </c>
       <c r="B313">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>42304</v>
       </c>
       <c r="B314">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>42305</v>
       </c>
       <c r="B315">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>42306</v>
       </c>
       <c r="B316">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>42307</v>
       </c>
       <c r="B317">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>42310</v>
       </c>
       <c r="B318">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>42311</v>
       </c>
       <c r="B319">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>42312</v>
       </c>
       <c r="B320">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>42313</v>
       </c>
       <c r="B321">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>42314</v>
       </c>
       <c r="B322">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>42317</v>
       </c>
       <c r="B323">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>42318</v>
       </c>
       <c r="B324">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>42319</v>
       </c>
       <c r="B325">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>42320</v>
       </c>
       <c r="B326">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>42321</v>
       </c>
       <c r="B327">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>42324</v>
       </c>
       <c r="B328">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>42325</v>
       </c>
       <c r="B329">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>42326</v>
       </c>
       <c r="B330">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>42327</v>
       </c>
       <c r="B331">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>42328</v>
       </c>
       <c r="B332">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>42331</v>
       </c>
       <c r="B333">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>42332</v>
       </c>
       <c r="B334">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>42333</v>
       </c>
       <c r="B335">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>42334</v>
       </c>
       <c r="B336">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>42335</v>
       </c>
       <c r="B337">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>42338</v>
       </c>
       <c r="B338">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>42339</v>
       </c>
       <c r="B339">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>42340</v>
       </c>
       <c r="B340">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>42341</v>
       </c>
       <c r="B341">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>42342</v>
       </c>
       <c r="B342">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>42345</v>
       </c>
       <c r="B343">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>42346</v>
       </c>
       <c r="B344">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>42347</v>
       </c>
       <c r="B345">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>42348</v>
       </c>
       <c r="B346">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>42349</v>
       </c>
       <c r="B347">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>42352</v>
       </c>
       <c r="B348">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>42353</v>
       </c>
       <c r="B349">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>42354</v>
       </c>
       <c r="B350">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>42355</v>
       </c>
       <c r="B351">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>42356</v>
       </c>
       <c r="B352">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>42359</v>
       </c>
       <c r="B353">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>42360</v>
       </c>
       <c r="B354">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>42361</v>
       </c>
       <c r="B355">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>42362</v>
       </c>
       <c r="B356">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>42363</v>
       </c>
       <c r="B357">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>42366</v>
       </c>
       <c r="B358">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>42367</v>
       </c>
       <c r="B359">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>42368</v>
       </c>
       <c r="B360">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>42369</v>
       </c>
       <c r="B361">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>42373</v>
       </c>
       <c r="B362">
-        <v>10447080.4469028</v>
+        <v>9537047.097138984</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>42374</v>
       </c>
       <c r="B363">
-        <v>10447080.4469028</v>
+        <v>9527510.050041845</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>42375</v>
       </c>
       <c r="B364">
-        <v>10447080.4469028</v>
+        <v>9570344.8517367</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>42376</v>
       </c>
       <c r="B365">
-        <v>10447080.4469028</v>
+        <v>9479574.744195947</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>42377</v>
       </c>
       <c r="B366">
-        <v>10447080.4469028</v>
+        <v>9455123.256285474</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>42380</v>
       </c>
       <c r="B367">
-        <v>10447080.4469028</v>
+        <v>9519388.03895453</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>42381</v>
       </c>
       <c r="B368">
-        <v>10447080.4469028</v>
+        <v>9508571.731452607</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>42382</v>
       </c>
       <c r="B369">
-        <v>10447080.4469028</v>
+        <v>9605897.860433476</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>42383</v>
       </c>
       <c r="B370">
-        <v>10447080.4469028</v>
+        <v>9600344.437485749</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>42384</v>
       </c>
       <c r="B371">
-        <v>10447080.4469028</v>
+        <v>9512021.974451873</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>42387</v>
       </c>
       <c r="B372">
-        <v>10447080.4469028</v>
+        <v>9389047.860850673</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>42388</v>
       </c>
       <c r="B373">
-        <v>10447080.4469028</v>
+        <v>9645604.954344112</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>42389</v>
       </c>
       <c r="B374">
-        <v>10447080.4469028</v>
+        <v>9712296.169849403</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>42390</v>
       </c>
       <c r="B375">
-        <v>10447080.4469028</v>
+        <v>9591407.514995895</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>42391</v>
       </c>
       <c r="B376">
-        <v>10447080.4469028</v>
+        <v>9564557.748507116</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>42394</v>
       </c>
       <c r="B377">
-        <v>10447080.4469028</v>
+        <v>9659819.677270405</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>42395</v>
       </c>
       <c r="B378">
-        <v>10447080.4469028</v>
+        <v>9722574.228486044</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>42396</v>
       </c>
       <c r="B379">
-        <v>10447080.4469028</v>
+        <v>9775062.993525416</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>42397</v>
       </c>
       <c r="B380">
-        <v>10447080.4469028</v>
+        <v>9832867.57456501</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>42398</v>
       </c>
       <c r="B381">
-        <v>10447080.4469028</v>
+        <v>9561387.627272006</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>42401</v>
       </c>
       <c r="B382">
-        <v>10447080.4469028</v>
+        <v>9525706.496345568</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>42402</v>
       </c>
       <c r="B383">
-        <v>10447080.4469028</v>
+        <v>9527658.670170048</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>42403</v>
       </c>
       <c r="B384">
-        <v>10447080.4469028</v>
+        <v>9527656.717996223</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>42404</v>
       </c>
       <c r="B385">
-        <v>10447080.4469028</v>
+        <v>9496215.444966353</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>42405</v>
       </c>
       <c r="B386">
-        <v>10447080.4469028</v>
+        <v>9355163.205783993</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>42415</v>
       </c>
       <c r="B387">
-        <v>10447080.4469028</v>
+        <v>9428650.094345506</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>42416</v>
       </c>
       <c r="B388">
-        <v>10447080.4469028</v>
+        <v>9617167.667053116</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>42417</v>
       </c>
       <c r="B389">
-        <v>10447080.4469028</v>
+        <v>9586728.899523431</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>42418</v>
       </c>
       <c r="B390">
-        <v>10447080.4469028</v>
+        <v>9576400.977461576</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>42419</v>
       </c>
       <c r="B391">
-        <v>10447080.4469028</v>
+        <v>9617494.263041427</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>42422</v>
       </c>
       <c r="B392">
-        <v>10447080.4469028</v>
+        <v>9745297.434563845</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>42423</v>
       </c>
       <c r="B393">
-        <v>10447080.4469028</v>
+        <v>10049311.69660745</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>42424</v>
       </c>
       <c r="B394">
-        <v>10447080.4469028</v>
+        <v>9874543.455159748</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>42425</v>
       </c>
       <c r="B395">
-        <v>10447080.4469028</v>
+        <v>9910932.075741487</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>42426</v>
       </c>
       <c r="B396">
-        <v>10447080.4469028</v>
+        <v>9926268.034640482</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>42429</v>
       </c>
       <c r="B397">
-        <v>10447080.4469028</v>
+        <v>9874902.579055954</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>42430</v>
       </c>
       <c r="B398">
-        <v>10447080.4469028</v>
+        <v>10148298.72123554</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>42431</v>
       </c>
       <c r="B399">
-        <v>10447080.4469028</v>
+        <v>10258134.23452218</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>42432</v>
       </c>
       <c r="B400">
-        <v>10447080.4469028</v>
+        <v>10222416.42416248</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>42433</v>
       </c>
       <c r="B401">
-        <v>10447080.4469028</v>
+        <v>10129572.21138893</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>42436</v>
       </c>
       <c r="B402">
-        <v>10447080.4469028</v>
+        <v>10222694.11938754</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>42437</v>
       </c>
       <c r="B403">
-        <v>10447080.4469028</v>
+        <v>11260157.24076696</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>42438</v>
       </c>
       <c r="B404">
-        <v>10447080.4469028</v>
+        <v>11049237.71079788</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>42439</v>
       </c>
       <c r="B405">
-        <v>10447080.4469028</v>
+        <v>10855351.03882275</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>42440</v>
       </c>
       <c r="B406">
-        <v>10447080.4469028</v>
+        <v>10849930.73638303</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>42443</v>
       </c>
       <c r="B407">
-        <v>10447080.4469028</v>
+        <v>10563676.29072748</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>42444</v>
       </c>
       <c r="B408">
-        <v>10447080.4469028</v>
+        <v>10454999.23139617</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>42445</v>
       </c>
       <c r="B409">
-        <v>10447080.4469028</v>
+        <v>10375352.14816885</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>42446</v>
       </c>
       <c r="B410">
-        <v>10447080.4469028</v>
+        <v>10157352.9329095</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>42447</v>
       </c>
       <c r="B411">
-        <v>10447080.4469028</v>
+        <v>9764794.170822814</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>42450</v>
       </c>
       <c r="B412">
-        <v>10447080.4469028</v>
+        <v>9934983.673443686</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42451</v>
       </c>
       <c r="B413">
-        <v>10447080.4469028</v>
+        <v>10101031.77405027</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>42452</v>
       </c>
       <c r="B414">
-        <v>10447080.4469028</v>
+        <v>10110103.92045174</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>42453</v>
       </c>
       <c r="B415">
-        <v>10447080.4469028</v>
+        <v>10311463.35146412</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>42454</v>
       </c>
       <c r="B416">
-        <v>10447080.4469028</v>
+        <v>9938315.07202013</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>42457</v>
       </c>
       <c r="B417">
-        <v>10447080.4469028</v>
+        <v>10293154.05736731</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>42458</v>
       </c>
       <c r="B418">
-        <v>10447080.4469028</v>
+        <v>10065670.14324531</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>42459</v>
       </c>
       <c r="B419">
-        <v>10447080.4469028</v>
+        <v>10175959.39214713</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>42460</v>
       </c>
       <c r="B420">
-        <v>10447080.4469028</v>
+        <v>9904676.315125471</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>42461</v>
       </c>
       <c r="B421">
-        <v>10447080.4469028</v>
+        <v>9754679.949913513</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>42465</v>
       </c>
       <c r="B422">
-        <v>10447080.4469028</v>
+        <v>9424610.815076917</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>42466</v>
       </c>
       <c r="B423">
-        <v>10447080.4469028</v>
+        <v>9366879.740513695</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>42467</v>
       </c>
       <c r="B424">
-        <v>10447080.4469028</v>
+        <v>9306738.518380303</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>42468</v>
       </c>
       <c r="B425">
-        <v>10447080.4469028</v>
+        <v>9341017.871748023</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>42471</v>
       </c>
       <c r="B426">
-        <v>10447080.4469028</v>
+        <v>9396292.835025834</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>42472</v>
       </c>
       <c r="B427">
-        <v>10447080.4469028</v>
+        <v>9824562.26894903</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>42473</v>
       </c>
       <c r="B428">
-        <v>10447080.4469028</v>
+        <v>10024341.97872916</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>42474</v>
       </c>
       <c r="B429">
-        <v>10447080.4469028</v>
+        <v>10040874.46248259</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>42475</v>
       </c>
       <c r="B430">
-        <v>10447080.4469028</v>
+        <v>9891727.217666754</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>42478</v>
       </c>
       <c r="B431">
-        <v>10447080.4469028</v>
+        <v>9748898.110911269</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>42479</v>
       </c>
       <c r="B432">
-        <v>10447080.4469028</v>
+        <v>10224051.26121625</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>42480</v>
       </c>
       <c r="B433">
-        <v>10436633.3664559</v>
+        <v>10646980.06729416</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>42481</v>
       </c>
       <c r="B434">
-        <v>10899824.15698401</v>
+        <v>11100715.59588717</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>42482</v>
       </c>
       <c r="B435">
-        <v>11391260.626148</v>
+        <v>11602038.00475803</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>42485</v>
       </c>
       <c r="B436">
-        <v>10884128.6264027</v>
+        <v>11085558.37652806</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>42486</v>
       </c>
       <c r="B437">
-        <v>10879258.0456582</v>
+        <v>11080597.70939241</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>42487</v>
       </c>
       <c r="B438">
-        <v>10619759.74070935</v>
+        <v>10837983.2992222</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>42488</v>
       </c>
       <c r="B439">
-        <v>10820220.42247942</v>
+        <v>10633714.28863015</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>42489</v>
       </c>
       <c r="B440">
-        <v>10629284.32625552</v>
+        <v>10806897.61931453</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>42493</v>
       </c>
       <c r="B441">
-        <v>10641845.79271134</v>
+        <v>10819231.98759345</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>42494</v>
       </c>
       <c r="B442">
-        <v>11084103.34177921</v>
+        <v>11268880.01209067</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>42495</v>
       </c>
       <c r="B443">
-        <v>11371344.33782739</v>
+        <v>11560908.93594569</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>42496</v>
       </c>
       <c r="B444">
-        <v>11618368.52758483</v>
+        <v>11812051.12347079</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>42499</v>
       </c>
       <c r="B445">
-        <v>11505501.07793231</v>
+        <v>11697302.13086013</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>42500</v>
       </c>
       <c r="B446">
-        <v>12684618.01625402</v>
+        <v>12896075.39432973</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>42501</v>
       </c>
       <c r="B447">
-        <v>12410422.38173243</v>
+        <v>12617308.81491376</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>42502</v>
       </c>
       <c r="B448">
-        <v>12416040.20061747</v>
+        <v>12623020.28496359</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>42503</v>
       </c>
       <c r="B449">
-        <v>12934057.37043159</v>
+        <v>13149672.99684815</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>42506</v>
       </c>
       <c r="B450">
-        <v>13185938.6803188</v>
+        <v>13405753.26340136</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>42507</v>
       </c>
       <c r="B451">
-        <v>12955637.12744348</v>
+        <v>13171612.49656821</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>42508</v>
       </c>
       <c r="B452">
-        <v>12628314.81870661</v>
+        <v>12838833.60119212</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>42509</v>
       </c>
       <c r="B453">
-        <v>12978160.01707226</v>
+        <v>13207278.28190999</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>42510</v>
       </c>
       <c r="B454">
-        <v>12978160.01707226</v>
+        <v>13332041.49812487</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>42513</v>
       </c>
       <c r="B455">
-        <v>12978160.01707226</v>
+        <v>13104226.85095029</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>42514</v>
       </c>
       <c r="B456">
-        <v>12978160.01707226</v>
+        <v>13878423.25680399</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>42515</v>
       </c>
       <c r="B457">
-        <v>12978160.01707226</v>
+        <v>13756497.28375591</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>42516</v>
       </c>
       <c r="B458">
-        <v>12978160.01707226</v>
+        <v>14060325.49083685</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>42517</v>
       </c>
       <c r="B459">
-        <v>12978160.01707226</v>
+        <v>13737888.98874929</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>42520</v>
       </c>
       <c r="B460">
-        <v>12978160.01707226</v>
+        <v>13250514.02189199</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>42521</v>
       </c>
       <c r="B461">
-        <v>12978160.01707226</v>
+        <v>13574708.44010088</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>42522</v>
       </c>
       <c r="B462">
-        <v>12978160.01707226</v>
+        <v>13614703.19259625</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>42523</v>
       </c>
       <c r="B463">
-        <v>12965181.85705519</v>
+        <v>13347189.89676344</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>42524</v>
       </c>
       <c r="B464">
-        <v>12884811.3237481</v>
+        <v>13235929.1307082</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>42527</v>
       </c>
       <c r="B465">
-        <v>12479988.8019593</v>
+        <v>13625177.00353278</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>42528</v>
       </c>
       <c r="B466">
-        <v>12838383.32787818</v>
+        <v>13994102.46439952</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>42529</v>
       </c>
       <c r="B467">
-        <v>12904570.76878007</v>
+        <v>14066385.75048627</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>42534</v>
       </c>
       <c r="B468">
-        <v>13003485.08885667</v>
+        <v>14174204.53589734</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>42535</v>
       </c>
       <c r="B469">
-        <v>13484248.41818691</v>
+        <v>14698251.60064528</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>42536</v>
       </c>
       <c r="B470">
-        <v>12811229.80750766</v>
+        <v>13991577.83315422</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>42537</v>
       </c>
       <c r="B471">
-        <v>12679637.95020811</v>
+        <v>14133291.65324043</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>42538</v>
       </c>
       <c r="B472">
-        <v>12734220.33938878</v>
+        <v>14045699.22441162</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>42541</v>
       </c>
       <c r="B473">
-        <v>12752569.31063854</v>
+        <v>14037992.67179746</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>42542</v>
       </c>
       <c r="B474">
-        <v>12610427.9649601</v>
+        <v>14166669.01792624</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>42543</v>
       </c>
       <c r="B475">
-        <v>12417182.02164036</v>
+        <v>13981992.61626183</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>42544</v>
       </c>
       <c r="B476">
-        <v>12828840.50525313</v>
+        <v>13490239.7083312</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>42545</v>
       </c>
       <c r="B477">
-        <v>12857361.80302995</v>
+        <v>13522261.94350906</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>42548</v>
       </c>
       <c r="B478">
-        <v>12665001.96871618</v>
+        <v>13346612.43785259</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>42549</v>
       </c>
       <c r="B479">
-        <v>11773389.56309586</v>
+        <v>14255495.50493021</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>42550</v>
       </c>
       <c r="B480">
-        <v>11750183.42851432</v>
+        <v>14231024.08924322</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>42551</v>
       </c>
       <c r="B481">
-        <v>11586393.22568066</v>
+        <v>14060870.42765535</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>42552</v>
       </c>
       <c r="B482">
-        <v>11016234.52225593</v>
+        <v>14721650.86904307</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>42555</v>
       </c>
       <c r="B483">
-        <v>11055219.45294666</v>
+        <v>14769088.96176396</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>42556</v>
       </c>
       <c r="B484">
-        <v>11434748.72086861</v>
+        <v>15276271.88640656</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>42557</v>
       </c>
       <c r="B485">
-        <v>11244096.58042008</v>
+        <v>15050660.69091467</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>42558</v>
       </c>
       <c r="B486">
-        <v>11353919.38957267</v>
+        <v>14903756.06179222</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>42559</v>
       </c>
       <c r="B487">
-        <v>11250586.86511127</v>
+        <v>15011459.52086991</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>42562</v>
       </c>
       <c r="B488">
-        <v>11616372.74293298</v>
+        <v>15491852.78471874</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>42563</v>
       </c>
       <c r="B489">
-        <v>11461224.63085447</v>
+        <v>15314518.62984112</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>42564</v>
       </c>
       <c r="B490">
-        <v>10936734.76893754</v>
+        <v>15981699.77913257</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>42565</v>
       </c>
       <c r="B491">
-        <v>10837704.53731797</v>
+        <v>15878431.35591055</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>42566</v>
       </c>
       <c r="B492">
-        <v>10850643.2890891</v>
+        <v>15827703.53027545</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>42569</v>
       </c>
       <c r="B493">
-        <v>10906620.15334099</v>
+        <v>15909646.11998316</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>42570</v>
       </c>
       <c r="B494">
-        <v>10138769.56662939</v>
+        <v>14789591.36720743</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>42571</v>
       </c>
       <c r="B495">
-        <v>10369894.81054015</v>
+        <v>15126737.15643312</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>42572</v>
       </c>
       <c r="B496">
-        <v>10327361.60175053</v>
+        <v>15094336.63327192</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>42573</v>
       </c>
       <c r="B497">
-        <v>10690732.45617844</v>
+        <v>14563125.81506399</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>42576</v>
       </c>
       <c r="B498">
-        <v>10328691.0550909</v>
+        <v>15062027.67742888</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>42577</v>
       </c>
       <c r="B499">
-        <v>10127076.43409151</v>
+        <v>14816009.97813932</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>42578</v>
       </c>
       <c r="B500">
-        <v>10245426.22185569</v>
+        <v>14612905.79612412</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>42579</v>
       </c>
       <c r="B501">
-        <v>10432816.6641687</v>
+        <v>14886683.55991903</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>42580</v>
       </c>
       <c r="B502">
-        <v>10661298.04842261</v>
+        <v>15212569.81618307</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>42583</v>
       </c>
       <c r="B503">
-        <v>10408595.40351661</v>
+        <v>14881097.92416034</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>42584</v>
       </c>
       <c r="B504">
-        <v>10034733.46409937</v>
+        <v>15383158.42942518</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>42585</v>
       </c>
       <c r="B505">
-        <v>10105067.27564076</v>
+        <v>15483949.0308337</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>42586</v>
       </c>
       <c r="B506">
-        <v>9997305.951307012</v>
+        <v>15349256.29774026</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>42587</v>
       </c>
       <c r="B507">
-        <v>10134980.33269504</v>
+        <v>15138176.27129621</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>42590</v>
       </c>
       <c r="B508">
-        <v>9801738.597354218</v>
+        <v>15617733.92238644</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>42591</v>
       </c>
       <c r="B509">
-        <v>10076667.10667828</v>
+        <v>16029223.90343234</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>42592</v>
       </c>
       <c r="B510">
-        <v>9955376.237108286</v>
+        <v>15866901.98318423</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>42593</v>
       </c>
       <c r="B511">
-        <v>9927887.810433351</v>
+        <v>15910186.3159328</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>42594</v>
       </c>
       <c r="B512">
-        <v>9934969.109662382</v>
+        <v>15867166.84744198</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>42597</v>
       </c>
       <c r="B513">
-        <v>9842067.011825178</v>
+        <v>15749924.65822118</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>42598</v>
       </c>
       <c r="B514">
-        <v>9803141.995518059</v>
+        <v>15811702.37999409</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>42599</v>
       </c>
       <c r="B515">
-        <v>9519093.160871806</v>
+        <v>16234034.88846456</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>42600</v>
       </c>
       <c r="B516">
-        <v>9191193.201247273</v>
+        <v>15720511.41748866</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>42601</v>
       </c>
       <c r="B517">
-        <v>9168276.727783041</v>
+        <v>15704790.90607117</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>42604</v>
       </c>
       <c r="B518">
-        <v>9052002.252573486</v>
+        <v>15537302.48372958</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>42605</v>
       </c>
       <c r="B519">
-        <v>8980199.049593091</v>
+        <v>15598028.96246396</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>42606</v>
       </c>
       <c r="B520">
-        <v>8784429.418464161</v>
+        <v>15902557.42217802</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>42607</v>
       </c>
       <c r="B521">
-        <v>8770116.588276329</v>
+        <v>15877052.38770155</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>42608</v>
       </c>
       <c r="B522">
-        <v>8888264.585684789</v>
+        <v>16059559.74284402</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>42611</v>
       </c>
       <c r="B523">
-        <v>9129341.927728986</v>
+        <v>15576213.46093653</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>42612</v>
       </c>
       <c r="B524">
-        <v>9129341.927728986</v>
+        <v>15620886.34774429</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>42613</v>
       </c>
       <c r="B525">
-        <v>9129341.927728986</v>
+        <v>15965242.09461152</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>42614</v>
       </c>
       <c r="B526">
-        <v>9129341.927728986</v>
+        <v>16260306.05628959</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>42615</v>
       </c>
       <c r="B527">
-        <v>9129341.927728986</v>
+        <v>16152968.86922883</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>42618</v>
       </c>
       <c r="B528">
-        <v>9129341.927728986</v>
+        <v>16051132.99049173</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>42619</v>
       </c>
       <c r="B529">
-        <v>9129341.927728986</v>
+        <v>15910430.09798672</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>42620</v>
       </c>
       <c r="B530">
-        <v>9129341.927728986</v>
+        <v>15989438.08501553</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>42621</v>
       </c>
       <c r="B531">
-        <v>9129341.927728986</v>
+        <v>16579502.13575642</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>42622</v>
       </c>
       <c r="B532">
-        <v>9129341.927728986</v>
+        <v>16572068.25964911</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>42625</v>
       </c>
       <c r="B533">
-        <v>9120212.585801257</v>
+        <v>16515200.58603325</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>42626</v>
       </c>
       <c r="B534">
-        <v>8841163.09470175</v>
+        <v>16988675.40490525</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>42627</v>
       </c>
       <c r="B535">
-        <v>8945173.434379628</v>
+        <v>17176675.48658149</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>42632</v>
       </c>
       <c r="B536">
-        <v>9141343.243019983</v>
+        <v>17553636.07717915</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>42633</v>
       </c>
       <c r="B537">
-        <v>8990855.960011618</v>
+        <v>17264667.54272067</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>42634</v>
       </c>
       <c r="B538">
-        <v>8862279.829820424</v>
+        <v>17052298.95744284</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>42635</v>
       </c>
       <c r="B539">
-        <v>8804754.149505263</v>
+        <v>17128420.20299591</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>42636</v>
       </c>
       <c r="B540">
-        <v>8665079.394534569</v>
+        <v>16859479.10914493</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>42639</v>
       </c>
       <c r="B541">
-        <v>8765024.919466553</v>
+        <v>17053911.95383975</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>42640</v>
       </c>
       <c r="B542">
-        <v>8794950.91911005</v>
+        <v>17112138.42774621</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>42641</v>
       </c>
       <c r="B543">
-        <v>8584821.19104545</v>
+        <v>16736651.45582336</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>42642</v>
       </c>
       <c r="B544">
-        <v>8485925.255127899</v>
+        <v>16894563.2460928</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>42643</v>
       </c>
       <c r="B545">
-        <v>8397666.87680741</v>
+        <v>16755342.69962275</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>42653</v>
       </c>
       <c r="B546">
-        <v>8509791.780260768</v>
+        <v>16498639.89971518</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>42654</v>
       </c>
       <c r="B547">
-        <v>8369044.974708721</v>
+        <v>16251294.24621475</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>42655</v>
       </c>
       <c r="B548">
-        <v>8619491.948813617</v>
+        <v>15731736.44794078</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>42656</v>
       </c>
       <c r="B549">
-        <v>8701583.603117732</v>
+        <v>15890792.09412147</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>42657</v>
       </c>
       <c r="B550">
-        <v>8647822.106592622</v>
+        <v>15823991.2001743</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>42660</v>
       </c>
       <c r="B551">
-        <v>8489805.113281507</v>
+        <v>16080297.64328974</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>42661</v>
       </c>
       <c r="B552">
-        <v>8630562.110260431</v>
+        <v>16338403.60408331</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>42662</v>
       </c>
       <c r="B553">
-        <v>8703863.406624788</v>
+        <v>16477249.99602638</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>42663</v>
       </c>
       <c r="B554">
-        <v>8640798.620292703</v>
+        <v>16390366.28870922</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>42664</v>
       </c>
       <c r="B555">
-        <v>8430476.666909743</v>
+        <v>16754874.04624877</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>42667</v>
       </c>
       <c r="B556">
-        <v>8371838.018667438</v>
+        <v>16675504.29009902</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>42668</v>
       </c>
       <c r="B557">
-        <v>8310799.495510251</v>
+        <v>16763165.06447846</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>42669</v>
       </c>
       <c r="B558">
-        <v>8575766.064007318</v>
+        <v>17291149.82359682</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>42670</v>
       </c>
       <c r="B559">
-        <v>8439442.451424651</v>
+        <v>17049230.95588968</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>42671</v>
       </c>
       <c r="B560">
-        <v>8490101.046322882</v>
+        <v>16946776.8626852</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>42674</v>
       </c>
       <c r="B561">
-        <v>8221746.44653857</v>
+        <v>17453584.57881807</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>42675</v>
       </c>
       <c r="B562">
-        <v>8237820.309841583</v>
+        <v>17485763.17366861</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>42676</v>
       </c>
       <c r="B563">
-        <v>8297858.29434466</v>
+        <v>17613213.23126831</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>42677</v>
       </c>
       <c r="B564">
-        <v>8268753.567620304</v>
+        <v>17586353.05468098</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>42678</v>
       </c>
       <c r="B565">
-        <v>7998078.92784836</v>
+        <v>18124623.71002313</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>42681</v>
       </c>
       <c r="B566">
-        <v>8123477.966309621</v>
+        <v>18391900.47257923</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>42682</v>
       </c>
       <c r="B567">
-        <v>8564576.39627051</v>
+        <v>19391466.49643323</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>42683</v>
       </c>
       <c r="B568">
-        <v>8379228.394869808</v>
+        <v>19007849.14814795</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>42684</v>
       </c>
       <c r="B569">
-        <v>7807320.036284836</v>
+        <v>20261476.75134598</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>42685</v>
       </c>
       <c r="B570">
-        <v>7763323.357246045</v>
+        <v>20197010.97314439</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>42688</v>
       </c>
       <c r="B571">
-        <v>7364811.474215732</v>
+        <v>21188766.05368988</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>42689</v>
       </c>
       <c r="B572">
-        <v>6864190.7048191</v>
+        <v>19922191.21693991</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>42690</v>
       </c>
       <c r="B573">
-        <v>7229183.27371687</v>
+        <v>18811938.21501345</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>42691</v>
       </c>
       <c r="B574">
-        <v>7229183.27371687</v>
+        <v>18682674.42651016</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>42692</v>
       </c>
       <c r="B575">
-        <v>7229183.27371687</v>
+        <v>18649145.46339197</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>42695</v>
       </c>
       <c r="B576">
-        <v>7229183.27371687</v>
+        <v>18920150.54350057</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>42696</v>
       </c>
       <c r="B577">
-        <v>7229183.27371687</v>
+        <v>19301459.95656662</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>42697</v>
       </c>
       <c r="B578">
-        <v>7229183.27371687</v>
+        <v>18113807.11116328</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>42698</v>
       </c>
       <c r="B579">
-        <v>7229183.27371687</v>
+        <v>17722922.61644502</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>42699</v>
       </c>
       <c r="B580">
-        <v>7229183.27371687</v>
+        <v>17428093.33376241</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>42702</v>
       </c>
       <c r="B581">
-        <v>7229183.27371687</v>
+        <v>18971360.01777842</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>42703</v>
       </c>
       <c r="B582">
-        <v>7229183.27371687</v>
+        <v>19368950.86102961</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>42704</v>
       </c>
       <c r="B583">
-        <v>7221954.090443153</v>
+        <v>17966968.01257408</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>42705</v>
       </c>
       <c r="B584">
-        <v>7061271.35310231</v>
+        <v>17573771.74715767</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>42706</v>
       </c>
       <c r="B585">
-        <v>6574681.956721111</v>
+        <v>18746046.62582772</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>42709</v>
       </c>
       <c r="B586">
-        <v>6402127.626658985</v>
+        <v>18348573.6961123</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>42710</v>
       </c>
       <c r="B587">
-        <v>6239740.999638685</v>
+        <v>18773067.47208436</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>42711</v>
       </c>
       <c r="B588">
-        <v>6183054.252428716</v>
+        <v>18646662.04806643</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>42712</v>
       </c>
       <c r="B589">
-        <v>6507920.993408937</v>
+        <v>17629711.07469552</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>42713</v>
       </c>
       <c r="B590">
-        <v>6527673.276593983</v>
+        <v>17689121.1907738</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>42716</v>
       </c>
       <c r="B591">
-        <v>6462547.532008859</v>
+        <v>17512692.11749233</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>42717</v>
       </c>
       <c r="B592">
-        <v>6632868.632933214</v>
+        <v>17974239.56537727</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>42718</v>
       </c>
       <c r="B593">
-        <v>6688052.729728458</v>
+        <v>18141167.12502452</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>42719</v>
       </c>
       <c r="B594">
-        <v>6688052.729728458</v>
+        <v>17517022.59317959</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>42720</v>
       </c>
       <c r="B595">
-        <v>6688052.729728458</v>
+        <v>17580969.8008431</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>42723</v>
       </c>
       <c r="B596">
-        <v>6688052.729728458</v>
+        <v>17028134.95782663</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>42724</v>
       </c>
       <c r="B597">
-        <v>6688052.729728458</v>
+        <v>17665896.1112152</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>42725</v>
       </c>
       <c r="B598">
-        <v>6688052.729728458</v>
+        <v>17627587.43556396</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>42726</v>
       </c>
       <c r="B599">
-        <v>6688052.729728458</v>
+        <v>17599639.46804819</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>42727</v>
       </c>
       <c r="B600">
-        <v>6688052.729728458</v>
+        <v>18493207.7675675</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>42730</v>
       </c>
       <c r="B601">
-        <v>6688052.729728458</v>
+        <v>18731644.75376794</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>42731</v>
       </c>
       <c r="B602">
-        <v>6688052.729728458</v>
+        <v>18973921.92242603</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>42732</v>
       </c>
       <c r="B603">
-        <v>6688052.729728458</v>
+        <v>18475347.91311385</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>42733</v>
       </c>
       <c r="B604">
-        <v>6688052.729728458</v>
+        <v>18588428.11966486</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>42734</v>
       </c>
       <c r="B605">
-        <v>6688052.729728458</v>
+        <v>18859739.63111237</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>42738</v>
       </c>
       <c r="B606">
-        <v>6688052.729728458</v>
+        <v>19231117.07903509</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>42739</v>
       </c>
       <c r="B607">
-        <v>6688052.729728458</v>
+        <v>19419871.87358727</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>42740</v>
       </c>
       <c r="B608">
-        <v>6688052.729728458</v>
+        <v>18948898.26324587</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>42741</v>
       </c>
       <c r="B609">
-        <v>6688052.729728458</v>
+        <v>18882081.58319522</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>42744</v>
       </c>
       <c r="B610">
-        <v>6688052.729728458</v>
+        <v>19005541.8183561</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>42745</v>
       </c>
       <c r="B611">
-        <v>6688052.729728458</v>
+        <v>19866318.97544029</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>42746</v>
       </c>
       <c r="B612">
-        <v>6688052.729728458</v>
+        <v>20670630.96776574</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>42747</v>
       </c>
       <c r="B613">
-        <v>6688052.729728458</v>
+        <v>20682345.50093766</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>42748</v>
       </c>
       <c r="B614">
-        <v>6688052.729728458</v>
+        <v>20896716.66363653</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>42751</v>
       </c>
       <c r="B615">
-        <v>6688052.729728458</v>
+        <v>20754700.73878723</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>42752</v>
       </c>
       <c r="B616">
-        <v>6688052.729728458</v>
+        <v>21932504.67277426</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>42753</v>
       </c>
       <c r="B617">
-        <v>6688052.729728458</v>
+        <v>21450470.63252894</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>42754</v>
       </c>
       <c r="B618">
-        <v>6688052.729728458</v>
+        <v>21370120.16919096</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>42755</v>
       </c>
       <c r="B619">
-        <v>6688052.729728458</v>
+        <v>21186903.62992765</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>42758</v>
       </c>
       <c r="B620">
-        <v>6688052.729728458</v>
+        <v>20743893.42199687</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>42759</v>
       </c>
       <c r="B621">
-        <v>6688052.729728458</v>
+        <v>20829851.27862515</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>42760</v>
       </c>
       <c r="B622">
-        <v>6688052.729728458</v>
+        <v>20011975.30349993</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>42761</v>
       </c>
       <c r="B623">
-        <v>6688052.729728458</v>
+        <v>19991963.32819642</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>42769</v>
       </c>
       <c r="B624">
-        <v>6688052.729728458</v>
+        <v>20338098.20997303</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>42772</v>
       </c>
       <c r="B625">
-        <v>6688052.729728458</v>
+        <v>18872476.66607433</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>42773</v>
       </c>
       <c r="B626">
-        <v>6688052.729728458</v>
+        <v>19001933.46616494</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>42774</v>
       </c>
       <c r="B627">
-        <v>6688052.729728458</v>
+        <v>18567989.85067637</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>42775</v>
       </c>
       <c r="B628">
-        <v>6688052.729728458</v>
+        <v>18044043.92105383</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>42776</v>
       </c>
       <c r="B629">
-        <v>6688052.729728458</v>
+        <v>18293555.01031192</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>42779</v>
       </c>
       <c r="B630">
-        <v>6688052.729728458</v>
+        <v>19156211.65208748</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>42780</v>
       </c>
       <c r="B631">
-        <v>6688052.729728458</v>
+        <v>19690879.03326549</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>42781</v>
       </c>
       <c r="B632">
-        <v>6688052.729728458</v>
+        <v>19651426.53763626</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>42782</v>
       </c>
       <c r="B633">
-        <v>6688052.729728458</v>
+        <v>19239158.89399646</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>42783</v>
       </c>
       <c r="B634">
-        <v>6688052.729728458</v>
+        <v>19378557.48941236</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>42786</v>
       </c>
       <c r="B635">
-        <v>6688052.729728458</v>
+        <v>19871370.13452317</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>42787</v>
       </c>
       <c r="B636">
-        <v>6688052.729728458</v>
+        <v>20344541.37578961</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>42788</v>
       </c>
       <c r="B637">
-        <v>6688052.729728458</v>
+        <v>20377536.36229294</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>42789</v>
       </c>
       <c r="B638">
-        <v>6688052.729728458</v>
+        <v>20001220.48381926</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>42790</v>
       </c>
       <c r="B639">
-        <v>6688052.729728458</v>
+        <v>20035682.43219031</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>42793</v>
       </c>
       <c r="B640">
-        <v>6688052.729728458</v>
+        <v>19915993.74307736</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>42794</v>
       </c>
       <c r="B641">
-        <v>6688052.729728458</v>
+        <v>19233892.14423125</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>42795</v>
       </c>
       <c r="B642">
-        <v>6688052.729728458</v>
+        <v>18522354.03437985</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>42796</v>
       </c>
       <c r="B643">
-        <v>6688052.729728458</v>
+        <v>18169968.14810123</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>42797</v>
       </c>
       <c r="B644">
-        <v>6688052.729728458</v>
+        <v>18221812.74926458</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>42800</v>
       </c>
       <c r="B645">
-        <v>6688052.729728458</v>
+        <v>18256904.84393741</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>42801</v>
       </c>
       <c r="B646">
-        <v>6688052.729728458</v>
+        <v>18889328.50199642</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>42802</v>
       </c>
       <c r="B647">
-        <v>6688052.729728458</v>
+        <v>18639866.91972885</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>42803</v>
       </c>
       <c r="B648">
-        <v>6688052.729728458</v>
+        <v>19045409.32025087</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>42804</v>
       </c>
       <c r="B649">
-        <v>6688052.729728458</v>
+        <v>19219390.45420301</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>42807</v>
       </c>
       <c r="B650">
-        <v>6688052.729728458</v>
+        <v>19078696.79313708</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>42808</v>
       </c>
       <c r="B651">
-        <v>6688052.729728458</v>
+        <v>17951527.24527967</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>42809</v>
       </c>
       <c r="B652">
-        <v>6688052.729728458</v>
+        <v>17892210.84763354</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>42810</v>
       </c>
       <c r="B653">
-        <v>6688052.729728458</v>
+        <v>18081871.98940058</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>42811</v>
       </c>
       <c r="B654">
-        <v>6688052.729728458</v>
+        <v>18007673.63370076</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>42814</v>
       </c>
       <c r="B655">
-        <v>6688052.729728458</v>
+        <v>17751720.53323946</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>42815</v>
       </c>
       <c r="B656">
-        <v>6688052.729728458</v>
+        <v>17706034.41447007</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>42816</v>
       </c>
       <c r="B657">
-        <v>6688052.729728458</v>
+        <v>18285653.93885897</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>42817</v>
       </c>
       <c r="B658">
-        <v>6688052.729728458</v>
+        <v>18564685.39447682</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>42818</v>
       </c>
       <c r="B659">
-        <v>6688052.729728458</v>
+        <v>18499981.53137236</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>42821</v>
       </c>
       <c r="B660">
-        <v>6688052.729728458</v>
+        <v>18452419.70432424</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>42822</v>
       </c>
       <c r="B661">
-        <v>6688052.729728458</v>
+        <v>18923633.14228478</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>42823</v>
       </c>
       <c r="B662">
-        <v>6688052.729728458</v>
+        <v>18899049.48063745</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>42824</v>
       </c>
       <c r="B663">
-        <v>6688052.729728458</v>
+        <v>18199288.98550065</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>42825</v>
       </c>
       <c r="B664">
-        <v>6688052.729728458</v>
+        <v>18025814.10311582</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>42830</v>
       </c>
       <c r="B665">
-        <v>6688052.729728458</v>
+        <v>18373049.9807587</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>42831</v>
       </c>
       <c r="B666">
-        <v>6688052.729728458</v>
+        <v>18581334.6490207</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>42832</v>
       </c>
       <c r="B667">
-        <v>6688052.729728458</v>
+        <v>17971682.58397155</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>42835</v>
       </c>
       <c r="B668">
-        <v>6688052.729728458</v>
+        <v>18599732.23667535</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>42836</v>
       </c>
       <c r="B669">
-        <v>6688052.729728458</v>
+        <v>18836116.87144141</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>42837</v>
       </c>
       <c r="B670">
-        <v>6688052.729728458</v>
+        <v>18929096.86935146</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>42838</v>
       </c>
       <c r="B671">
-        <v>6688052.729728458</v>
+        <v>19479290.75390536</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>42839</v>
       </c>
       <c r="B672">
-        <v>6688052.729728458</v>
+        <v>19236470.40726237</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>42842</v>
       </c>
       <c r="B673">
-        <v>6688052.729728458</v>
+        <v>19122901.39973186</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>42843</v>
       </c>
       <c r="B674">
-        <v>6688052.729728458</v>
+        <v>19286315.73345169</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>42844</v>
       </c>
       <c r="B675">
-        <v>6688052.729728458</v>
+        <v>19927965.93289643</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>42845</v>
       </c>
       <c r="B676">
-        <v>6688052.729728458</v>
+        <v>19694944.35587414</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>42846</v>
       </c>
       <c r="B677">
-        <v>6688052.729728458</v>
+        <v>19380075.78808831</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>42849</v>
       </c>
       <c r="B678">
-        <v>6688052.729728458</v>
+        <v>19170929.68993637</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>42850</v>
       </c>
       <c r="B679">
-        <v>6688052.729728458</v>
+        <v>19183967.68788823</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42851</v>
       </c>
       <c r="B680">
-        <v>6688052.729728458</v>
+        <v>19380409.01821128</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42852</v>
       </c>
       <c r="B681">
-        <v>6688052.729728458</v>
+        <v>19477690.50276402</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42853</v>
       </c>
       <c r="B682">
-        <v>6688052.729728458</v>
+        <v>19901513.99933044</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42857</v>
       </c>
       <c r="B683">
-        <v>6688052.729728458</v>
+        <v>20652056.73947189</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>42858</v>
       </c>
       <c r="B684">
-        <v>6688052.729728458</v>
+        <v>20594423.97847339</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42859</v>
       </c>
       <c r="B685">
-        <v>6688052.729728458</v>
+        <v>20443201.84903604</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42860</v>
       </c>
       <c r="B686">
-        <v>6688052.729728458</v>
+        <v>19274560.10716612</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>42863</v>
       </c>
       <c r="B687">
-        <v>6688052.729728458</v>
+        <v>19280330.65270462</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42864</v>
       </c>
       <c r="B688">
-        <v>6688052.729728458</v>
+        <v>18953100.42041163</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42865</v>
       </c>
       <c r="B689">
-        <v>6688052.729728458</v>
+        <v>18881960.74202663</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42866</v>
       </c>
       <c r="B690">
-        <v>6688052.729728458</v>
+        <v>18371242.9894549</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42867</v>
       </c>
       <c r="B691">
-        <v>6688052.729728458</v>
+        <v>18272869.35009538</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42870</v>
       </c>
       <c r="B692">
-        <v>6688052.729728458</v>
+        <v>17530345.55349598</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42871</v>
       </c>
       <c r="B693">
-        <v>6688052.729728458</v>
+        <v>17238184.83199775</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42872</v>
       </c>
       <c r="B694">
-        <v>6688052.729728458</v>
+        <v>17191051.4959645</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42873</v>
       </c>
       <c r="B695">
-        <v>6688052.729728458</v>
+        <v>16547945.10417701</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>42874</v>
       </c>
       <c r="B696">
-        <v>6688052.729728458</v>
+        <v>16585944.55744586</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>42877</v>
       </c>
       <c r="B697">
-        <v>6688052.729728458</v>
+        <v>17307044.14097732</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>42878</v>
       </c>
       <c r="B698">
-        <v>6688052.729728458</v>
+        <v>17791031.21924935</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>42879</v>
       </c>
       <c r="B699">
-        <v>6688052.729728458</v>
+        <v>17474994.70198653</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>42880</v>
       </c>
       <c r="B700">
-        <v>6688052.729728458</v>
+        <v>17253053.70768238</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>42881</v>
       </c>
       <c r="B701">
-        <v>6688052.729728458</v>
+        <v>17078536.46685968</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>42886</v>
       </c>
       <c r="B702">
-        <v>6688052.729728458</v>
+        <v>16933593.77410124</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>42887</v>
       </c>
       <c r="B703">
-        <v>6688052.729728458</v>
+        <v>17700663.86069943</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>42888</v>
       </c>
       <c r="B704">
-        <v>6688052.729728458</v>
+        <v>17721710.66502283</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>42891</v>
       </c>
       <c r="B705">
-        <v>6688052.729728458</v>
+        <v>18223981.66210751</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>42892</v>
       </c>
       <c r="B706">
-        <v>6688052.729728458</v>
+        <v>18705780.75296367</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42893</v>
       </c>
       <c r="B707">
-        <v>6688052.729728458</v>
+        <v>18512546.74265558</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42894</v>
       </c>
       <c r="B708">
-        <v>6688052.729728458</v>
+        <v>18455401.70383867</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42895</v>
       </c>
       <c r="B709">
-        <v>6688052.729728458</v>
+        <v>18455344.55879986</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42898</v>
       </c>
       <c r="B710">
-        <v>6688052.729728458</v>
+        <v>18032524.40024295</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42899</v>
       </c>
       <c r="B711">
-        <v>6688052.729728458</v>
+        <v>18062525.48676712</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42900</v>
       </c>
       <c r="B712">
-        <v>6688052.729728458</v>
+        <v>17432872.22565518</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42901</v>
       </c>
       <c r="B713">
-        <v>6688052.729728458</v>
+        <v>16504128.01844176</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42902</v>
       </c>
       <c r="B714">
-        <v>6688052.729728458</v>
+        <v>16644558.3603146</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42905</v>
       </c>
       <c r="B715">
-        <v>6688052.729728458</v>
+        <v>16617814.65357756</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>42906</v>
       </c>
       <c r="B716">
-        <v>6688052.729728458</v>
+        <v>16853797.01424776</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>42907</v>
       </c>
       <c r="B717">
-        <v>6688052.729728458</v>
+        <v>16615472.77761493</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>42908</v>
       </c>
       <c r="B718">
-        <v>6688052.729728458</v>
+        <v>16473343.01962886</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>42909</v>
       </c>
       <c r="B719">
-        <v>6688052.729728458</v>
+        <v>16699906.71928239</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>42912</v>
       </c>
       <c r="B720">
-        <v>6688052.729728458</v>
+        <v>16330917.76925157</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>42913</v>
       </c>
       <c r="B721">
-        <v>6688052.729728458</v>
+        <v>16044849.7433356</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42914</v>
       </c>
       <c r="B722">
-        <v>6688052.729728458</v>
+        <v>16427583.79462689</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>42915</v>
       </c>
       <c r="B723">
-        <v>6688052.729728458</v>
+        <v>16735872.93925162</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42916</v>
       </c>
       <c r="B724">
-        <v>6688052.729728458</v>
+        <v>16750568.31115426</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42919</v>
       </c>
       <c r="B725">
-        <v>6688052.729728458</v>
+        <v>17004596.02233564</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42920</v>
       </c>
       <c r="B726">
-        <v>6688052.729728458</v>
+        <v>17325402.08253657</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42921</v>
       </c>
       <c r="B727">
-        <v>6688052.729728458</v>
+        <v>17150116.21695888</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42922</v>
       </c>
       <c r="B728">
-        <v>6688052.729728458</v>
+        <v>17304018.76933174</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42923</v>
       </c>
       <c r="B729">
-        <v>6688052.729728458</v>
+        <v>17409897.98342217</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42926</v>
       </c>
       <c r="B730">
-        <v>6688052.729728458</v>
+        <v>17480677.37169078</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42927</v>
       </c>
       <c r="B731">
-        <v>6688052.729728458</v>
+        <v>17495826.94958062</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42928</v>
       </c>
       <c r="B732">
-        <v>6688052.729728458</v>
+        <v>18140934.01205496</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42929</v>
       </c>
       <c r="B733">
-        <v>6688052.729728458</v>
+        <v>18213977.4991219</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42930</v>
       </c>
       <c r="B734">
-        <v>6688052.729728458</v>
+        <v>18608904.68936735</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42933</v>
       </c>
       <c r="B735">
-        <v>6688052.729728458</v>
+        <v>17960250.50311755</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42934</v>
       </c>
       <c r="B736">
-        <v>6688052.729728458</v>
+        <v>17474812.24173632</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42935</v>
       </c>
       <c r="B737">
-        <v>6688052.729728458</v>
+        <v>17583123.55635877</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>42936</v>
       </c>
       <c r="B738">
-        <v>6688052.729728458</v>
+        <v>17918016.8257691</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>42937</v>
       </c>
       <c r="B739">
-        <v>6688052.729728458</v>
+        <v>17130459.5476868</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>42940</v>
       </c>
       <c r="B740">
-        <v>6688052.729728458</v>
+        <v>17037692.83733743</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>42941</v>
       </c>
       <c r="B741">
-        <v>6688052.729728458</v>
+        <v>17027826.8226614</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>42942</v>
       </c>
       <c r="B742">
-        <v>6688052.729728458</v>
+        <v>17298369.51884585</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>42943</v>
       </c>
       <c r="B743">
-        <v>6688052.729728458</v>
+        <v>17183799.8708884</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>42944</v>
       </c>
       <c r="B744">
-        <v>6688052.729728458</v>
+        <v>17237156.96973296</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>42947</v>
       </c>
       <c r="B745">
-        <v>6688052.729728458</v>
+        <v>17197922.04480764</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42948</v>
       </c>
       <c r="B746">
-        <v>6688052.729728458</v>
+        <v>16461695.34091285</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42949</v>
       </c>
       <c r="B747">
-        <v>6688052.729728458</v>
+        <v>16391495.27098642</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42950</v>
       </c>
       <c r="B748">
-        <v>6688052.729728458</v>
+        <v>16447655.52061272</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42951</v>
       </c>
       <c r="B749">
-        <v>6688052.729728458</v>
+        <v>16127733.55985707</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42954</v>
       </c>
       <c r="B750">
-        <v>6688052.729728458</v>
+        <v>16562101.67798927</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42955</v>
       </c>
       <c r="B751">
-        <v>6688052.729728458</v>
+        <v>17411896.94399628</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42956</v>
       </c>
       <c r="B752">
-        <v>6688052.729728458</v>
+        <v>17284201.97777176</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42957</v>
       </c>
       <c r="B753">
-        <v>6688052.729728458</v>
+        <v>17717707.03788364</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>42958</v>
       </c>
       <c r="B754">
-        <v>6688052.729728458</v>
+        <v>17530722.90737224</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>42961</v>
       </c>
       <c r="B755">
-        <v>6688052.729728458</v>
+        <v>17118592.57178479</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>42962</v>
       </c>
       <c r="B756">
-        <v>6688052.729728458</v>
+        <v>17395425.57405088</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>42963</v>
       </c>
       <c r="B757">
-        <v>6688052.729728458</v>
+        <v>17656171.23853629</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>42964</v>
       </c>
       <c r="B758">
-        <v>6688052.729728458</v>
+        <v>17730215.27527845</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>42965</v>
       </c>
       <c r="B759">
-        <v>6688052.729728458</v>
+        <v>17343818.89363482</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>42968</v>
       </c>
       <c r="B760">
-        <v>6688052.729728458</v>
+        <v>17660392.75630303</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>42969</v>
       </c>
       <c r="B761">
-        <v>6688052.729728458</v>
+        <v>18117612.23807858</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>42970</v>
       </c>
       <c r="B762">
-        <v>6688052.729728458</v>
+        <v>17885603.6960366</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>42971</v>
       </c>
       <c r="B763">
-        <v>6688052.729728458</v>
+        <v>17207479.56123376</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42972</v>
       </c>
       <c r="B764">
-        <v>6688052.729728458</v>
+        <v>16846741.8489917</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>42975</v>
       </c>
       <c r="B765">
-        <v>6688052.729728458</v>
+        <v>16522258.40533761</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>42976</v>
       </c>
       <c r="B766">
-        <v>6688052.729728458</v>
+        <v>16547693.96857798</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>42977</v>
       </c>
       <c r="B767">
-        <v>6688052.729728458</v>
+        <v>16342251.32478496</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>42978</v>
       </c>
       <c r="B768">
-        <v>6688052.729728458</v>
+        <v>16474218.72524496</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>42979</v>
       </c>
       <c r="B769">
-        <v>6688052.729728458</v>
+        <v>16182483.15453456</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>42982</v>
       </c>
       <c r="B770">
-        <v>6688052.729728458</v>
+        <v>16791737.51161348</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>42983</v>
       </c>
       <c r="B771">
-        <v>6688052.729728458</v>
+        <v>16791128.2572564</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>42984</v>
       </c>
       <c r="B772">
-        <v>6688052.729728458</v>
+        <v>16877894.60972112</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>42985</v>
       </c>
       <c r="B773">
-        <v>6688052.729728458</v>
+        <v>16503066.55894888</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>42986</v>
       </c>
       <c r="B774">
-        <v>6688052.729728458</v>
+        <v>16701304.61354073</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>42989</v>
       </c>
       <c r="B775">
-        <v>6688052.729728458</v>
+        <v>16863843.90439959</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>42990</v>
       </c>
       <c r="B776">
-        <v>6688052.729728458</v>
+        <v>16850886.42235565</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>42991</v>
       </c>
       <c r="B777">
-        <v>6688052.729728458</v>
+        <v>16661946.7946499</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>42992</v>
       </c>
       <c r="B778">
-        <v>6688052.729728458</v>
+        <v>16466527.2672159</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>42993</v>
       </c>
       <c r="B779">
-        <v>6688052.729728458</v>
+        <v>16815537.75114344</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>42996</v>
       </c>
       <c r="B780">
-        <v>6688052.729728458</v>
+        <v>16913949.22206305</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>42997</v>
       </c>
       <c r="B781">
-        <v>6688052.729728458</v>
+        <v>16966787.96167029</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>42998</v>
       </c>
       <c r="B782">
-        <v>6688052.729728458</v>
+        <v>17224909.00217564</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>42999</v>
       </c>
       <c r="B783">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>43000</v>
       </c>
       <c r="B784">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>43003</v>
       </c>
       <c r="B785">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>43004</v>
       </c>
       <c r="B786">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>43005</v>
       </c>
       <c r="B787">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>43006</v>
       </c>
       <c r="B788">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>43007</v>
       </c>
       <c r="B789">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>43017</v>
       </c>
       <c r="B790">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>43018</v>
       </c>
       <c r="B791">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>43019</v>
       </c>
       <c r="B792">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>43020</v>
       </c>
       <c r="B793">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>43021</v>
       </c>
       <c r="B794">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>43024</v>
       </c>
       <c r="B795">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>43025</v>
       </c>
       <c r="B796">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>43026</v>
       </c>
       <c r="B797">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>43027</v>
       </c>
       <c r="B798">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>43028</v>
       </c>
       <c r="B799">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>43031</v>
       </c>
       <c r="B800">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>43032</v>
       </c>
       <c r="B801">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>43033</v>
       </c>
       <c r="B802">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>43034</v>
       </c>
       <c r="B803">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>43035</v>
       </c>
       <c r="B804">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>43038</v>
       </c>
       <c r="B805">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>43039</v>
       </c>
       <c r="B806">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>43040</v>
       </c>
       <c r="B807">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>43041</v>
       </c>
       <c r="B808">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>43042</v>
       </c>
       <c r="B809">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>43045</v>
       </c>
       <c r="B810">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>43046</v>
       </c>
       <c r="B811">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>43047</v>
       </c>
       <c r="B812">
-        <v>6688052.729728458</v>
+        <v>17071635.99579266</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>43048</v>
       </c>
       <c r="B813">
-        <v>6688052.729728458</v>
+        <v>17054564.35979687</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>43049</v>
       </c>
       <c r="B814">
-        <v>6688052.729728458</v>
+        <v>17118285.65176322</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>43052</v>
       </c>
       <c r="B815">
-        <v>6688052.729728458</v>
+        <v>17344912.00417019</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>43053</v>
       </c>
       <c r="B816">
-        <v>6688052.729728458</v>
+        <v>17295213.08226801</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>43054</v>
       </c>
       <c r="B817">
-        <v>6688052.729728458</v>
+        <v>17322529.8994648</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>43055</v>
       </c>
       <c r="B818">
-        <v>6688052.729728458</v>
+        <v>16892858.58110102</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>43056</v>
       </c>
       <c r="B819">
-        <v>6688052.729728458</v>
+        <v>17064987.95664068</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>43059</v>
       </c>
       <c r="B820">
-        <v>6688052.729728458</v>
+        <v>17312385.00425817</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>43060</v>
       </c>
       <c r="B821">
-        <v>6688052.729728458</v>
+        <v>16943619.50189808</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43061</v>
       </c>
       <c r="B822">
-        <v>6688052.729728458</v>
+        <v>17275308.64954191</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43062</v>
       </c>
       <c r="B823">
-        <v>6688052.729728458</v>
+        <v>17490977.76403051</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>43063</v>
       </c>
       <c r="B824">
-        <v>6688052.729728458</v>
+        <v>17549657.45736296</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>43066</v>
       </c>
       <c r="B825">
-        <v>6688052.729728458</v>
+        <v>17446182.79782925</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>43067</v>
       </c>
       <c r="B826">
-        <v>6688052.729728458</v>
+        <v>17273043.78182304</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>43068</v>
       </c>
       <c r="B827">
-        <v>6688052.729728458</v>
+        <v>17454183.89827804</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>43069</v>
       </c>
       <c r="B828">
-        <v>6688052.729728458</v>
+        <v>17787488.02425429</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>43070</v>
       </c>
       <c r="B829">
-        <v>6688052.729728458</v>
+        <v>17932751.70628057</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43073</v>
       </c>
       <c r="B830">
-        <v>6688052.729728458</v>
+        <v>17803576.99252756</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43074</v>
       </c>
       <c r="B831">
-        <v>6688052.729728458</v>
+        <v>17383699.63308317</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43075</v>
       </c>
       <c r="B832">
-        <v>6688052.729728458</v>
+        <v>17208225.26386392</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>43076</v>
       </c>
       <c r="B833">
-        <v>6688052.729728458</v>
+        <v>17635547.39206649</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>43077</v>
       </c>
       <c r="B834">
-        <v>6688052.729728458</v>
+        <v>18055481.15851051</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>43080</v>
       </c>
       <c r="B835">
-        <v>6688052.729728458</v>
+        <v>17729411.40550159</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43081</v>
       </c>
       <c r="B836">
-        <v>6688052.729728458</v>
+        <v>17868084.24980244</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>43082</v>
       </c>
       <c r="B837">
-        <v>6688052.729728458</v>
+        <v>17656408.34519465</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>43083</v>
       </c>
       <c r="B838">
-        <v>6688052.729728458</v>
+        <v>17895603.34973075</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>43084</v>
       </c>
       <c r="B839">
-        <v>6688052.729728458</v>
+        <v>18125514.88004919</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>43087</v>
       </c>
       <c r="B840">
-        <v>6688052.729728458</v>
+        <v>17819512.41921407</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>43088</v>
       </c>
       <c r="B841">
-        <v>6688052.729728458</v>
+        <v>17993724.10432234</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>43089</v>
       </c>
       <c r="B842">
-        <v>6688052.729728458</v>
+        <v>17558337.26551961</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>43090</v>
       </c>
       <c r="B843">
-        <v>6688052.729728458</v>
+        <v>17418204.10148636</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>43091</v>
       </c>
       <c r="B844">
-        <v>6688052.729728458</v>
+        <v>17611376.14389014</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>43094</v>
       </c>
       <c r="B845">
-        <v>6688052.729728458</v>
+        <v>18022540.38390711</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>43095</v>
       </c>
       <c r="B846">
-        <v>6688052.729728458</v>
+        <v>17255319.90035976</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>43096</v>
       </c>
       <c r="B847">
-        <v>6688052.729728458</v>
+        <v>17029136.6115873</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>43097</v>
       </c>
       <c r="B848">
-        <v>6688052.729728458</v>
+        <v>16814348.86036744</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>43098</v>
       </c>
       <c r="B849">
-        <v>6688052.729728458</v>
+        <v>16935892.39824437</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/ROC_1d/wfo净值.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo净值.xlsx
@@ -439,7 +439,7 @@
         <v>41842</v>
       </c>
       <c r="B7">
-        <v>10000000</v>
+        <v>9990000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>41843</v>
       </c>
       <c r="B8">
-        <v>9990000</v>
+        <v>9976814.616221217</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>41844</v>
       </c>
       <c r="B9">
-        <v>10029405.33368357</v>
+        <v>10016183.73995488</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>41845</v>
       </c>
       <c r="B10">
-        <v>10003024.75742987</v>
+        <v>9989837.966522515</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>41848</v>
       </c>
       <c r="B11">
-        <v>9983177.182836685</v>
+        <v>9950036.880740596</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>41849</v>
       </c>
       <c r="B12">
-        <v>9831656.956698276</v>
+        <v>10081095.24634227</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>41850</v>
       </c>
       <c r="B13">
-        <v>9873531.863341546</v>
+        <v>10122934.96098844</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>41851</v>
       </c>
       <c r="B14">
-        <v>9794071.905657042</v>
+        <v>10041460.12780263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>41852</v>
       </c>
       <c r="B15">
-        <v>9758684.851277184</v>
+        <v>10005179.19699851</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>41855</v>
       </c>
       <c r="B16">
-        <v>9765040.238690402</v>
+        <v>9991684.756556904</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>41856</v>
       </c>
       <c r="B17">
-        <v>9898680.699934114</v>
+        <v>9834404.033206809</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>41857</v>
       </c>
       <c r="B18">
-        <v>9841327.570507646</v>
+        <v>9795682.580798887</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>41858</v>
       </c>
       <c r="B19">
-        <v>9776752.362683654</v>
+        <v>9840098.92428875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>41859</v>
       </c>
       <c r="B20">
-        <v>9741891.666269362</v>
+        <v>9805350.435569117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>41862</v>
       </c>
       <c r="B21">
-        <v>9704006.491523506</v>
+        <v>9747615.51049397</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>41863</v>
       </c>
       <c r="B22">
-        <v>9596229.896811279</v>
+        <v>9836579.328919543</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>41864</v>
       </c>
       <c r="B23">
-        <v>9577056.93762264</v>
+        <v>9817377.768577745</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>41865</v>
       </c>
       <c r="B24">
-        <v>9645932.112199465</v>
+        <v>9887977.555374915</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>41866</v>
       </c>
       <c r="B25">
-        <v>9718224.971238239</v>
+        <v>9962084.491065757</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>41869</v>
       </c>
       <c r="B26">
-        <v>9679837.425060626</v>
+        <v>9922733.685887147</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>41870</v>
       </c>
       <c r="B27">
-        <v>9747162.493231887</v>
+        <v>9991748.142691031</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>41871</v>
       </c>
       <c r="B28">
-        <v>9743881.426356271</v>
+        <v>9988384.743970301</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -615,7 +615,7 @@
         <v>41872</v>
       </c>
       <c r="B29">
-        <v>9805350.117166905</v>
+        <v>10051395.86927649</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -623,7 +623,7 @@
         <v>41873</v>
       </c>
       <c r="B30">
-        <v>9841087.886824638</v>
+        <v>10088030.40715862</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>41876</v>
       </c>
       <c r="B31">
-        <v>9857487.625460058</v>
+        <v>10104841.66460558</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -639,7 +639,7 @@
         <v>41877</v>
       </c>
       <c r="B32">
-        <v>9857471.225721423</v>
+        <v>10104824.85334813</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>41878</v>
       </c>
       <c r="B33">
-        <v>9830937.173417291</v>
+        <v>10077624.98179454</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -655,7 +655,7 @@
         <v>41879</v>
       </c>
       <c r="B34">
-        <v>9903591.094214343</v>
+        <v>10152102.00817912</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>41880</v>
       </c>
       <c r="B35">
-        <v>9999706.245221792</v>
+        <v>10250628.9776669</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41883</v>
       </c>
       <c r="B36">
-        <v>9962491.926924115</v>
+        <v>10212480.8400945</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -679,7 +679,7 @@
         <v>41884</v>
       </c>
       <c r="B37">
-        <v>10057572.22257799</v>
+        <v>10309946.9865926</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -687,7 +687,7 @@
         <v>41885</v>
       </c>
       <c r="B38">
-        <v>10101862.34788013</v>
+        <v>10355348.48446795</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -695,7 +695,7 @@
         <v>41886</v>
       </c>
       <c r="B39">
-        <v>10268007.13586684</v>
+        <v>10525662.34534148</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -703,7 +703,7 @@
         <v>41887</v>
       </c>
       <c r="B40">
-        <v>10320881.07788692</v>
+        <v>10579863.05373665</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -711,7 +711,7 @@
         <v>41891</v>
       </c>
       <c r="B41">
-        <v>10389478.09776979</v>
+        <v>10650181.37935035</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -719,7 +719,7 @@
         <v>41892</v>
       </c>
       <c r="B42">
-        <v>10608783.12267817</v>
+        <v>10874989.42752156</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -727,7 +727,7 @@
         <v>41893</v>
       </c>
       <c r="B43">
-        <v>10555916.26319468</v>
+        <v>10820795.97938516</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -735,7 +735,7 @@
         <v>41894</v>
       </c>
       <c r="B44">
-        <v>10624738.82676921</v>
+        <v>10891345.50826072</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -743,7 +743,7 @@
         <v>41897</v>
       </c>
       <c r="B45">
-        <v>10410104.29694081</v>
+        <v>10671325.15195093</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -751,7 +751,7 @@
         <v>41898</v>
       </c>
       <c r="B46">
-        <v>10356939.77418186</v>
+        <v>10595483.92096751</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -759,7 +759,7 @@
         <v>41899</v>
       </c>
       <c r="B47">
-        <v>10413607.55075555</v>
+        <v>10516181.86879673</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -767,7 +767,7 @@
         <v>41900</v>
       </c>
       <c r="B48">
-        <v>10380286.82924162</v>
+        <v>10482140.35774365</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -775,7 +775,7 @@
         <v>41901</v>
       </c>
       <c r="B49">
-        <v>10238648.9050652</v>
+        <v>10318361.17257127</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -783,7 +783,7 @@
         <v>41904</v>
       </c>
       <c r="B50">
-        <v>9977393.99202783</v>
+        <v>10561522.09920595</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -791,7 +791,7 @@
         <v>41905</v>
       </c>
       <c r="B51">
-        <v>10296581.17528223</v>
+        <v>10882687.84158645</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -799,7 +799,7 @@
         <v>41906</v>
       </c>
       <c r="B52">
-        <v>10288624.12263295</v>
+        <v>10874281.65033795</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -807,7 +807,7 @@
         <v>41907</v>
       </c>
       <c r="B53">
-        <v>10284670.19225361</v>
+        <v>10870102.6563356</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -815,7 +815,7 @@
         <v>41908</v>
       </c>
       <c r="B54">
-        <v>10556088.28761112</v>
+        <v>11156970.63583241</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -823,7 +823,7 @@
         <v>41911</v>
       </c>
       <c r="B55">
-        <v>10390231.25505357</v>
+        <v>10981672.55271719</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -831,7 +831,7 @@
         <v>41912</v>
       </c>
       <c r="B56">
-        <v>10582134.05998859</v>
+        <v>11184499.00710624</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -839,7 +839,7 @@
         <v>41920</v>
       </c>
       <c r="B57">
-        <v>10512416.03685906</v>
+        <v>11110812.43726604</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -847,7 +847,7 @@
         <v>41921</v>
       </c>
       <c r="B58">
-        <v>10686264.69122009</v>
+        <v>11294557.0478583</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -855,7 +855,7 @@
         <v>41922</v>
       </c>
       <c r="B59">
-        <v>10539444.10255799</v>
+        <v>11161865.92169028</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -863,7 +863,7 @@
         <v>41925</v>
       </c>
       <c r="B60">
-        <v>10782693.99073027</v>
+        <v>10859319.58387484</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -871,7 +871,7 @@
         <v>41926</v>
       </c>
       <c r="B61">
-        <v>10534664.60940469</v>
+        <v>11098633.08673765</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -879,7 +879,7 @@
         <v>41927</v>
       </c>
       <c r="B62">
-        <v>10502044.19613365</v>
+        <v>11065726.06973085</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -887,7 +887,7 @@
         <v>41928</v>
       </c>
       <c r="B63">
-        <v>10426583.67732956</v>
+        <v>10986224.34666656</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -895,7 +895,7 @@
         <v>41929</v>
       </c>
       <c r="B64">
-        <v>10489268.85815715</v>
+        <v>11074246.50262585</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -903,7 +903,7 @@
         <v>41932</v>
       </c>
       <c r="B65">
-        <v>10418185.38614809</v>
+        <v>11149123.3652759</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -911,7 +911,7 @@
         <v>41933</v>
       </c>
       <c r="B66">
-        <v>10429350.50544955</v>
+        <v>11115187.25459206</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -919,7 +919,7 @@
         <v>41934</v>
       </c>
       <c r="B67">
-        <v>10360669.49300453</v>
+        <v>11063929.2447822</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -927,7 +927,7 @@
         <v>41935</v>
       </c>
       <c r="B68">
-        <v>10593249.68613241</v>
+        <v>10793948.59983089</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -935,7 +935,7 @@
         <v>41936</v>
       </c>
       <c r="B69">
-        <v>10625603.67642803</v>
+        <v>10828546.76195169</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -943,7 +943,7 @@
         <v>41939</v>
       </c>
       <c r="B70">
-        <v>10525165.35050288</v>
+        <v>10726207.17023541</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -951,7 +951,7 @@
         <v>41940</v>
       </c>
       <c r="B71">
-        <v>10558090.05559696</v>
+        <v>10781213.11606685</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -959,7 +959,7 @@
         <v>41941</v>
       </c>
       <c r="B72">
-        <v>10574622.6857085</v>
+        <v>10764309.86585898</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -967,7 +967,7 @@
         <v>41942</v>
       </c>
       <c r="B73">
-        <v>10752639.16449323</v>
+        <v>10560638.85458546</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -975,7 +975,7 @@
         <v>41943</v>
       </c>
       <c r="B74">
-        <v>10744290.40602831</v>
+        <v>10552134.4931275</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -983,7 +983,7 @@
         <v>41946</v>
       </c>
       <c r="B75">
-        <v>10623735.46712334</v>
+        <v>10433732.50117663</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -991,7 +991,7 @@
         <v>41947</v>
       </c>
       <c r="B76">
-        <v>10497547.65199737</v>
+        <v>10309801.49104691</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -999,7 +999,7 @@
         <v>41948</v>
       </c>
       <c r="B77">
-        <v>10417716.20772438</v>
+        <v>10210778.21003043</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>41949</v>
       </c>
       <c r="B78">
-        <v>10549192.12242761</v>
+        <v>10061211.53499269</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>41950</v>
       </c>
       <c r="B79">
-        <v>10528427.61957731</v>
+        <v>10040798.30995571</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>41953</v>
       </c>
       <c r="B80">
-        <v>10394686.35043693</v>
+        <v>9913242.985231264</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>41954</v>
       </c>
       <c r="B81">
-        <v>10390236.78861054</v>
+        <v>9908999.515400242</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>41955</v>
       </c>
       <c r="B82">
-        <v>10410553.84973099</v>
+        <v>9908557.566487003</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>41956</v>
       </c>
       <c r="B83">
-        <v>10365843.33505177</v>
+        <v>9931360.322642468</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>41957</v>
       </c>
       <c r="B84">
-        <v>10206343.96284065</v>
+        <v>9779486.643275956</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>41960</v>
       </c>
       <c r="B85">
-        <v>10148424.25383133</v>
+        <v>9723995.571841428</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>41961</v>
       </c>
       <c r="B86">
-        <v>10233147.60974017</v>
+        <v>9805175.558175605</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>41962</v>
       </c>
       <c r="B87">
-        <v>10503901.99485514</v>
+        <v>10064606.41922934</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>41963</v>
       </c>
       <c r="B88">
-        <v>10478503.22712397</v>
+        <v>10040269.88211685</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>41964</v>
       </c>
       <c r="B89">
-        <v>10581447.12038114</v>
+        <v>10138908.44228278</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>41967</v>
       </c>
       <c r="B90">
-        <v>10352598.83876464</v>
+        <v>9939908.900589965</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>41968</v>
       </c>
       <c r="B91">
-        <v>10177657.8454516</v>
+        <v>10087571.37704726</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>41969</v>
       </c>
       <c r="B92">
-        <v>10127336.76352595</v>
+        <v>10038940.63554168</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>41970</v>
       </c>
       <c r="B93">
-        <v>10179612.91698061</v>
+        <v>10100793.01275556</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>41971</v>
       </c>
       <c r="B94">
-        <v>10169433.30406363</v>
+        <v>10366169.72707826</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>41974</v>
       </c>
       <c r="B95">
-        <v>10197649.14844463</v>
+        <v>10393967.89359476</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>41975</v>
       </c>
       <c r="B96">
-        <v>10274002.39938493</v>
+        <v>10471797.30022587</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>41976</v>
       </c>
       <c r="B97">
-        <v>10057618.21552173</v>
+        <v>10271635.58531063</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>41977</v>
       </c>
       <c r="B98">
-        <v>9913364.342586558</v>
+        <v>10417952.59170586</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>41978</v>
       </c>
       <c r="B99">
-        <v>9754337.065189682</v>
+        <v>10559821.56657274</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>41981</v>
       </c>
       <c r="B100">
-        <v>9738758.10302379</v>
+        <v>10543442.44907315</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>41982</v>
       </c>
       <c r="B101">
-        <v>9624573.784186535</v>
+        <v>10419828.63829427</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>41983</v>
       </c>
       <c r="B102">
-        <v>9693481.632282635</v>
+        <v>10515269.78707646</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>41984</v>
       </c>
       <c r="B103">
-        <v>9674163.576866167</v>
+        <v>10515174.34592767</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>41985</v>
       </c>
       <c r="B104">
-        <v>9704429.759177424</v>
+        <v>10526996.92809346</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>41988</v>
       </c>
       <c r="B105">
-        <v>9794852.756278368</v>
+        <v>10407507.15344881</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>41989</v>
       </c>
       <c r="B106">
-        <v>9663490.250762086</v>
+        <v>10265227.67247332</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>41990</v>
       </c>
       <c r="B107">
-        <v>9571266.310739355</v>
+        <v>10167237.95388974</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>41991</v>
       </c>
       <c r="B108">
-        <v>9536845.072157452</v>
+        <v>10130673.31061989</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>41992</v>
       </c>
       <c r="B109">
-        <v>9517987.786773719</v>
+        <v>10110641.84326215</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>41995</v>
       </c>
       <c r="B110">
-        <v>9461496.161018522</v>
+        <v>10070853.95190404</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>41996</v>
       </c>
       <c r="B111">
-        <v>9208519.175332313</v>
+        <v>10319461.50278232</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>41997</v>
       </c>
       <c r="B112">
-        <v>9325847.170880916</v>
+        <v>10444116.49040453</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>41998</v>
       </c>
       <c r="B113">
-        <v>9221277.005809603</v>
+        <v>10326937.50664413</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>41999</v>
       </c>
       <c r="B114">
-        <v>9262346.011788001</v>
+        <v>10372931.05815911</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>42002</v>
       </c>
       <c r="B115">
-        <v>9269884.735703975</v>
+        <v>10401969.34707894</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>42003</v>
       </c>
       <c r="B116">
-        <v>9430587.993088374</v>
+        <v>10200870.50744586</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>42004</v>
       </c>
       <c r="B117">
-        <v>9794702.99073907</v>
+        <v>10609071.61876914</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>42009</v>
       </c>
       <c r="B118">
-        <v>9549143.589315021</v>
+        <v>10343440.78597198</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>42010</v>
       </c>
       <c r="B119">
-        <v>9552735.245979419</v>
+        <v>10347331.41185237</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>42011</v>
       </c>
       <c r="B120">
-        <v>9792070.097837284</v>
+        <v>10606574.12268964</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>42012</v>
       </c>
       <c r="B121">
-        <v>9663243.276742255</v>
+        <v>10487488.73932388</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>42013</v>
       </c>
       <c r="B122">
-        <v>9647579.788327739</v>
+        <v>10462295.65389469</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>42016</v>
       </c>
       <c r="B123">
-        <v>9537047.097138984</v>
+        <v>10571794.1541114</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>42017</v>
       </c>
       <c r="B124">
-        <v>9537047.097138984</v>
+        <v>10812849.36688989</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>42018</v>
       </c>
       <c r="B125">
-        <v>9537047.097138984</v>
+        <v>10808380.44359906</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>42019</v>
       </c>
       <c r="B126">
-        <v>9537047.097138984</v>
+        <v>10877545.60914147</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>42020</v>
       </c>
       <c r="B127">
-        <v>9537047.097138984</v>
+        <v>10720751.78582968</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>42023</v>
       </c>
       <c r="B128">
-        <v>9537047.097138984</v>
+        <v>10807045.35695009</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>42024</v>
       </c>
       <c r="B129">
-        <v>9537047.097138984</v>
+        <v>10751244.61351532</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>42025</v>
       </c>
       <c r="B130">
-        <v>9537047.097138984</v>
+        <v>10867342.78683378</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>42026</v>
       </c>
       <c r="B131">
-        <v>9537047.097138984</v>
+        <v>10970957.8124742</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>42027</v>
       </c>
       <c r="B132">
-        <v>9537047.097138984</v>
+        <v>10895860.25797762</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>42030</v>
       </c>
       <c r="B133">
-        <v>9537047.097138984</v>
+        <v>10878058.07783501</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>42031</v>
       </c>
       <c r="B134">
-        <v>9537047.097138984</v>
+        <v>11000871.60952315</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>42032</v>
       </c>
       <c r="B135">
-        <v>9537047.097138984</v>
+        <v>10960893.60796289</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>42033</v>
       </c>
       <c r="B136">
-        <v>9537047.097138984</v>
+        <v>10920615.36385035</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>42034</v>
       </c>
       <c r="B137">
-        <v>9537047.097138984</v>
+        <v>10712318.8528144</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>42037</v>
       </c>
       <c r="B138">
-        <v>9537047.097138984</v>
+        <v>10664375.21931672</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>42038</v>
       </c>
       <c r="B139">
-        <v>9537047.097138984</v>
+        <v>10634398.69194757</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>42039</v>
       </c>
       <c r="B140">
-        <v>9537047.097138984</v>
+        <v>10565998.92333308</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>42040</v>
       </c>
       <c r="B141">
-        <v>9537047.097138984</v>
+        <v>10565930.52356447</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>42041</v>
       </c>
       <c r="B142">
-        <v>9537047.097138984</v>
+        <v>10527773.70401868</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>42044</v>
       </c>
       <c r="B143">
-        <v>9537047.097138984</v>
+        <v>10446575.03310887</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>42045</v>
       </c>
       <c r="B144">
-        <v>9537047.097138984</v>
+        <v>10522521.65852611</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>42046</v>
       </c>
       <c r="B145">
-        <v>9537047.097138984</v>
+        <v>10459247.52142916</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>42047</v>
       </c>
       <c r="B146">
-        <v>9537047.097138984</v>
+        <v>10446719.23789847</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>42048</v>
       </c>
       <c r="B147">
-        <v>9537047.097138984</v>
+        <v>10438314.10943795</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>42051</v>
       </c>
       <c r="B148">
-        <v>9537047.097138984</v>
+        <v>10547366.42983844</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>42052</v>
       </c>
       <c r="B149">
-        <v>9537047.097138984</v>
+        <v>10588819.63973577</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>42060</v>
       </c>
       <c r="B150">
-        <v>9537047.097138984</v>
+        <v>10542765.08806174</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>42061</v>
       </c>
       <c r="B151">
-        <v>9537047.097138984</v>
+        <v>10407979.61398972</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>42062</v>
       </c>
       <c r="B152">
-        <v>9537047.097138984</v>
+        <v>10285146.5723401</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>42065</v>
       </c>
       <c r="B153">
-        <v>9537047.097138984</v>
+        <v>10065615.42151703</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>42066</v>
       </c>
       <c r="B154">
-        <v>9537047.097138984</v>
+        <v>10048668.95181246</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>42067</v>
       </c>
       <c r="B155">
-        <v>9537047.097138984</v>
+        <v>10056823.68419246</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>42068</v>
       </c>
       <c r="B156">
-        <v>9537047.097138984</v>
+        <v>10048667.29622484</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>42069</v>
       </c>
       <c r="B157">
-        <v>9537047.097138984</v>
+        <v>10134231.86068859</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>42072</v>
       </c>
       <c r="B158">
-        <v>9537047.097138984</v>
+        <v>10350616.07034145</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>42073</v>
       </c>
       <c r="B159">
-        <v>9537047.097138984</v>
+        <v>10329971.72371386</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>42074</v>
       </c>
       <c r="B160">
-        <v>9537047.097138984</v>
+        <v>10463253.94394583</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>42075</v>
       </c>
       <c r="B161">
-        <v>9537047.097138984</v>
+        <v>10366281.92206445</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>42076</v>
       </c>
       <c r="B162">
-        <v>9537047.097138984</v>
+        <v>10234945.97112423</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>42079</v>
       </c>
       <c r="B163">
-        <v>9537047.097138984</v>
+        <v>10292807.8773208</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>42080</v>
       </c>
       <c r="B164">
-        <v>9537047.097138984</v>
+        <v>10153006.6382738</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>42081</v>
       </c>
       <c r="B165">
-        <v>9537047.097138984</v>
+        <v>10116143.56586254</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>42082</v>
       </c>
       <c r="B166">
-        <v>9537047.097138984</v>
+        <v>9990709.321939705</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>42083</v>
       </c>
       <c r="B167">
-        <v>9537047.097138984</v>
+        <v>9998733.908065986</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>42086</v>
       </c>
       <c r="B168">
-        <v>9537047.097138984</v>
+        <v>9982765.709742315</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>42087</v>
       </c>
       <c r="B169">
-        <v>9537047.097138984</v>
+        <v>9692713.69967212</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>42088</v>
       </c>
       <c r="B170">
-        <v>9537047.097138984</v>
+        <v>9645492.903951924</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>42089</v>
       </c>
       <c r="B171">
-        <v>9537047.097138984</v>
+        <v>9488806.885753086</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>42090</v>
       </c>
       <c r="B172">
-        <v>9537047.097138984</v>
+        <v>9496685.362636605</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>42093</v>
       </c>
       <c r="B173">
-        <v>9537047.097138984</v>
+        <v>9390315.3734328</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>42094</v>
       </c>
       <c r="B174">
-        <v>9537047.097138984</v>
+        <v>9394054.545519536</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>42095</v>
       </c>
       <c r="B175">
-        <v>9537047.097138984</v>
+        <v>9576278.409301301</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>42096</v>
       </c>
       <c r="B176">
-        <v>9537047.097138984</v>
+        <v>9754261.426138392</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>42097</v>
       </c>
       <c r="B177">
-        <v>9537047.097138984</v>
+        <v>9890923.10643279</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>42101</v>
       </c>
       <c r="B178">
-        <v>9537047.097138984</v>
+        <v>9944853.278794324</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>42102</v>
       </c>
       <c r="B179">
-        <v>9537047.097138984</v>
+        <v>10046578.22185301</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>42103</v>
       </c>
       <c r="B180">
-        <v>9537047.097138984</v>
+        <v>9973235.626546936</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>42104</v>
       </c>
       <c r="B181">
-        <v>9537047.097138984</v>
+        <v>10111565.10823294</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>42107</v>
       </c>
       <c r="B182">
-        <v>9537047.097138984</v>
+        <v>10233195.15674445</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>42108</v>
       </c>
       <c r="B183">
-        <v>9537047.097138984</v>
+        <v>9901050.570222292</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>42109</v>
       </c>
       <c r="B184">
-        <v>9537047.097138984</v>
+        <v>9891149.51965207</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>42110</v>
       </c>
       <c r="B185">
-        <v>9537047.097138984</v>
+        <v>10022928.06517884</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>42111</v>
       </c>
       <c r="B186">
-        <v>9537047.097138984</v>
+        <v>9932418.925549807</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>42114</v>
       </c>
       <c r="B187">
-        <v>9537047.097138984</v>
+        <v>9964425.345086938</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>42115</v>
       </c>
       <c r="B188">
-        <v>9537047.097138984</v>
+        <v>9843618.574512387</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>42116</v>
       </c>
       <c r="B189">
-        <v>9537047.097138984</v>
+        <v>9845669.251399536</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>42117</v>
       </c>
       <c r="B190">
-        <v>9537047.097138984</v>
+        <v>9627356.275511086</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>42118</v>
       </c>
       <c r="B191">
-        <v>9537047.097138984</v>
+        <v>9614462.929197144</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>42121</v>
       </c>
       <c r="B192">
-        <v>9537047.097138984</v>
+        <v>9858512.837477563</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>42122</v>
       </c>
       <c r="B193">
-        <v>9537047.097138984</v>
+        <v>9991487.978175962</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>42123</v>
       </c>
       <c r="B194">
-        <v>9537047.097138984</v>
+        <v>9913779.887105724</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>42124</v>
       </c>
       <c r="B195">
-        <v>9537047.097138984</v>
+        <v>9696978.142257953</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>42128</v>
       </c>
       <c r="B196">
-        <v>9537047.097138984</v>
+        <v>9852960.422825381</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>42129</v>
       </c>
       <c r="B197">
-        <v>9537047.097138984</v>
+        <v>9979076.756659077</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>42130</v>
       </c>
       <c r="B198">
-        <v>9537047.097138984</v>
+        <v>10044321.39705637</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>42131</v>
       </c>
       <c r="B199">
-        <v>9537047.097138984</v>
+        <v>10056588.32298251</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>42132</v>
       </c>
       <c r="B200">
-        <v>9537047.097138984</v>
+        <v>9961528.618377514</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>42135</v>
       </c>
       <c r="B201">
-        <v>9537047.097138984</v>
+        <v>9990614.3555816</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>42136</v>
       </c>
       <c r="B202">
-        <v>9537047.097138984</v>
+        <v>10002961.96715672</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>42137</v>
       </c>
       <c r="B203">
-        <v>9537047.097138984</v>
+        <v>9879862.773661133</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>42138</v>
       </c>
       <c r="B204">
-        <v>9537047.097138984</v>
+        <v>9925728.241254345</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>42139</v>
       </c>
       <c r="B205">
-        <v>9537047.097138984</v>
+        <v>10025044.62076867</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>42142</v>
       </c>
       <c r="B206">
-        <v>9537047.097138984</v>
+        <v>9974525.969109446</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>42143</v>
       </c>
       <c r="B207">
-        <v>9537047.097138984</v>
+        <v>10101241.99790354</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>42144</v>
       </c>
       <c r="B208">
-        <v>9537047.097138984</v>
+        <v>10122388.87705315</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>42145</v>
       </c>
       <c r="B209">
-        <v>9537047.097138984</v>
+        <v>10221681.47784602</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>42146</v>
       </c>
       <c r="B210">
-        <v>9537047.097138984</v>
+        <v>10081659.61274376</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>42149</v>
       </c>
       <c r="B211">
-        <v>9537047.097138984</v>
+        <v>10072796.7426546</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>42150</v>
       </c>
       <c r="B212">
-        <v>9537047.097138984</v>
+        <v>10072787.87978451</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>42151</v>
       </c>
       <c r="B213">
-        <v>9537047.097138984</v>
+        <v>10044053.82209507</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>42152</v>
       </c>
       <c r="B214">
-        <v>9537047.097138984</v>
+        <v>10065435.12130807</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>42153</v>
       </c>
       <c r="B215">
-        <v>9537047.097138984</v>
+        <v>10065413.74000886</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>42156</v>
       </c>
       <c r="B216">
-        <v>9537047.097138984</v>
+        <v>10069683.51375878</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>42157</v>
       </c>
       <c r="B217">
-        <v>9537047.097138984</v>
+        <v>10150779.3021082</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>42158</v>
       </c>
       <c r="B218">
-        <v>9537047.097138984</v>
+        <v>10163430.52911367</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>42159</v>
       </c>
       <c r="B219">
-        <v>9537047.097138984</v>
+        <v>10010921.41396882</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>42160</v>
       </c>
       <c r="B220">
-        <v>9537047.097138984</v>
+        <v>9951734.56110405</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>42163</v>
       </c>
       <c r="B221">
-        <v>9537047.097138984</v>
+        <v>9855364.269062288</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>42164</v>
       </c>
       <c r="B222">
-        <v>9537047.097138984</v>
+        <v>9889354.077844467</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>42165</v>
       </c>
       <c r="B223">
-        <v>9537047.097138984</v>
+        <v>9855515.767186303</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>42166</v>
       </c>
       <c r="B224">
-        <v>9537047.097138984</v>
+        <v>9830077.54001374</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>42167</v>
       </c>
       <c r="B225">
-        <v>9537047.097138984</v>
+        <v>9793556.840086969</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>42170</v>
       </c>
       <c r="B226">
-        <v>9537047.097138984</v>
+        <v>9564813.796288507</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>42171</v>
       </c>
       <c r="B227">
-        <v>9537047.097138984</v>
+        <v>9671235.949685264</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>42172</v>
       </c>
       <c r="B228">
-        <v>9537047.097138984</v>
+        <v>9809855.094167199</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>42173</v>
       </c>
       <c r="B229">
-        <v>9537047.097138984</v>
+        <v>9870101.253110331</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>42174</v>
       </c>
       <c r="B230">
-        <v>9537047.097138984</v>
+        <v>9786345.850784371</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>42178</v>
       </c>
       <c r="B231">
-        <v>9537047.097138984</v>
+        <v>9808266.487108828</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>42179</v>
       </c>
       <c r="B232">
-        <v>9537047.097138984</v>
+        <v>9812609.101030687</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>42180</v>
       </c>
       <c r="B233">
-        <v>9537047.097138984</v>
+        <v>9799458.366401436</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>42181</v>
       </c>
       <c r="B234">
-        <v>9537047.097138984</v>
+        <v>9908780.131053884</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>42184</v>
       </c>
       <c r="B235">
-        <v>9537047.097138984</v>
+        <v>9917502.254316332</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>42185</v>
       </c>
       <c r="B236">
-        <v>9537047.097138984</v>
+        <v>10073909.10902112</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>42186</v>
       </c>
       <c r="B237">
-        <v>9537047.097138984</v>
+        <v>10278267.0651966</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>42187</v>
       </c>
       <c r="B238">
-        <v>9537047.097138984</v>
+        <v>10348768.80684658</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>42188</v>
       </c>
       <c r="B239">
-        <v>9537047.097138984</v>
+        <v>10368071.87121484</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>42191</v>
       </c>
       <c r="B240">
-        <v>9537047.097138984</v>
+        <v>10368052.56815047</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>42192</v>
       </c>
       <c r="B241">
-        <v>9537047.097138984</v>
+        <v>10921181.38170224</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>42193</v>
       </c>
       <c r="B242">
-        <v>9537047.097138984</v>
+        <v>11117129.50631244</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>42194</v>
       </c>
       <c r="B243">
-        <v>9537047.097138984</v>
+        <v>11450071.2772963</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>42195</v>
       </c>
       <c r="B244">
-        <v>9537047.097138984</v>
+        <v>10778620.29634269</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>42198</v>
       </c>
       <c r="B245">
-        <v>9537047.097138984</v>
+        <v>10880081.21474068</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>42199</v>
       </c>
       <c r="B246">
-        <v>9537047.097138984</v>
+        <v>10793923.08110991</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>42200</v>
       </c>
       <c r="B247">
-        <v>9537047.097138984</v>
+        <v>10858599.82525371</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>42201</v>
       </c>
       <c r="B248">
-        <v>9537047.097138984</v>
+        <v>10923126.4967974</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>42202</v>
       </c>
       <c r="B249">
-        <v>9537047.097138984</v>
+        <v>11021311.29676309</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>42205</v>
       </c>
       <c r="B250">
-        <v>9537047.097138984</v>
+        <v>11027748.9506806</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>42206</v>
       </c>
       <c r="B251">
-        <v>9537047.097138984</v>
+        <v>11334343.821774</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>42207</v>
       </c>
       <c r="B252">
-        <v>9537047.097138984</v>
+        <v>11176640.22104279</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>42208</v>
       </c>
       <c r="B253">
-        <v>9537047.097138984</v>
+        <v>10919370.60341597</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>42209</v>
       </c>
       <c r="B254">
-        <v>9537047.097138984</v>
+        <v>10792612.58935197</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>42212</v>
       </c>
       <c r="B255">
-        <v>9537047.097138984</v>
+        <v>10781843.43604125</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>42213</v>
       </c>
       <c r="B256">
-        <v>9537047.097138984</v>
+        <v>10908182.12235268</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>42214</v>
       </c>
       <c r="B257">
-        <v>9537047.097138984</v>
+        <v>10907285.65241726</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>42215</v>
       </c>
       <c r="B258">
-        <v>9537047.097138984</v>
+        <v>10717160.51125313</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>42216</v>
       </c>
       <c r="B259">
-        <v>9537047.097138984</v>
+        <v>10582574.82825209</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>42219</v>
       </c>
       <c r="B260">
-        <v>9537047.097138984</v>
+        <v>10649291.23333761</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>42220</v>
       </c>
       <c r="B261">
-        <v>9537047.097138984</v>
+        <v>10588547.71909572</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>42221</v>
       </c>
       <c r="B262">
-        <v>9537047.097138984</v>
+        <v>10654882.72425839</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>42222</v>
       </c>
       <c r="B263">
-        <v>9537047.097138984</v>
+        <v>10669986.91076203</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>42223</v>
       </c>
       <c r="B264">
-        <v>9537047.097138984</v>
+        <v>10506671.38571009</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>42226</v>
       </c>
       <c r="B265">
-        <v>9537047.097138984</v>
+        <v>10578709.51509313</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>42227</v>
       </c>
       <c r="B266">
-        <v>9537047.097138984</v>
+        <v>10644972.01295478</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>42228</v>
       </c>
       <c r="B267">
-        <v>9537047.097138984</v>
+        <v>10619054.15969664</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>42229</v>
       </c>
       <c r="B268">
-        <v>9537047.097138984</v>
+        <v>10457815.87627343</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>42230</v>
       </c>
       <c r="B269">
-        <v>9537047.097138984</v>
+        <v>10411660.86046952</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>42233</v>
       </c>
       <c r="B270">
-        <v>9537047.097138984</v>
+        <v>10390791.38373277</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>42234</v>
       </c>
       <c r="B271">
-        <v>9537047.097138984</v>
+        <v>10200701.00764505</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>42235</v>
       </c>
       <c r="B272">
-        <v>9537047.097138984</v>
+        <v>10210477.93444047</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>42236</v>
       </c>
       <c r="B273">
-        <v>9537047.097138984</v>
+        <v>10155252.94720461</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>42237</v>
       </c>
       <c r="B274">
-        <v>9537047.097138984</v>
+        <v>10195239.59732363</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>42240</v>
       </c>
       <c r="B275">
-        <v>9537047.097138984</v>
+        <v>10260040.45101884</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>42241</v>
       </c>
       <c r="B276">
-        <v>9537047.097138984</v>
+        <v>10688342.18688779</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>42242</v>
       </c>
       <c r="B277">
-        <v>9537047.097138984</v>
+        <v>10555556.18266906</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>42243</v>
       </c>
       <c r="B278">
-        <v>9537047.097138984</v>
+        <v>10697259.08510682</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>42244</v>
       </c>
       <c r="B279">
-        <v>9537047.097138984</v>
+        <v>10506282.48953841</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>42247</v>
       </c>
       <c r="B280">
-        <v>9537047.097138984</v>
+        <v>10495220.4947631</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>42248</v>
       </c>
       <c r="B281">
-        <v>9537047.097138984</v>
+        <v>10585712.38619165</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>42249</v>
       </c>
       <c r="B282">
-        <v>9537047.097138984</v>
+        <v>10537762.61644065</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>42254</v>
       </c>
       <c r="B283">
-        <v>9537047.097138984</v>
+        <v>10505341.83292209</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>42255</v>
       </c>
       <c r="B284">
-        <v>9537047.097138984</v>
+        <v>10301122.86090807</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>42256</v>
       </c>
       <c r="B285">
-        <v>9537047.097138984</v>
+        <v>10125654.51874133</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>42257</v>
       </c>
       <c r="B286">
-        <v>9537047.097138984</v>
+        <v>10136044.03781078</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>42258</v>
       </c>
       <c r="B287">
-        <v>9537047.097138984</v>
+        <v>10079397.48482369</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>42261</v>
       </c>
       <c r="B288">
-        <v>9537047.097138984</v>
+        <v>9991917.453035973</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>42262</v>
       </c>
       <c r="B289">
-        <v>9537047.097138984</v>
+        <v>10090419.05395018</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>42263</v>
       </c>
       <c r="B290">
-        <v>9537047.097138984</v>
+        <v>10168101.78659149</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>42264</v>
       </c>
       <c r="B291">
-        <v>9537047.097138984</v>
+        <v>10046550.30059783</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>42265</v>
       </c>
       <c r="B292">
-        <v>9537047.097138984</v>
+        <v>10072756.39888854</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>42268</v>
       </c>
       <c r="B293">
-        <v>9537047.097138984</v>
+        <v>10114375.43742294</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>42269</v>
       </c>
       <c r="B294">
-        <v>9537047.097138984</v>
+        <v>10177225.59244734</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>42270</v>
       </c>
       <c r="B295">
-        <v>9537047.097138984</v>
+        <v>10288373.16328625</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>42271</v>
       </c>
       <c r="B296">
-        <v>9537047.097138984</v>
+        <v>10191279.03672527</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>42272</v>
       </c>
       <c r="B297">
-        <v>9537047.097138984</v>
+        <v>10261461.52959849</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>42275</v>
       </c>
       <c r="B298">
-        <v>9537047.097138984</v>
+        <v>10299059.21463575</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>42276</v>
       </c>
       <c r="B299">
-        <v>9537047.097138984</v>
+        <v>10478485.59873868</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>42277</v>
       </c>
       <c r="B300">
-        <v>9537047.097138984</v>
+        <v>10561638.45906033</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>42285</v>
       </c>
       <c r="B301">
-        <v>9537047.097138984</v>
+        <v>10561555.30620001</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>42286</v>
       </c>
       <c r="B302">
-        <v>9537047.097138984</v>
+        <v>10624735.49331616</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>42289</v>
       </c>
       <c r="B303">
-        <v>9537047.097138984</v>
+        <v>10445315.85936388</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>42290</v>
       </c>
       <c r="B304">
-        <v>9537047.097138984</v>
+        <v>10496680.99568936</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>42291</v>
       </c>
       <c r="B305">
-        <v>9537047.097138984</v>
+        <v>10564388.53158834</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>42292</v>
       </c>
       <c r="B306">
-        <v>9537047.097138984</v>
+        <v>10592877.96952364</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>42293</v>
       </c>
       <c r="B307">
-        <v>9537047.097138984</v>
+        <v>10554394.18034216</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>42296</v>
       </c>
       <c r="B308">
-        <v>9537047.097138984</v>
+        <v>10525505.41142314</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>42297</v>
       </c>
       <c r="B309">
-        <v>9537047.097138984</v>
+        <v>10371834.84829039</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>42298</v>
       </c>
       <c r="B310">
-        <v>9537047.097138984</v>
+        <v>10406684.59944421</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>42299</v>
       </c>
       <c r="B311">
-        <v>9537047.097138984</v>
+        <v>10383624.27585814</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>42300</v>
       </c>
       <c r="B312">
-        <v>9537047.097138984</v>
+        <v>10377826.77654333</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>42303</v>
       </c>
       <c r="B313">
-        <v>9537047.097138984</v>
+        <v>10389326.46581397</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>42304</v>
       </c>
       <c r="B314">
-        <v>9537047.097138984</v>
+        <v>10406565.29946879</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>42305</v>
       </c>
       <c r="B315">
-        <v>9537047.097138984</v>
+        <v>10395015.91195938</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>42306</v>
       </c>
       <c r="B316">
-        <v>9537047.097138984</v>
+        <v>10464258.26457122</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>42307</v>
       </c>
       <c r="B317">
-        <v>9537047.097138984</v>
+        <v>10429380.2324001</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>42310</v>
       </c>
       <c r="B318">
-        <v>9537047.097138984</v>
+        <v>10510903.48011741</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>42311</v>
       </c>
       <c r="B319">
-        <v>9537047.097138984</v>
+        <v>10493281.64120249</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>42312</v>
       </c>
       <c r="B320">
-        <v>9537047.097138984</v>
+        <v>10546232.5037655</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>42313</v>
       </c>
       <c r="B321">
-        <v>9537047.097138984</v>
+        <v>10522582.95209856</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>42314</v>
       </c>
       <c r="B322">
-        <v>9537047.097138984</v>
+        <v>10546269.0111356</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>42317</v>
       </c>
       <c r="B323">
-        <v>9537047.097138984</v>
+        <v>10463308.1812296</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>42318</v>
       </c>
       <c r="B324">
-        <v>9537047.097138984</v>
+        <v>10353883.06876726</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>42319</v>
       </c>
       <c r="B325">
-        <v>9537047.097138984</v>
+        <v>10290107.36664219</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>42320</v>
       </c>
       <c r="B326">
-        <v>9537047.097138984</v>
+        <v>10183027.20215062</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>42321</v>
       </c>
       <c r="B327">
-        <v>9537047.097138984</v>
+        <v>10275507.96228116</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>42324</v>
       </c>
       <c r="B328">
-        <v>9537047.097138984</v>
+        <v>10304250.07809778</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>42325</v>
       </c>
       <c r="B329">
-        <v>9537047.097138984</v>
+        <v>10339236.3387048</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>42326</v>
       </c>
       <c r="B330">
-        <v>9537047.097138984</v>
+        <v>10345073.54145997</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>42327</v>
       </c>
       <c r="B331">
-        <v>9537047.097138984</v>
+        <v>10439395.52946886</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>42328</v>
       </c>
       <c r="B332">
-        <v>9537047.097138984</v>
+        <v>10629803.11836007</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>42331</v>
       </c>
       <c r="B333">
-        <v>9537047.097138984</v>
+        <v>10684695.22532752</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>42332</v>
       </c>
       <c r="B334">
-        <v>9537047.097138984</v>
+        <v>10903915.29653793</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>42333</v>
       </c>
       <c r="B335">
-        <v>9537047.097138984</v>
+        <v>10865115.31861646</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>42334</v>
       </c>
       <c r="B336">
-        <v>9537047.097138984</v>
+        <v>10819215.93589665</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>42335</v>
       </c>
       <c r="B337">
-        <v>9537047.097138984</v>
+        <v>10773663.83550188</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>42338</v>
       </c>
       <c r="B338">
-        <v>9537047.097138984</v>
+        <v>10953849.33308148</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>42339</v>
       </c>
       <c r="B339">
-        <v>9537047.097138984</v>
+        <v>11110030.7533576</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>42340</v>
       </c>
       <c r="B340">
-        <v>9537047.097138984</v>
+        <v>11096431.20940615</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>42341</v>
       </c>
       <c r="B341">
-        <v>9537047.097138984</v>
+        <v>10912202.39520922</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>42342</v>
       </c>
       <c r="B342">
-        <v>9537047.097138984</v>
+        <v>11059492.87890609</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>42345</v>
       </c>
       <c r="B343">
-        <v>9537047.097138984</v>
+        <v>10945998.84178943</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>42346</v>
       </c>
       <c r="B344">
-        <v>9537047.097138984</v>
+        <v>10816772.50638065</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>42347</v>
       </c>
       <c r="B345">
-        <v>9537047.097138984</v>
+        <v>10705194.90123378</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>42348</v>
       </c>
       <c r="B346">
-        <v>9537047.097138984</v>
+        <v>10737808.80628334</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>42349</v>
       </c>
       <c r="B347">
-        <v>9537047.097138984</v>
+        <v>10651785.55001188</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>42352</v>
       </c>
       <c r="B348">
-        <v>9537047.097138984</v>
+        <v>10545504.63611906</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>42353</v>
       </c>
       <c r="B349">
-        <v>9537047.097138984</v>
+        <v>10558226.7281207</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>42354</v>
       </c>
       <c r="B350">
-        <v>9537047.097138984</v>
+        <v>10505410.29150983</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>42355</v>
       </c>
       <c r="B351">
-        <v>9537047.097138984</v>
+        <v>10375850.67509021</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>42356</v>
       </c>
       <c r="B352">
-        <v>9537047.097138984</v>
+        <v>10394540.43364383</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>42359</v>
       </c>
       <c r="B353">
-        <v>9537047.097138984</v>
+        <v>10660499.10693716</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>42360</v>
       </c>
       <c r="B354">
-        <v>9537047.097138984</v>
+        <v>10841820.14810166</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>42361</v>
       </c>
       <c r="B355">
-        <v>9537047.097138984</v>
+        <v>10713511.70237699</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>42362</v>
       </c>
       <c r="B356">
-        <v>9537047.097138984</v>
+        <v>10644436.19235067</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>42363</v>
       </c>
       <c r="B357">
-        <v>9537047.097138984</v>
+        <v>10675534.25965193</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>42366</v>
       </c>
       <c r="B358">
-        <v>9537047.097138984</v>
+        <v>10768194.21100314</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>42367</v>
       </c>
       <c r="B359">
-        <v>9537047.097138984</v>
+        <v>10786557.86624755</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>42368</v>
       </c>
       <c r="B360">
-        <v>9537047.097138984</v>
+        <v>11027690.95277506</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>42369</v>
       </c>
       <c r="B361">
-        <v>9537047.097138984</v>
+        <v>11045657.82308912</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>42373</v>
       </c>
       <c r="B362">
-        <v>9537047.097138984</v>
+        <v>11286781.20814</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>42374</v>
       </c>
       <c r="B363">
-        <v>9527510.050041845</v>
+        <v>11031525.5107279</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>42375</v>
       </c>
       <c r="B364">
-        <v>9570344.8517367</v>
+        <v>11081975.1191737</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>42376</v>
       </c>
       <c r="B365">
-        <v>9479574.744195947</v>
+        <v>10955022.00171143</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>42377</v>
       </c>
       <c r="B366">
-        <v>9455123.256285474</v>
+        <v>10961162.31341323</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>42380</v>
       </c>
       <c r="B367">
-        <v>9519388.03895453</v>
+        <v>11035395.18281212</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>42381</v>
       </c>
       <c r="B368">
-        <v>9508571.731452607</v>
+        <v>11022856.29112739</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>42382</v>
       </c>
       <c r="B369">
-        <v>9605897.860433476</v>
+        <v>11135682.0621612</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>42383</v>
       </c>
       <c r="B370">
-        <v>9600344.437485749</v>
+        <v>11129244.23061201</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>42384</v>
       </c>
       <c r="B371">
-        <v>9512021.974451873</v>
+        <v>11026856.00188189</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>42387</v>
       </c>
       <c r="B372">
-        <v>9389047.860850673</v>
+        <v>10884297.68501912</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>42388</v>
       </c>
       <c r="B373">
-        <v>9645604.954344112</v>
+        <v>11181712.69665512</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>42389</v>
       </c>
       <c r="B374">
-        <v>9712296.169849403</v>
+        <v>11259024.8004268</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>42390</v>
       </c>
       <c r="B375">
-        <v>9591407.514995895</v>
+        <v>11118884.06137982</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>42391</v>
       </c>
       <c r="B376">
-        <v>9564557.748507116</v>
+        <v>11087758.34388767</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>42394</v>
       </c>
       <c r="B377">
-        <v>9659819.677270405</v>
+        <v>11198191.18074987</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>42395</v>
       </c>
       <c r="B378">
-        <v>9722574.228486044</v>
+        <v>11270939.68801532</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>42396</v>
       </c>
       <c r="B379">
-        <v>9775062.993525416</v>
+        <v>11331787.5345994</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>42397</v>
       </c>
       <c r="B380">
-        <v>9832867.57456501</v>
+        <v>11398797.7657663</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>42398</v>
       </c>
       <c r="B381">
-        <v>9561387.627272006</v>
+        <v>11106162.38889389</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>42401</v>
       </c>
       <c r="B382">
-        <v>9525706.496345568</v>
+        <v>11102500.34211534</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>42402</v>
       </c>
       <c r="B383">
-        <v>9527658.670170048</v>
+        <v>11078009.30079332</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>42403</v>
       </c>
       <c r="B384">
-        <v>9527656.717996223</v>
+        <v>11077984.809752</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>42404</v>
       </c>
       <c r="B385">
-        <v>9496215.444966353</v>
+        <v>11041427.35751451</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>42405</v>
       </c>
       <c r="B386">
-        <v>9355163.205783993</v>
+        <v>10855340.42391589</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>42415</v>
       </c>
       <c r="B387">
-        <v>9428650.094345506</v>
+        <v>10748005.41853623</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>42416</v>
       </c>
       <c r="B388">
-        <v>9617167.667053116</v>
+        <v>10966560.7254797</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>42417</v>
       </c>
       <c r="B389">
-        <v>9586728.899523431</v>
+        <v>10931858.98889056</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>42418</v>
       </c>
       <c r="B390">
-        <v>9576400.977461576</v>
+        <v>10920081.95513103</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>42419</v>
       </c>
       <c r="B391">
-        <v>9617494.263041427</v>
+        <v>10966941.10888568</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>42422</v>
       </c>
       <c r="B392">
-        <v>9745297.434563845</v>
+        <v>11112676.55902342</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>42423</v>
       </c>
       <c r="B393">
-        <v>10049311.69660745</v>
+        <v>11459347.5750807</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>42424</v>
       </c>
       <c r="B394">
-        <v>9874543.455159748</v>
+        <v>11260057.30682174</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>42425</v>
       </c>
       <c r="B395">
-        <v>9910932.075741487</v>
+        <v>11301551.676149</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>42426</v>
       </c>
       <c r="B396">
-        <v>9926268.034640482</v>
+        <v>11319039.44931461</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>42429</v>
       </c>
       <c r="B397">
-        <v>9874902.579055954</v>
+        <v>11260466.8199977</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>42430</v>
       </c>
       <c r="B398">
-        <v>10148298.72123554</v>
+        <v>11572223.63613663</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>42431</v>
       </c>
       <c r="B399">
-        <v>10258134.23452218</v>
+        <v>11697470.35559742</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>42432</v>
       </c>
       <c r="B400">
-        <v>10222416.42416248</v>
+        <v>11656740.91900617</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>42433</v>
       </c>
       <c r="B401">
-        <v>10129572.21138893</v>
+        <v>11550869.57809971</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>42436</v>
       </c>
       <c r="B402">
-        <v>10222694.11938754</v>
+        <v>11657057.57811677</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>42437</v>
       </c>
       <c r="B403">
-        <v>11260157.24076696</v>
+        <v>12840088.90037424</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>42438</v>
       </c>
       <c r="B404">
-        <v>11049237.71079788</v>
+        <v>12599574.89531015</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>42439</v>
       </c>
       <c r="B405">
-        <v>10855351.03882275</v>
+        <v>12378483.65728152</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>42440</v>
       </c>
       <c r="B406">
-        <v>10849930.73638303</v>
+        <v>12372302.82306182</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>42443</v>
       </c>
       <c r="B407">
-        <v>10563676.29072748</v>
+        <v>12045883.5331928</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>42444</v>
       </c>
       <c r="B408">
-        <v>10454999.23139617</v>
+        <v>11897866.04524988</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>42445</v>
       </c>
       <c r="B409">
-        <v>10375352.14816885</v>
+        <v>11964706.52942516</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>42446</v>
       </c>
       <c r="B410">
-        <v>10157352.9329095</v>
+        <v>11716779.29803871</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>42447</v>
       </c>
       <c r="B411">
-        <v>9764794.170822814</v>
+        <v>11264082.72628407</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>42450</v>
       </c>
       <c r="B412">
-        <v>9934983.673443686</v>
+        <v>11460401.01705815</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>42451</v>
       </c>
       <c r="B413">
-        <v>10101031.77405027</v>
+        <v>11651944.18017968</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>42452</v>
       </c>
       <c r="B414">
-        <v>10110103.92045174</v>
+        <v>11662409.26385636</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>42453</v>
       </c>
       <c r="B415">
-        <v>10311463.35146412</v>
+        <v>11894685.42165796</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>42454</v>
       </c>
       <c r="B416">
-        <v>9938315.07202013</v>
+        <v>11464243.95585103</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>42457</v>
       </c>
       <c r="B417">
-        <v>10293154.05736731</v>
+        <v>11873564.91856829</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>42458</v>
       </c>
       <c r="B418">
-        <v>10065670.14324531</v>
+        <v>11588748.11810709</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>42459</v>
       </c>
       <c r="B419">
-        <v>10175959.39214713</v>
+        <v>11437545.10706516</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>42460</v>
       </c>
       <c r="B420">
-        <v>9904676.315125471</v>
+        <v>11125491.25176797</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>42461</v>
       </c>
       <c r="B421">
-        <v>9754679.949913513</v>
+        <v>10934640.65503434</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>42465</v>
       </c>
       <c r="B422">
-        <v>9424610.815076917</v>
+        <v>11282422.9379128</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>42466</v>
       </c>
       <c r="B423">
-        <v>9366879.740513695</v>
+        <v>11217601.90318732</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>42467</v>
       </c>
       <c r="B424">
-        <v>9306738.518380303</v>
+        <v>11145601.14360144</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>42468</v>
       </c>
       <c r="B425">
-        <v>9341017.871748023</v>
+        <v>11186653.48633049</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>42471</v>
       </c>
       <c r="B426">
-        <v>9396292.835025834</v>
+        <v>11252849.89790091</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>42472</v>
       </c>
       <c r="B427">
-        <v>9824562.26894903</v>
+        <v>11765738.51687879</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>42473</v>
       </c>
       <c r="B428">
-        <v>10024341.97872916</v>
+        <v>12004991.49954682</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>42474</v>
       </c>
       <c r="B429">
-        <v>10040874.46248259</v>
+        <v>12024790.53746347</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>42475</v>
       </c>
       <c r="B430">
-        <v>9891727.217666754</v>
+        <v>11846174.18439069</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>42478</v>
       </c>
       <c r="B431">
-        <v>9748898.110911269</v>
+        <v>11675124.332328</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>42479</v>
       </c>
       <c r="B432">
-        <v>10224051.26121625</v>
+        <v>12244160.13961571</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>42480</v>
       </c>
       <c r="B433">
-        <v>10646980.06729416</v>
+        <v>12750652.90818369</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>42481</v>
       </c>
       <c r="B434">
-        <v>11100715.59588717</v>
+        <v>13294039.31452933</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>42482</v>
       </c>
       <c r="B435">
-        <v>11602038.00475803</v>
+        <v>13894415.00699848</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>42485</v>
       </c>
       <c r="B436">
-        <v>11085558.37652806</v>
+        <v>13275887.27123822</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>42486</v>
       </c>
       <c r="B437">
-        <v>11080597.70939241</v>
+        <v>13269946.45567926</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>42487</v>
       </c>
       <c r="B438">
-        <v>10837983.2992222</v>
+        <v>12979395.32145606</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>42488</v>
       </c>
       <c r="B439">
-        <v>10633714.28863015</v>
+        <v>12708807.23335084</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>42489</v>
       </c>
       <c r="B440">
-        <v>10806897.61931453</v>
+        <v>12474954.20095043</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>42493</v>
       </c>
       <c r="B441">
-        <v>10819231.98759345</v>
+        <v>12489698.58491026</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>42494</v>
       </c>
       <c r="B442">
-        <v>11268880.01209067</v>
+        <v>13008749.77234418</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>42495</v>
       </c>
       <c r="B443">
-        <v>11560908.93594569</v>
+        <v>13345867.36759423</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>42496</v>
       </c>
       <c r="B444">
-        <v>11812051.12347079</v>
+        <v>13635784.89841839</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>42499</v>
       </c>
       <c r="B445">
-        <v>11697302.13086013</v>
+        <v>13503319.11702702</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>42500</v>
       </c>
       <c r="B446">
-        <v>12896075.39432973</v>
+        <v>14887178.21074255</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>42501</v>
       </c>
       <c r="B447">
-        <v>12617308.81491376</v>
+        <v>14565371.1787531</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>42502</v>
       </c>
       <c r="B448">
-        <v>12623020.28496359</v>
+        <v>14571964.4770921</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>42503</v>
       </c>
       <c r="B449">
-        <v>13149672.99684815</v>
+        <v>15179930.27577561</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>42506</v>
       </c>
       <c r="B450">
-        <v>13405753.26340136</v>
+        <v>15475548.31830881</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>42507</v>
       </c>
       <c r="B451">
-        <v>13171612.49656821</v>
+        <v>15205257.14710662</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>42508</v>
       </c>
       <c r="B452">
-        <v>12838833.60119212</v>
+        <v>14821098.51211475</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>42509</v>
       </c>
       <c r="B453">
-        <v>13207278.28190999</v>
+        <v>15246429.58803719</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>42510</v>
       </c>
       <c r="B454">
-        <v>13332041.49812487</v>
+        <v>15390455.74926396</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>42513</v>
       </c>
       <c r="B455">
-        <v>13104226.85095029</v>
+        <v>15096686.51396913</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>42514</v>
       </c>
       <c r="B456">
-        <v>13878423.25680399</v>
+        <v>14172733.10429594</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>42515</v>
       </c>
       <c r="B457">
-        <v>13756497.28375591</v>
+        <v>14031957.17366925</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>42516</v>
       </c>
       <c r="B458">
-        <v>14060325.49083685</v>
+        <v>14342244.71372383</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>42517</v>
       </c>
       <c r="B459">
-        <v>13737888.98874929</v>
+        <v>14013352.12356203</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>42520</v>
       </c>
       <c r="B460">
-        <v>13250514.02189199</v>
+        <v>13516204.96148406</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>42521</v>
       </c>
       <c r="B461">
-        <v>13574708.44010088</v>
+        <v>13819867.50382618</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>42522</v>
       </c>
       <c r="B462">
-        <v>13614703.19259625</v>
+        <v>13751404.03438481</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>42523</v>
       </c>
       <c r="B463">
-        <v>13347189.89676344</v>
+        <v>13506318.54924844</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>42524</v>
       </c>
       <c r="B464">
-        <v>13235929.1307082</v>
+        <v>13591048.63405143</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>42527</v>
       </c>
       <c r="B465">
-        <v>13625177.00353278</v>
+        <v>13957952.44082382</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>42528</v>
       </c>
       <c r="B466">
-        <v>13994102.46439952</v>
+        <v>13551180.03063407</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>42529</v>
       </c>
       <c r="B467">
-        <v>14066385.75048627</v>
+        <v>13625051.19143084</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>42534</v>
       </c>
       <c r="B468">
-        <v>14174204.53589734</v>
+        <v>13729461.3179307</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>42535</v>
       </c>
       <c r="B469">
-        <v>14698251.60064528</v>
+        <v>14237066.31662825</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>42536</v>
       </c>
       <c r="B470">
-        <v>13991577.83315422</v>
+        <v>13552565.81123736</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>42537</v>
       </c>
       <c r="B471">
-        <v>14133291.65324043</v>
+        <v>13689833.09376942</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>42538</v>
       </c>
       <c r="B472">
-        <v>14045699.22441162</v>
+        <v>13578053.15454161</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>42541</v>
       </c>
       <c r="B473">
-        <v>14037992.67179746</v>
+        <v>13558071.59767037</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>42542</v>
       </c>
       <c r="B474">
-        <v>14166669.01792624</v>
+        <v>13682476.24670263</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>42543</v>
       </c>
       <c r="B475">
-        <v>13981992.61626183</v>
+        <v>13476748.60758673</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>42544</v>
       </c>
       <c r="B476">
-        <v>13490239.7083312</v>
+        <v>13923407.29426192</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>42545</v>
       </c>
       <c r="B477">
-        <v>13522261.94350906</v>
+        <v>13954362.46066861</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>42548</v>
       </c>
       <c r="B478">
-        <v>13346612.43785259</v>
+        <v>13773074.99690526</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>42549</v>
       </c>
       <c r="B479">
-        <v>14255495.50493021</v>
+        <v>14711001.17121289</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>42550</v>
       </c>
       <c r="B480">
-        <v>14231024.08924322</v>
+        <v>14685747.82190015</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>42551</v>
       </c>
       <c r="B481">
-        <v>14060870.42765535</v>
+        <v>14510157.24252978</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>42552</v>
       </c>
       <c r="B482">
-        <v>14721650.86904307</v>
+        <v>15192051.59300025</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>42555</v>
       </c>
       <c r="B483">
-        <v>14769088.96176396</v>
+        <v>15241005.47449766</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>42556</v>
       </c>
       <c r="B484">
-        <v>15276271.88640656</v>
+        <v>15764394.40871437</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>42557</v>
       </c>
       <c r="B485">
-        <v>15050660.69091467</v>
+        <v>15501556.37998549</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>42558</v>
       </c>
       <c r="B486">
-        <v>14903756.06179222</v>
+        <v>15652962.42742394</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>42559</v>
       </c>
       <c r="B487">
-        <v>15011459.52086991</v>
+        <v>15510504.12122561</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>42562</v>
       </c>
       <c r="B488">
-        <v>15491852.78471874</v>
+        <v>16014791.00274793</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>42563</v>
       </c>
       <c r="B489">
-        <v>15314518.62984112</v>
+        <v>15800897.67783556</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>42564</v>
       </c>
       <c r="B490">
-        <v>15981699.77913257</v>
+        <v>15077815.20557504</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>42565</v>
       </c>
       <c r="B491">
-        <v>15878431.35591055</v>
+        <v>14941288.21066555</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>42566</v>
       </c>
       <c r="B492">
-        <v>15827703.53027545</v>
+        <v>14959126.08570939</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>42569</v>
       </c>
       <c r="B493">
-        <v>15909646.11998316</v>
+        <v>15036298.00519075</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>42570</v>
       </c>
       <c r="B494">
-        <v>14789591.36720743</v>
+        <v>13977708.81046947</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>42571</v>
       </c>
       <c r="B495">
-        <v>15126737.15643312</v>
+        <v>14296347.21495264</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>42572</v>
       </c>
       <c r="B496">
-        <v>15094336.63327192</v>
+        <v>14237709.25071752</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>42573</v>
       </c>
       <c r="B497">
-        <v>14563125.81506399</v>
+        <v>14738666.68544629</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>42576</v>
       </c>
       <c r="B498">
-        <v>15062027.67742888</v>
+        <v>14239542.08768521</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>42577</v>
       </c>
       <c r="B499">
-        <v>14816009.97813932</v>
+        <v>13961588.19537682</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>42578</v>
       </c>
       <c r="B500">
-        <v>14612905.79612412</v>
+        <v>14124749.89466164</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>42579</v>
       </c>
       <c r="B501">
-        <v>14886683.55991903</v>
+        <v>14383093.77152984</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>42580</v>
       </c>
       <c r="B502">
-        <v>15212569.81618307</v>
+        <v>14698087.24649999</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>42583</v>
       </c>
       <c r="B503">
-        <v>14881097.92416034</v>
+        <v>14349701.3834109</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>42584</v>
       </c>
       <c r="B504">
-        <v>15383158.42942518</v>
+        <v>13834280.52389246</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>42585</v>
       </c>
       <c r="B505">
-        <v>15483949.0308337</v>
+        <v>13931245.49886258</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>42586</v>
       </c>
       <c r="B506">
-        <v>15349256.29774026</v>
+        <v>13782681.47413857</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>42587</v>
       </c>
       <c r="B507">
-        <v>15138176.27129621</v>
+        <v>13972484.8226669</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>42590</v>
       </c>
       <c r="B508">
-        <v>15617733.92238644</v>
+        <v>13513064.58340822</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>42591</v>
       </c>
       <c r="B509">
-        <v>16029223.90343234</v>
+        <v>13892091.90243088</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>42592</v>
       </c>
       <c r="B510">
-        <v>15866901.98318423</v>
+        <v>13724875.51142047</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>42593</v>
       </c>
       <c r="B511">
-        <v>15910186.3159328</v>
+        <v>13686978.87897457</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>42594</v>
       </c>
       <c r="B512">
-        <v>15867166.84744198</v>
+        <v>13696741.43822525</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>42597</v>
       </c>
       <c r="B513">
-        <v>15749924.65822118</v>
+        <v>13568662.9309748</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>42598</v>
       </c>
       <c r="B514">
-        <v>15811702.37999409</v>
+        <v>13514999.36363479</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>42599</v>
       </c>
       <c r="B515">
-        <v>16234034.88846456</v>
+        <v>13123398.4033263</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>42600</v>
       </c>
       <c r="B516">
-        <v>15720511.41748866</v>
+        <v>12671342.54738873</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>42601</v>
       </c>
       <c r="B517">
-        <v>15704790.90607117</v>
+        <v>12639748.99050386</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>42604</v>
       </c>
       <c r="B518">
-        <v>15537302.48372958</v>
+        <v>12479448.39920543</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>42605</v>
       </c>
       <c r="B519">
-        <v>15598028.96246396</v>
+        <v>12380457.66306893</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>42606</v>
       </c>
       <c r="B520">
-        <v>15902557.42217802</v>
+        <v>12110561.90502154</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>42607</v>
       </c>
       <c r="B521">
-        <v>15877052.38770155</v>
+        <v>12090829.67111441</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>42608</v>
       </c>
       <c r="B522">
-        <v>16059559.74284402</v>
+        <v>12253713.1742321</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>42611</v>
       </c>
       <c r="B523">
-        <v>15576213.46093653</v>
+        <v>12597311.67010157</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>42612</v>
       </c>
       <c r="B524">
-        <v>15620886.34774429</v>
+        <v>12631354.19299714</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>42613</v>
       </c>
       <c r="B525">
-        <v>15965242.09461152</v>
+        <v>12909855.07411508</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>42614</v>
       </c>
       <c r="B526">
-        <v>16260306.05628959</v>
+        <v>13148449.51590092</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>42615</v>
       </c>
       <c r="B527">
-        <v>16152968.86922883</v>
+        <v>13035661.2481206</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>42618</v>
       </c>
       <c r="B528">
-        <v>16051132.99049173</v>
+        <v>13117644.09295854</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>42619</v>
       </c>
       <c r="B529">
-        <v>15910430.09798672</v>
+        <v>13230966.29601425</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>42620</v>
       </c>
       <c r="B530">
-        <v>15989438.08501553</v>
+        <v>13140063.36842223</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>42621</v>
       </c>
       <c r="B531">
-        <v>16579502.13575642</v>
+        <v>13630911.77267242</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>42622</v>
       </c>
       <c r="B532">
-        <v>16572068.25964911</v>
+        <v>13598505.31741562</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>42625</v>
       </c>
       <c r="B533">
-        <v>16515200.58603325</v>
+        <v>13645127.40876583</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>42626</v>
       </c>
       <c r="B534">
-        <v>16988675.40490525</v>
+        <v>13229412.25722468</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>42627</v>
       </c>
       <c r="B535">
-        <v>17176675.48658149</v>
+        <v>13385028.21230071</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>42632</v>
       </c>
       <c r="B536">
-        <v>17553636.07717915</v>
+        <v>13678565.5458788</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>42633</v>
       </c>
       <c r="B537">
-        <v>17264667.54272067</v>
+        <v>13453385.27996544</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>42634</v>
       </c>
       <c r="B538">
-        <v>17052298.95744284</v>
+        <v>13260991.56081911</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>42635</v>
       </c>
       <c r="B539">
-        <v>17128420.20299591</v>
+        <v>13174913.53396438</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>42636</v>
       </c>
       <c r="B540">
-        <v>16859479.10914493</v>
+        <v>12965912.48880517</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>42639</v>
       </c>
       <c r="B541">
-        <v>17053911.95383975</v>
+        <v>13115465.06309932</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>42640</v>
       </c>
       <c r="B542">
-        <v>17112138.42774621</v>
+        <v>13160244.55961061</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>42641</v>
       </c>
       <c r="B543">
-        <v>16736651.45582336</v>
+        <v>12845818.85831807</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>42642</v>
       </c>
       <c r="B544">
-        <v>16894563.2460928</v>
+        <v>12697836.82696886</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>42643</v>
       </c>
       <c r="B545">
-        <v>16755342.69962275</v>
+        <v>12565772.20786922</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>42653</v>
       </c>
       <c r="B546">
-        <v>16498639.89971518</v>
+        <v>12733549.28408493</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>42654</v>
       </c>
       <c r="B547">
-        <v>16251294.24621475</v>
+        <v>12522944.08582007</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>42655</v>
       </c>
       <c r="B548">
-        <v>15731736.44794078</v>
+        <v>12897698.13035638</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>42656</v>
       </c>
       <c r="B549">
-        <v>15890792.09412147</v>
+        <v>13020535.22824146</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>42657</v>
       </c>
       <c r="B550">
-        <v>15823991.2001743</v>
+        <v>12940089.70345476</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>42660</v>
       </c>
       <c r="B551">
-        <v>16080297.64328974</v>
+        <v>12703642.41731583</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>42661</v>
       </c>
       <c r="B552">
-        <v>16338403.60408331</v>
+        <v>12914262.86542931</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>42662</v>
       </c>
       <c r="B553">
-        <v>16477249.99602638</v>
+        <v>13023946.59141752</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>42663</v>
       </c>
       <c r="B554">
-        <v>16390366.28870922</v>
+        <v>12929580.17381461</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>42664</v>
       </c>
       <c r="B555">
-        <v>16754874.04624877</v>
+        <v>12614866.83792088</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>42667</v>
       </c>
       <c r="B556">
-        <v>16675504.29009902</v>
+        <v>12527123.43166299</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>42668</v>
       </c>
       <c r="B557">
-        <v>16763165.06447846</v>
+        <v>12435788.9944735</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>42669</v>
       </c>
       <c r="B558">
-        <v>17291149.82359682</v>
+        <v>12832269.3015967</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>42670</v>
       </c>
       <c r="B559">
-        <v>17049230.95588968</v>
+        <v>12628282.70777282</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>42671</v>
       </c>
       <c r="B560">
-        <v>16946776.8626852</v>
+        <v>12704085.2340221</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>42674</v>
       </c>
       <c r="B561">
-        <v>17453584.57881807</v>
+        <v>12302535.27719581</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>42675</v>
       </c>
       <c r="B562">
-        <v>17485763.17366861</v>
+        <v>12326587.25588574</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>42676</v>
       </c>
       <c r="B563">
-        <v>17613213.23126831</v>
+        <v>12416424.54618941</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>42677</v>
       </c>
       <c r="B564">
-        <v>17586353.05468098</v>
+        <v>12372873.9539171</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>42678</v>
       </c>
       <c r="B565">
-        <v>18124623.71002313</v>
+        <v>11967852.42642416</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>42681</v>
       </c>
       <c r="B566">
-        <v>18391900.47257923</v>
+        <v>12155492.13344111</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>42682</v>
       </c>
       <c r="B567">
-        <v>19391466.49643323</v>
+        <v>12815525.74437716</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>42683</v>
       </c>
       <c r="B568">
-        <v>19007849.14814795</v>
+        <v>12538181.95366103</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>42684</v>
       </c>
       <c r="B569">
-        <v>20261476.75134598</v>
+        <v>11682412.09958375</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>42685</v>
       </c>
       <c r="B570">
-        <v>20197010.97314439</v>
+        <v>11616578.0703451</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>42688</v>
       </c>
       <c r="B571">
-        <v>21188766.05368988</v>
+        <v>11020268.4503341</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>42689</v>
       </c>
       <c r="B572">
-        <v>19922191.21693991</v>
+        <v>10271169.12988596</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>42690</v>
       </c>
       <c r="B573">
-        <v>18811938.21501345</v>
+        <v>10827593.59916653</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>42691</v>
       </c>
       <c r="B574">
-        <v>18682674.42651016</v>
+        <v>10761097.8068792</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>42692</v>
       </c>
       <c r="B575">
-        <v>18649145.46339197</v>
+        <v>10741807.43492153</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>42695</v>
       </c>
       <c r="B576">
-        <v>18920150.54350057</v>
+        <v>10897904.55966503</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>42696</v>
       </c>
       <c r="B577">
-        <v>19301459.95656662</v>
+        <v>11117536.73008901</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>42697</v>
       </c>
       <c r="B578">
-        <v>18113807.11116328</v>
+        <v>10411220.03004108</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>42698</v>
       </c>
       <c r="B579">
-        <v>17722922.61644502</v>
+        <v>10613703.29420725</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>42699</v>
       </c>
       <c r="B580">
-        <v>17428093.33376241</v>
+        <v>10423444.87236917</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>42702</v>
       </c>
       <c r="B581">
-        <v>18971360.01777842</v>
+        <v>9476166.444464603</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>42703</v>
       </c>
       <c r="B582">
-        <v>19368950.86102961</v>
+        <v>9713457.504544871</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>42704</v>
       </c>
       <c r="B583">
-        <v>17966968.01257408</v>
+        <v>8995576.885262936</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>42705</v>
       </c>
       <c r="B584">
-        <v>17573771.74715767</v>
+        <v>9191735.754180022</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>42706</v>
       </c>
       <c r="B585">
-        <v>18746046.62582772</v>
+        <v>8585249.703990297</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>42709</v>
       </c>
       <c r="B586">
-        <v>18348573.6961123</v>
+        <v>8360606.893308086</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>42710</v>
       </c>
       <c r="B587">
-        <v>18773067.47208436</v>
+        <v>8131841.160294825</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>42711</v>
       </c>
       <c r="B588">
-        <v>18646662.04806643</v>
+        <v>8189016.149820972</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>42712</v>
       </c>
       <c r="B589">
-        <v>17629711.07469552</v>
+        <v>8612524.507109731</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>42713</v>
       </c>
       <c r="B590">
-        <v>17689121.1907738</v>
+        <v>8638691.757667752</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>42716</v>
       </c>
       <c r="B591">
-        <v>17512692.11749233</v>
+        <v>8535452.002013521</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>42717</v>
       </c>
       <c r="B592">
-        <v>17974239.56537727</v>
+        <v>8292338.108451673</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>42718</v>
       </c>
       <c r="B593">
-        <v>18141167.12502452</v>
+        <v>8373515.20402416</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>42719</v>
       </c>
       <c r="B594">
-        <v>17517022.59317959</v>
+        <v>8069555.130578059</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>42720</v>
       </c>
       <c r="B595">
-        <v>17580969.8008431</v>
+        <v>8023247.848284103</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>42723</v>
       </c>
       <c r="B596">
-        <v>17028134.95782663</v>
+        <v>7768649.555173806</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>42724</v>
       </c>
       <c r="B597">
-        <v>17665896.1112152</v>
+        <v>8059700.413775277</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>42725</v>
       </c>
       <c r="B598">
-        <v>17627587.43556396</v>
+        <v>8042222.974983906</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>42726</v>
       </c>
       <c r="B599">
-        <v>17599639.46804819</v>
+        <v>8013387.845904027</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>42727</v>
       </c>
       <c r="B600">
-        <v>18493207.7675675</v>
+        <v>7589672.89028664</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>42730</v>
       </c>
       <c r="B601">
-        <v>18731644.75376794</v>
+        <v>7698438.23552297</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>42731</v>
       </c>
       <c r="B602">
-        <v>18973921.92242603</v>
+        <v>7797858.667100395</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>42732</v>
       </c>
       <c r="B603">
-        <v>18475347.91311385</v>
+        <v>7592951.724085259</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>42733</v>
       </c>
       <c r="B604">
-        <v>18588428.11966486</v>
+        <v>7639425.162400118</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>42734</v>
       </c>
       <c r="B605">
-        <v>18859739.63111237</v>
+        <v>7750928.080662081</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>42738</v>
       </c>
       <c r="B606">
-        <v>19231117.07903509</v>
+        <v>7903555.844674766</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>42739</v>
       </c>
       <c r="B607">
-        <v>19419871.87358727</v>
+        <v>7981129.812612289</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>42740</v>
       </c>
       <c r="B608">
-        <v>18948898.26324587</v>
+        <v>7787570.269742089</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>42741</v>
       </c>
       <c r="B609">
-        <v>18882081.58319522</v>
+        <v>7760110.119613227</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>42744</v>
       </c>
       <c r="B610">
-        <v>19005541.8183561</v>
+        <v>7826292.193589917</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>42745</v>
       </c>
       <c r="B611">
-        <v>19866318.97544029</v>
+        <v>7456288.385613813</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>42746</v>
       </c>
       <c r="B612">
-        <v>20670630.96776574</v>
+        <v>7786818.020244027</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>42747</v>
       </c>
       <c r="B613">
-        <v>20682345.50093766</v>
+        <v>7791186.102361019</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>42748</v>
       </c>
       <c r="B614">
-        <v>20896716.66363653</v>
+        <v>7871941.658754185</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>42751</v>
       </c>
       <c r="B615">
-        <v>20754700.73878723</v>
+        <v>7818443.253138413</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>42752</v>
       </c>
       <c r="B616">
-        <v>21932504.67277426</v>
+        <v>8262130.364519984</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>42753</v>
       </c>
       <c r="B617">
-        <v>21450470.63252894</v>
+        <v>8080544.716180904</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>42754</v>
       </c>
       <c r="B618">
-        <v>21370120.16919096</v>
+        <v>8050276.125664103</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>42755</v>
       </c>
       <c r="B619">
-        <v>21186903.62992765</v>
+        <v>7981257.153370974</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>42758</v>
       </c>
       <c r="B620">
-        <v>20743893.42199687</v>
+        <v>7822353.317127808</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>42759</v>
       </c>
       <c r="B621">
-        <v>20829851.27862515</v>
+        <v>7814530.96381068</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>42760</v>
       </c>
       <c r="B622">
-        <v>20011975.30349993</v>
+        <v>7498302.061596978</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>42761</v>
       </c>
       <c r="B623">
-        <v>19991963.32819642</v>
+        <v>7479060.459292232</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>42769</v>
       </c>
       <c r="B624">
-        <v>20338098.20997303</v>
+        <v>7608742.254898276</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>42772</v>
       </c>
       <c r="B625">
-        <v>18872476.66607433</v>
+        <v>7060448.133540327</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>42773</v>
       </c>
       <c r="B626">
-        <v>19001933.46616494</v>
+        <v>7108879.589212663</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>42774</v>
       </c>
       <c r="B627">
-        <v>18567989.85067637</v>
+        <v>6946535.428149209</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>42775</v>
       </c>
       <c r="B628">
-        <v>18044043.92105383</v>
+        <v>6750520.189404525</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>42776</v>
       </c>
       <c r="B629">
-        <v>18293555.01031192</v>
+        <v>6857366.693411176</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>42779</v>
       </c>
       <c r="B630">
-        <v>19156211.65208748</v>
+        <v>6520474.745524672</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>42780</v>
       </c>
       <c r="B631">
-        <v>19690879.03326549</v>
+        <v>6720481.008760445</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>42781</v>
       </c>
       <c r="B632">
-        <v>19651426.53763626</v>
+        <v>6707033.982634883</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>42782</v>
       </c>
       <c r="B633">
-        <v>19239158.89399646</v>
+        <v>6566327.352884641</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>42783</v>
       </c>
       <c r="B634">
-        <v>19378557.48941236</v>
+        <v>6613904.108795635</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>42786</v>
       </c>
       <c r="B635">
-        <v>19871370.13452317</v>
+        <v>6782101.126618743</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>42787</v>
       </c>
       <c r="B636">
-        <v>20344541.37578961</v>
+        <v>6943594.530783877</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>42788</v>
       </c>
       <c r="B637">
-        <v>20377536.36229294</v>
+        <v>6954855.723828047</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>42789</v>
       </c>
       <c r="B638">
-        <v>20001220.48381926</v>
+        <v>6826419.067166595</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>42790</v>
       </c>
       <c r="B639">
-        <v>20035682.43219031</v>
+        <v>6838180.934480753</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>42793</v>
       </c>
       <c r="B640">
-        <v>19915993.74307736</v>
+        <v>6810929.583210632</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>42794</v>
       </c>
       <c r="B641">
-        <v>19233892.14423125</v>
+        <v>7029630.287440739</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>42795</v>
       </c>
       <c r="B642">
-        <v>18522354.03437985</v>
+        <v>6785844.443138005</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>42796</v>
       </c>
       <c r="B643">
-        <v>18169968.14810123</v>
+        <v>6657037.679551885</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>42797</v>
       </c>
       <c r="B644">
-        <v>18221812.74926458</v>
+        <v>6676031.746363754</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>42800</v>
       </c>
       <c r="B645">
-        <v>18256904.84393741</v>
+        <v>6702240.706712974</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>42801</v>
       </c>
       <c r="B646">
-        <v>18889328.50199642</v>
+        <v>6457144.835556009</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>42802</v>
       </c>
       <c r="B647">
-        <v>18639866.91972885</v>
+        <v>6352455.604471438</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>42803</v>
       </c>
       <c r="B648">
-        <v>19045409.32025087</v>
+        <v>6201100.305740147</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>42804</v>
       </c>
       <c r="B649">
-        <v>19219390.45420301</v>
+        <v>6260498.807173006</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>42807</v>
       </c>
       <c r="B650">
-        <v>19078696.79313708</v>
+        <v>6214686.827798334</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>42808</v>
       </c>
       <c r="B651">
-        <v>17951527.24527967</v>
+        <v>5847524.093848149</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>42809</v>
       </c>
       <c r="B652">
-        <v>17892210.84763354</v>
+        <v>5828202.395943215</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>42810</v>
       </c>
       <c r="B653">
-        <v>18081871.98940058</v>
+        <v>5889982.548744371</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>42811</v>
       </c>
       <c r="B654">
-        <v>18007673.63370076</v>
+        <v>5865813.202756524</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>42814</v>
       </c>
       <c r="B655">
-        <v>17751720.53323946</v>
+        <v>5794075.716039337</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>42815</v>
       </c>
       <c r="B656">
-        <v>17706034.41447007</v>
+        <v>5797184.66587785</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>42816</v>
       </c>
       <c r="B657">
-        <v>18285653.93885897</v>
+        <v>5986351.654310111</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>42817</v>
       </c>
       <c r="B658">
-        <v>18564685.39447682</v>
+        <v>6077710.769634937</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>42818</v>
       </c>
       <c r="B659">
-        <v>18499981.53137236</v>
+        <v>6056528.029330335</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>42821</v>
       </c>
       <c r="B660">
-        <v>18452419.70432424</v>
+        <v>6040957.228001064</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>42822</v>
       </c>
       <c r="B661">
-        <v>18923633.14228478</v>
+        <v>6195223.187129932</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>42823</v>
       </c>
       <c r="B662">
-        <v>18899049.48063745</v>
+        <v>6187174.982563878</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>42824</v>
       </c>
       <c r="B663">
-        <v>18199288.98550065</v>
+        <v>5970461.587468987</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>42825</v>
       </c>
       <c r="B664">
-        <v>18025814.10311582</v>
+        <v>6014980.347921261</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>42830</v>
       </c>
       <c r="B665">
-        <v>18373049.9807587</v>
+        <v>6128996.033139484</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>42831</v>
       </c>
       <c r="B666">
-        <v>18581334.6490207</v>
+        <v>6198499.777638115</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>42832</v>
       </c>
       <c r="B667">
-        <v>17971682.58397155</v>
+        <v>6007003.757015061</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>42835</v>
       </c>
       <c r="B668">
-        <v>18599732.23667535</v>
+        <v>5785492.152605379</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>42836</v>
       </c>
       <c r="B669">
-        <v>18836116.87144141</v>
+        <v>5864650.320760621</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>42837</v>
       </c>
       <c r="B670">
-        <v>18929096.86935146</v>
+        <v>5893566.346116875</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>42838</v>
       </c>
       <c r="B671">
-        <v>19479290.75390536</v>
+        <v>6064869.985454726</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>42839</v>
       </c>
       <c r="B672">
-        <v>19236470.40726237</v>
+        <v>5989267.971685867</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>42842</v>
       </c>
       <c r="B673">
-        <v>19122901.39973186</v>
+        <v>5953908.303126725</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>42843</v>
       </c>
       <c r="B674">
-        <v>19286315.73345169</v>
+        <v>6004787.295703844</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>42844</v>
       </c>
       <c r="B675">
-        <v>19927965.93289643</v>
+        <v>6204564.848822981</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>42845</v>
       </c>
       <c r="B676">
-        <v>19694944.35587414</v>
+        <v>6132013.666696403</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>42846</v>
       </c>
       <c r="B677">
-        <v>19380075.78808831</v>
+        <v>6033979.45416003</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>42849</v>
       </c>
       <c r="B678">
-        <v>19170929.68993637</v>
+        <v>5968861.893580507</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>42850</v>
       </c>
       <c r="B679">
-        <v>19183967.68788823</v>
+        <v>5960983.54565055</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42851</v>
       </c>
       <c r="B680">
-        <v>19380409.01821128</v>
+        <v>5887773.385597847</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42852</v>
       </c>
       <c r="B681">
-        <v>19477690.50276402</v>
+        <v>5917928.715958242</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42853</v>
       </c>
       <c r="B682">
-        <v>19901513.99933044</v>
+        <v>6046687.007500526</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42857</v>
       </c>
       <c r="B683">
-        <v>20652056.73947189</v>
+        <v>6274725.243898127</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>42858</v>
       </c>
       <c r="B684">
-        <v>20594423.97847339</v>
+        <v>6257214.652680472</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42859</v>
       </c>
       <c r="B685">
-        <v>20443201.84903604</v>
+        <v>6211268.753683404</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42860</v>
       </c>
       <c r="B686">
-        <v>19274560.10716612</v>
+        <v>5856199.719530954</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>42863</v>
       </c>
       <c r="B687">
-        <v>19280330.65270462</v>
+        <v>5857952.987412359</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42864</v>
       </c>
       <c r="B688">
-        <v>18953100.42041163</v>
+        <v>5758530.454087524</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42865</v>
       </c>
       <c r="B689">
-        <v>18881960.74202663</v>
+        <v>5736916.048244308</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42866</v>
       </c>
       <c r="B690">
-        <v>18371242.9894549</v>
+        <v>5593218.237369911</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42867</v>
       </c>
       <c r="B691">
-        <v>18272869.35009538</v>
+        <v>5622867.809437018</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42870</v>
       </c>
       <c r="B692">
-        <v>17530345.55349598</v>
+        <v>5826990.626048625</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42871</v>
       </c>
       <c r="B693">
-        <v>17238184.83199775</v>
+        <v>5916460.76136554</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42872</v>
       </c>
       <c r="B694">
-        <v>17191051.4959645</v>
+        <v>5920255.951118162</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42873</v>
       </c>
       <c r="B695">
-        <v>16547945.10417701</v>
+        <v>5699510.086388468</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>42874</v>
       </c>
       <c r="B696">
-        <v>16585944.55744586</v>
+        <v>5712597.068899225</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>42877</v>
       </c>
       <c r="B697">
-        <v>17307044.14097732</v>
+        <v>5960961.098883324</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>42878</v>
       </c>
       <c r="B698">
-        <v>17791031.21924935</v>
+        <v>6127657.855554719</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>42879</v>
       </c>
       <c r="B699">
-        <v>17474994.70198653</v>
+        <v>6018807.299107027</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>42880</v>
       </c>
       <c r="B700">
-        <v>17253053.70768238</v>
+        <v>5942365.497591536</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>42881</v>
       </c>
       <c r="B701">
-        <v>17078536.46685968</v>
+        <v>5894142.305191223</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>42886</v>
       </c>
       <c r="B702">
-        <v>16933593.77410124</v>
+        <v>5943856.0901558</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>42887</v>
       </c>
       <c r="B703">
-        <v>17700663.86069943</v>
+        <v>5667336.984899835</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>42888</v>
       </c>
       <c r="B704">
-        <v>17721710.66502283</v>
+        <v>5674732.676940781</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>42891</v>
       </c>
       <c r="B705">
-        <v>18223981.66210751</v>
+        <v>5835547.400687631</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>42892</v>
       </c>
       <c r="B706">
-        <v>18705780.75296367</v>
+        <v>5989826.03878959</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42893</v>
       </c>
       <c r="B707">
-        <v>18512546.74265558</v>
+        <v>5927950.085601941</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42894</v>
       </c>
       <c r="B708">
-        <v>18455401.70383867</v>
+        <v>5909651.526139427</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42895</v>
       </c>
       <c r="B709">
-        <v>18455344.55879986</v>
+        <v>5909633.227579964</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42898</v>
       </c>
       <c r="B710">
-        <v>18032524.40024295</v>
+        <v>5786060.166336367</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42899</v>
       </c>
       <c r="B711">
-        <v>18062525.48676712</v>
+        <v>5764602.851994169</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42900</v>
       </c>
       <c r="B712">
-        <v>17432872.22565518</v>
+        <v>5562598.34867358</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42901</v>
       </c>
       <c r="B713">
-        <v>16504128.01844176</v>
+        <v>5266193.369254011</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42902</v>
       </c>
       <c r="B714">
-        <v>16644558.3603146</v>
+        <v>5311002.774070049</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42905</v>
       </c>
       <c r="B715">
-        <v>16617814.65357756</v>
+        <v>5302469.300641534</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>42906</v>
       </c>
       <c r="B716">
-        <v>16853797.01424776</v>
+        <v>5377767.361726981</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>42907</v>
       </c>
       <c r="B717">
-        <v>16615472.77761493</v>
+        <v>5301722.046823176</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>42908</v>
       </c>
       <c r="B718">
-        <v>16473343.01962886</v>
+        <v>5266974.240217558</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>42909</v>
       </c>
       <c r="B719">
-        <v>16699906.71928239</v>
+        <v>5184158.172756777</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>42912</v>
       </c>
       <c r="B720">
-        <v>16330917.76925157</v>
+        <v>5066027.150105508</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>42913</v>
       </c>
       <c r="B721">
-        <v>16044849.7433356</v>
+        <v>4977226.533463355</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42914</v>
       </c>
       <c r="B722">
-        <v>16427583.79462689</v>
+        <v>5095954.712450335</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>42915</v>
       </c>
       <c r="B723">
-        <v>16735872.93925162</v>
+        <v>5186538.385462094</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42916</v>
       </c>
       <c r="B724">
-        <v>16750568.31115426</v>
+        <v>5181351.847076632</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42919</v>
       </c>
       <c r="B725">
-        <v>17004596.02233564</v>
+        <v>5260066.680801603</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42920</v>
       </c>
       <c r="B726">
-        <v>17325402.08253657</v>
+        <v>5359299.814445041</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42921</v>
       </c>
       <c r="B727">
-        <v>17150116.21695888</v>
+        <v>5305078.279395874</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42922</v>
       </c>
       <c r="B728">
-        <v>17304018.76933174</v>
+        <v>5352685.250712081</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42923</v>
       </c>
       <c r="B729">
-        <v>17409897.98342217</v>
+        <v>5385437.070688214</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42926</v>
       </c>
       <c r="B730">
-        <v>17480677.37169078</v>
+        <v>5407331.394353148</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42927</v>
       </c>
       <c r="B731">
-        <v>17495826.94958062</v>
+        <v>5412017.642282396</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42928</v>
       </c>
       <c r="B732">
-        <v>18140934.01205496</v>
+        <v>5611569.844835233</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42929</v>
       </c>
       <c r="B733">
-        <v>18213977.4991219</v>
+        <v>5634164.526515572</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42930</v>
       </c>
       <c r="B734">
-        <v>18608904.68936735</v>
+        <v>5756328.110276707</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42933</v>
       </c>
       <c r="B735">
-        <v>17960250.50311755</v>
+        <v>5566568.101395438</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42934</v>
       </c>
       <c r="B736">
-        <v>17474812.24173632</v>
+        <v>5716039.616432547</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42935</v>
       </c>
       <c r="B737">
-        <v>17583123.55635877</v>
+        <v>5671337.648347094</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>42936</v>
       </c>
       <c r="B738">
-        <v>17918016.8257691</v>
+        <v>5780801.652795339</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>42937</v>
       </c>
       <c r="B739">
-        <v>17130459.5476868</v>
+        <v>5526778.034442794</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>42940</v>
       </c>
       <c r="B740">
-        <v>17037692.83733743</v>
+        <v>5496849.228996325</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>42941</v>
       </c>
       <c r="B741">
-        <v>17027826.8226614</v>
+        <v>5504659.867486003</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>42942</v>
       </c>
       <c r="B742">
-        <v>17298369.51884585</v>
+        <v>5417204.897348323</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>42943</v>
       </c>
       <c r="B743">
-        <v>17183799.8708884</v>
+        <v>5454067.412810343</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>42944</v>
       </c>
       <c r="B744">
-        <v>17237156.96973296</v>
+        <v>5437285.21576428</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>42947</v>
       </c>
       <c r="B745">
-        <v>17197922.04480764</v>
+        <v>5427924.855735226</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42948</v>
       </c>
       <c r="B746">
-        <v>16461695.34091285</v>
+        <v>5648846.196116674</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42949</v>
       </c>
       <c r="B747">
-        <v>16391495.27098642</v>
+        <v>5626657.541459183</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42950</v>
       </c>
       <c r="B748">
-        <v>16447655.52061272</v>
+        <v>5657180.398310446</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42951</v>
       </c>
       <c r="B749">
-        <v>16127733.55985707</v>
+        <v>5755560.048269294</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42954</v>
       </c>
       <c r="B750">
-        <v>16562101.67798927</v>
+        <v>5905169.624619112</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42955</v>
       </c>
       <c r="B751">
-        <v>17411896.94399628</v>
+        <v>6208433.59507623</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42956</v>
       </c>
       <c r="B752">
-        <v>17284201.97777176</v>
+        <v>6162904.050942954</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42957</v>
       </c>
       <c r="B753">
-        <v>17717707.03788364</v>
+        <v>6317475.8025148</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>42958</v>
       </c>
       <c r="B754">
-        <v>17530722.90737224</v>
+        <v>6250804.210956458</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>42961</v>
       </c>
       <c r="B755">
-        <v>17118592.57178479</v>
+        <v>6116219.769653495</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>42962</v>
       </c>
       <c r="B756">
-        <v>17395425.57405088</v>
+        <v>6017427.388615036</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>42963</v>
       </c>
       <c r="B757">
-        <v>17656171.23853629</v>
+        <v>5912034.266253779</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>42964</v>
       </c>
       <c r="B758">
-        <v>17730215.27527845</v>
+        <v>5937683.849533666</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>42965</v>
       </c>
       <c r="B759">
-        <v>17343818.89363482</v>
+        <v>5820176.479586883</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>42968</v>
       </c>
       <c r="B760">
-        <v>17660392.75630303</v>
+        <v>5713699.428960668</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>42969</v>
       </c>
       <c r="B761">
-        <v>18117612.23807858</v>
+        <v>5548532.75687374</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>42970</v>
       </c>
       <c r="B762">
-        <v>17885603.6960366</v>
+        <v>5473603.042675775</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>42971</v>
       </c>
       <c r="B763">
-        <v>17207479.56123376</v>
+        <v>5276634.250733928</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42972</v>
       </c>
       <c r="B764">
-        <v>16846741.8489917</v>
+        <v>5386407.60117919</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>42975</v>
       </c>
       <c r="B765">
-        <v>16522258.40533761</v>
+        <v>5475357.284563973</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>42976</v>
       </c>
       <c r="B766">
-        <v>16547693.96857798</v>
+        <v>5483521.08182242</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>42977</v>
       </c>
       <c r="B767">
-        <v>16342251.32478496</v>
+        <v>5415439.136592692</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>42978</v>
       </c>
       <c r="B768">
-        <v>16474218.72524496</v>
+        <v>5459170.062109185</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>42979</v>
       </c>
       <c r="B769">
-        <v>16182483.15453456</v>
+        <v>5362495.730273677</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>42982</v>
       </c>
       <c r="B770">
-        <v>16791737.51161348</v>
+        <v>5564388.348178763</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>42983</v>
       </c>
       <c r="B771">
-        <v>16791128.2572564</v>
+        <v>5564186.455560857</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>42984</v>
       </c>
       <c r="B772">
-        <v>16877894.60972112</v>
+        <v>5592938.791662749</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>42985</v>
       </c>
       <c r="B773">
-        <v>16503066.55894888</v>
+        <v>5479631.600954258</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>42986</v>
       </c>
       <c r="B774">
-        <v>16701304.61354073</v>
+        <v>5413834.138154142</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>42989</v>
       </c>
       <c r="B775">
-        <v>16863843.90439959</v>
+        <v>5348905.763029553</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>42990</v>
       </c>
       <c r="B776">
-        <v>16850886.42235565</v>
+        <v>5344684.969136599</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>42991</v>
       </c>
       <c r="B777">
-        <v>16661946.7946499</v>
+        <v>5295446.223114471</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>42992</v>
       </c>
       <c r="B778">
-        <v>16466527.2672159</v>
+        <v>5346848.266294336</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>42993</v>
       </c>
       <c r="B779">
-        <v>16815537.75114344</v>
+        <v>5457656.143668379</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>42996</v>
       </c>
       <c r="B780">
-        <v>16913949.22206305</v>
+        <v>5489613.864886523</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>42997</v>
       </c>
       <c r="B781">
-        <v>16966787.96167029</v>
+        <v>5506763.205324526</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>42998</v>
       </c>
       <c r="B782">
-        <v>17224909.00217564</v>
+        <v>5590539.313753001</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>42999</v>
       </c>
       <c r="B783">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>43000</v>
       </c>
       <c r="B784">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>43003</v>
       </c>
       <c r="B785">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>43004</v>
       </c>
       <c r="B786">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>43005</v>
       </c>
       <c r="B787">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>43006</v>
       </c>
       <c r="B788">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>43007</v>
       </c>
       <c r="B789">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>43017</v>
       </c>
       <c r="B790">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>43018</v>
       </c>
       <c r="B791">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>43019</v>
       </c>
       <c r="B792">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>43020</v>
       </c>
       <c r="B793">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>43021</v>
       </c>
       <c r="B794">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>43024</v>
       </c>
       <c r="B795">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>43025</v>
       </c>
       <c r="B796">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>43026</v>
       </c>
       <c r="B797">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>43027</v>
       </c>
       <c r="B798">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>43028</v>
       </c>
       <c r="B799">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>43031</v>
       </c>
       <c r="B800">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>43032</v>
       </c>
       <c r="B801">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>43033</v>
       </c>
       <c r="B802">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>43034</v>
       </c>
       <c r="B803">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>43035</v>
       </c>
       <c r="B804">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>43038</v>
       </c>
       <c r="B805">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>43039</v>
       </c>
       <c r="B806">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>43040</v>
       </c>
       <c r="B807">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>43041</v>
       </c>
       <c r="B808">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>43042</v>
       </c>
       <c r="B809">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>43045</v>
       </c>
       <c r="B810">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>43046</v>
       </c>
       <c r="B811">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>43047</v>
       </c>
       <c r="B812">
-        <v>17071635.99579266</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>43048</v>
       </c>
       <c r="B813">
-        <v>17054564.35979687</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>43049</v>
       </c>
       <c r="B814">
-        <v>17118285.65176322</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>43052</v>
       </c>
       <c r="B815">
-        <v>17344912.00417019</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>43053</v>
       </c>
       <c r="B816">
-        <v>17295213.08226801</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>43054</v>
       </c>
       <c r="B817">
-        <v>17322529.8994648</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>43055</v>
       </c>
       <c r="B818">
-        <v>16892858.58110102</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>43056</v>
       </c>
       <c r="B819">
-        <v>17064987.95664068</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>43059</v>
       </c>
       <c r="B820">
-        <v>17312385.00425817</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>43060</v>
       </c>
       <c r="B821">
-        <v>16943619.50189808</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43061</v>
       </c>
       <c r="B822">
-        <v>17275308.64954191</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43062</v>
       </c>
       <c r="B823">
-        <v>17490977.76403051</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>43063</v>
       </c>
       <c r="B824">
-        <v>17549657.45736296</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>43066</v>
       </c>
       <c r="B825">
-        <v>17446182.79782925</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>43067</v>
       </c>
       <c r="B826">
-        <v>17273043.78182304</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>43068</v>
       </c>
       <c r="B827">
-        <v>17454183.89827804</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>43069</v>
       </c>
       <c r="B828">
-        <v>17787488.02425429</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>43070</v>
       </c>
       <c r="B829">
-        <v>17932751.70628057</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43073</v>
       </c>
       <c r="B830">
-        <v>17803576.99252756</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43074</v>
       </c>
       <c r="B831">
-        <v>17383699.63308317</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43075</v>
       </c>
       <c r="B832">
-        <v>17208225.26386392</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>43076</v>
       </c>
       <c r="B833">
-        <v>17635547.39206649</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>43077</v>
       </c>
       <c r="B834">
-        <v>18055481.15851051</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>43080</v>
       </c>
       <c r="B835">
-        <v>17729411.40550159</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43081</v>
       </c>
       <c r="B836">
-        <v>17868084.24980244</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>43082</v>
       </c>
       <c r="B837">
-        <v>17656408.34519465</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>43083</v>
       </c>
       <c r="B838">
-        <v>17895603.34973075</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>43084</v>
       </c>
       <c r="B839">
-        <v>18125514.88004919</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>43087</v>
       </c>
       <c r="B840">
-        <v>17819512.41921407</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>43088</v>
       </c>
       <c r="B841">
-        <v>17993724.10432234</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>43089</v>
       </c>
       <c r="B842">
-        <v>17558337.26551961</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>43090</v>
       </c>
       <c r="B843">
-        <v>17418204.10148636</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>43091</v>
       </c>
       <c r="B844">
-        <v>17611376.14389014</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>43094</v>
       </c>
       <c r="B845">
-        <v>18022540.38390711</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>43095</v>
       </c>
       <c r="B846">
-        <v>17255319.90035976</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>43096</v>
       </c>
       <c r="B847">
-        <v>17029136.6115873</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>43097</v>
       </c>
       <c r="B848">
-        <v>16814348.86036744</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>43098</v>
       </c>
       <c r="B849">
-        <v>16935892.39824437</v>
+        <v>5540792.823502402</v>
       </c>
     </row>
   </sheetData>

--- a/cta策略/result/螺纹/ROC_1d/wfo净值.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo净值.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B849"/>
+  <dimension ref="A1:B968"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>41835</v>
+        <v>41655</v>
       </c>
       <c r="B2">
         <v>10000000</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>41836</v>
+        <v>41656</v>
       </c>
       <c r="B3">
         <v>10000000</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>41837</v>
+        <v>41659</v>
       </c>
       <c r="B4">
         <v>10000000</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>41838</v>
+        <v>41660</v>
       </c>
       <c r="B5">
         <v>10000000</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>41841</v>
+        <v>41661</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -436,6746 +436,7698 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>41842</v>
+        <v>41662</v>
       </c>
       <c r="B7">
-        <v>9990000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>41843</v>
+        <v>41663</v>
       </c>
       <c r="B8">
-        <v>9976814.616221217</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>41844</v>
+        <v>41666</v>
       </c>
       <c r="B9">
-        <v>10016183.73995488</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>41845</v>
+        <v>41667</v>
       </c>
       <c r="B10">
-        <v>9989837.966522515</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>41848</v>
+        <v>41668</v>
       </c>
       <c r="B11">
-        <v>9950036.880740596</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>41849</v>
+        <v>41669</v>
       </c>
       <c r="B12">
-        <v>10081095.24634227</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>41850</v>
+        <v>41677</v>
       </c>
       <c r="B13">
-        <v>10122934.96098844</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>41851</v>
+        <v>41680</v>
       </c>
       <c r="B14">
-        <v>10041460.12780263</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>41852</v>
+        <v>41681</v>
       </c>
       <c r="B15">
-        <v>10005179.19699851</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>41855</v>
+        <v>41682</v>
       </c>
       <c r="B16">
-        <v>9991684.756556904</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>41856</v>
+        <v>41683</v>
       </c>
       <c r="B17">
-        <v>9834404.033206809</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>41857</v>
+        <v>41684</v>
       </c>
       <c r="B18">
-        <v>9795682.580798887</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>41858</v>
+        <v>41687</v>
       </c>
       <c r="B19">
-        <v>9840098.92428875</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>41859</v>
+        <v>41688</v>
       </c>
       <c r="B20">
-        <v>9805350.435569117</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>41862</v>
+        <v>41689</v>
       </c>
       <c r="B21">
-        <v>9747615.51049397</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>41863</v>
+        <v>41690</v>
       </c>
       <c r="B22">
-        <v>9836579.328919543</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>41864</v>
+        <v>41691</v>
       </c>
       <c r="B23">
-        <v>9817377.768577745</v>
+        <v>9990000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>41865</v>
+        <v>41694</v>
       </c>
       <c r="B24">
-        <v>9887977.555374915</v>
+        <v>10025310.35002881</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>41866</v>
+        <v>41695</v>
       </c>
       <c r="B25">
-        <v>9962084.491065757</v>
+        <v>10199276.39934899</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>41869</v>
+        <v>41696</v>
       </c>
       <c r="B26">
-        <v>9922733.685887147</v>
+        <v>10271393.20956022</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>41870</v>
+        <v>41697</v>
       </c>
       <c r="B27">
-        <v>9991748.142691031</v>
+        <v>10212674.48164037</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>41871</v>
+        <v>41698</v>
       </c>
       <c r="B28">
-        <v>9988384.743970301</v>
+        <v>10153774.91189358</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>41872</v>
+        <v>41701</v>
       </c>
       <c r="B29">
-        <v>10051395.86927649</v>
+        <v>10211887.57684012</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>41873</v>
+        <v>41702</v>
       </c>
       <c r="B30">
-        <v>10088030.40715862</v>
+        <v>10184787.75331005</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>41876</v>
+        <v>41703</v>
       </c>
       <c r="B31">
-        <v>10104841.66460558</v>
+        <v>10174602.96555674</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>41877</v>
+        <v>41704</v>
       </c>
       <c r="B32">
-        <v>10104824.85334813</v>
+        <v>10174592.78076898</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>41878</v>
+        <v>41705</v>
       </c>
       <c r="B33">
-        <v>10077624.98179454</v>
+        <v>10263884.98444994</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>41879</v>
+        <v>41708</v>
       </c>
       <c r="B34">
-        <v>10152102.00817912</v>
+        <v>10549060.01593589</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>41880</v>
+        <v>41709</v>
       </c>
       <c r="B35">
-        <v>10250628.9776669</v>
+        <v>10891601.07919348</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>41883</v>
+        <v>41710</v>
       </c>
       <c r="B36">
-        <v>10212480.8400945</v>
+        <v>10871374.5541102</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>41884</v>
+        <v>41711</v>
       </c>
       <c r="B37">
-        <v>10309946.9865926</v>
+        <v>10621548.31038961</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>41885</v>
+        <v>41712</v>
       </c>
       <c r="B38">
-        <v>10355348.48446795</v>
+        <v>10584567.98186051</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>41886</v>
+        <v>41715</v>
       </c>
       <c r="B39">
-        <v>10525662.34534148</v>
+        <v>10573946.43355012</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>41887</v>
+        <v>41716</v>
       </c>
       <c r="B40">
-        <v>10579863.05373665</v>
+        <v>10563372.48711657</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>41891</v>
+        <v>41717</v>
       </c>
       <c r="B41">
-        <v>10650181.37935035</v>
+        <v>10520735.27838734</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>41892</v>
+        <v>41718</v>
       </c>
       <c r="B42">
-        <v>10874989.42752156</v>
+        <v>10439128.80666436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>41893</v>
+        <v>41719</v>
       </c>
       <c r="B43">
-        <v>10820795.97938516</v>
+        <v>10551842.84137362</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>41894</v>
+        <v>41722</v>
       </c>
       <c r="B44">
-        <v>10891345.50826072</v>
+        <v>10603373.28264789</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>41897</v>
+        <v>41723</v>
       </c>
       <c r="B45">
-        <v>10671325.15195093</v>
+        <v>10606600.53365003</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>41898</v>
+        <v>41724</v>
       </c>
       <c r="B46">
-        <v>10595483.92096751</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>41899</v>
+        <v>41725</v>
       </c>
       <c r="B47">
-        <v>10516181.86879673</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>41900</v>
+        <v>41726</v>
       </c>
       <c r="B48">
-        <v>10482140.35774365</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>41901</v>
+        <v>41729</v>
       </c>
       <c r="B49">
-        <v>10318361.17257127</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>41904</v>
+        <v>41730</v>
       </c>
       <c r="B50">
-        <v>10561522.09920595</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>41905</v>
+        <v>41731</v>
       </c>
       <c r="B51">
-        <v>10882687.84158645</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>41906</v>
+        <v>41732</v>
       </c>
       <c r="B52">
-        <v>10874281.65033795</v>
+        <v>10364827.79039925</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>41907</v>
+        <v>41733</v>
       </c>
       <c r="B53">
-        <v>10870102.6563356</v>
+        <v>10354462.96260885</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>41908</v>
+        <v>41737</v>
       </c>
       <c r="B54">
-        <v>11156970.63583241</v>
+        <v>10506404.88183059</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>41911</v>
+        <v>41738</v>
       </c>
       <c r="B55">
-        <v>10981672.55271719</v>
+        <v>10591912.59004951</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>41912</v>
+        <v>41739</v>
       </c>
       <c r="B56">
-        <v>11184499.00710624</v>
+        <v>10511780.33471388</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>41920</v>
+        <v>41740</v>
       </c>
       <c r="B57">
-        <v>11110812.43726604</v>
+        <v>10458637.53088256</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>41921</v>
+        <v>41743</v>
       </c>
       <c r="B58">
-        <v>11294557.0478583</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>41922</v>
+        <v>41744</v>
       </c>
       <c r="B59">
-        <v>11161865.92169028</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>41925</v>
+        <v>41745</v>
       </c>
       <c r="B60">
-        <v>10859319.58387484</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>41926</v>
+        <v>41746</v>
       </c>
       <c r="B61">
-        <v>11098633.08673765</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>41927</v>
+        <v>41747</v>
       </c>
       <c r="B62">
-        <v>11065726.06973085</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>41928</v>
+        <v>41750</v>
       </c>
       <c r="B63">
-        <v>10986224.34666656</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>41929</v>
+        <v>41751</v>
       </c>
       <c r="B64">
-        <v>11074246.50262585</v>
+        <v>10395199.10645148</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>41932</v>
+        <v>41752</v>
       </c>
       <c r="B65">
-        <v>11149123.3652759</v>
+        <v>10384803.90734503</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>41933</v>
+        <v>41753</v>
       </c>
       <c r="B66">
-        <v>11115187.25459206</v>
+        <v>10323923.34791119</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>41934</v>
+        <v>41754</v>
       </c>
       <c r="B67">
-        <v>11063929.2447822</v>
+        <v>10233213.34885973</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>41935</v>
+        <v>41757</v>
       </c>
       <c r="B68">
-        <v>10793948.59983089</v>
+        <v>10135087.4217101</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>41936</v>
+        <v>41758</v>
       </c>
       <c r="B69">
-        <v>10828546.76195169</v>
+        <v>10124952.33428839</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>41939</v>
+        <v>41759</v>
       </c>
       <c r="B70">
-        <v>10726207.17023541</v>
+        <v>10039899.97339693</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>41940</v>
+        <v>41764</v>
       </c>
       <c r="B71">
-        <v>10781213.11606685</v>
+        <v>10127181.81554361</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>41941</v>
+        <v>41765</v>
       </c>
       <c r="B72">
-        <v>10764309.86585898</v>
+        <v>10077256.7196822</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>41942</v>
+        <v>41766</v>
       </c>
       <c r="B73">
-        <v>10560638.85458546</v>
+        <v>10114119.53475645</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>41943</v>
+        <v>41767</v>
       </c>
       <c r="B74">
-        <v>10552134.4931275</v>
+        <v>10104005.4152217</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>41946</v>
+        <v>41768</v>
       </c>
       <c r="B75">
-        <v>10433732.50117663</v>
+        <v>10113531.47146581</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>41947</v>
+        <v>41771</v>
       </c>
       <c r="B76">
-        <v>10309801.49104691</v>
+        <v>10208687.57880149</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>41948</v>
+        <v>41772</v>
       </c>
       <c r="B77">
-        <v>10210778.21003043</v>
+        <v>10061039.18374576</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>41949</v>
+        <v>41773</v>
       </c>
       <c r="B78">
-        <v>10061211.53499269</v>
+        <v>10163144.4060062</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>41950</v>
+        <v>41774</v>
       </c>
       <c r="B79">
-        <v>10040798.30995571</v>
+        <v>10169391.62680476</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>41953</v>
+        <v>41775</v>
       </c>
       <c r="B80">
-        <v>9913242.985231264</v>
+        <v>10288114.93234437</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>41954</v>
+        <v>41778</v>
       </c>
       <c r="B81">
-        <v>9908999.515400242</v>
+        <v>10437444.3103134</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>41955</v>
+        <v>41779</v>
       </c>
       <c r="B82">
-        <v>9908557.566487003</v>
+        <v>10450638.47785095</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>41956</v>
+        <v>41780</v>
       </c>
       <c r="B83">
-        <v>9931360.322642468</v>
+        <v>10481123.5179687</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>41957</v>
+        <v>41781</v>
       </c>
       <c r="B84">
-        <v>9779486.643275956</v>
+        <v>10467481.31252234</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>41960</v>
+        <v>41782</v>
       </c>
       <c r="B85">
-        <v>9723995.571841428</v>
+        <v>10423069.60438001</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>41961</v>
+        <v>41785</v>
       </c>
       <c r="B86">
-        <v>9805175.558175605</v>
+        <v>10402412.86922942</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>41962</v>
+        <v>41786</v>
       </c>
       <c r="B87">
-        <v>10064606.41922934</v>
+        <v>10402412.86922942</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>41963</v>
+        <v>41787</v>
       </c>
       <c r="B88">
-        <v>10040269.88211685</v>
+        <v>10402412.86922942</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>41964</v>
+        <v>41788</v>
       </c>
       <c r="B89">
-        <v>10138908.44228278</v>
+        <v>10402412.86922942</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>41967</v>
+        <v>41789</v>
       </c>
       <c r="B90">
-        <v>9939908.900589965</v>
+        <v>10402412.86922942</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>41968</v>
+        <v>41793</v>
       </c>
       <c r="B91">
-        <v>10087571.37704726</v>
+        <v>10392010.45636019</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>41969</v>
+        <v>41794</v>
       </c>
       <c r="B92">
-        <v>10038940.63554168</v>
+        <v>10402215.37361579</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>41970</v>
+        <v>41795</v>
       </c>
       <c r="B93">
-        <v>10100793.01275556</v>
+        <v>10368175.15794722</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>41971</v>
+        <v>41796</v>
       </c>
       <c r="B94">
-        <v>10366169.72707826</v>
+        <v>10357949.3262865</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>41974</v>
+        <v>41799</v>
       </c>
       <c r="B95">
-        <v>10393967.89359476</v>
+        <v>10330666.96319351</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>41975</v>
+        <v>41800</v>
       </c>
       <c r="B96">
-        <v>10471797.30022587</v>
+        <v>10320336.29623032</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>41976</v>
+        <v>41801</v>
       </c>
       <c r="B97">
-        <v>10271635.58531063</v>
+        <v>10323695.46791616</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>41977</v>
+        <v>41802</v>
       </c>
       <c r="B98">
-        <v>10417952.59170586</v>
+        <v>10414425.62652534</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>41978</v>
+        <v>41803</v>
       </c>
       <c r="B99">
-        <v>10559821.56657274</v>
+        <v>10492338.03534963</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>41981</v>
+        <v>41806</v>
       </c>
       <c r="B100">
-        <v>10543442.44907315</v>
+        <v>10492260.12294081</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>41982</v>
+        <v>41807</v>
       </c>
       <c r="B101">
-        <v>10419828.63829427</v>
+        <v>10558249.28962235</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>41983</v>
+        <v>41808</v>
       </c>
       <c r="B102">
-        <v>10515269.78707646</v>
+        <v>10484771.49810906</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>41984</v>
+        <v>41809</v>
       </c>
       <c r="B103">
-        <v>10515174.34592767</v>
+        <v>10526693.27975366</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>41985</v>
+        <v>41810</v>
       </c>
       <c r="B104">
-        <v>10526996.92809346</v>
+        <v>10519687.07273134</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>41988</v>
+        <v>41813</v>
       </c>
       <c r="B105">
-        <v>10407507.15344881</v>
+        <v>10411157.20477483</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>41989</v>
+        <v>41814</v>
       </c>
       <c r="B106">
-        <v>10265227.67247332</v>
+        <v>10317531.63936332</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>41990</v>
+        <v>41815</v>
       </c>
       <c r="B107">
-        <v>10167237.95388974</v>
+        <v>10307214.10772395</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>41991</v>
+        <v>41816</v>
       </c>
       <c r="B108">
-        <v>10130673.31061989</v>
+        <v>10215804.49552711</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>41992</v>
+        <v>41817</v>
       </c>
       <c r="B109">
-        <v>10110641.84326215</v>
+        <v>10315845.0826978</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>41995</v>
+        <v>41820</v>
       </c>
       <c r="B110">
-        <v>10070853.95190404</v>
+        <v>10233674.25160755</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>41996</v>
+        <v>41821</v>
       </c>
       <c r="B111">
-        <v>10319461.50278232</v>
+        <v>10206911.09894</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>41997</v>
+        <v>41822</v>
       </c>
       <c r="B112">
-        <v>10444116.49040453</v>
+        <v>10173700.00490208</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>41998</v>
+        <v>41823</v>
       </c>
       <c r="B113">
-        <v>10326937.50664413</v>
+        <v>10276563.22110768</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>41999</v>
+        <v>41824</v>
       </c>
       <c r="B114">
-        <v>10372931.05815911</v>
+        <v>10210840.51490426</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>42002</v>
+        <v>41827</v>
       </c>
       <c r="B115">
-        <v>10401969.34707894</v>
+        <v>10224017.33902681</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>42003</v>
+        <v>41828</v>
       </c>
       <c r="B116">
-        <v>10200870.50744586</v>
+        <v>10177918.9077869</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>42004</v>
+        <v>41829</v>
       </c>
       <c r="B117">
-        <v>10609071.61876914</v>
+        <v>10260481.94503276</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>42009</v>
+        <v>41830</v>
       </c>
       <c r="B118">
-        <v>10343440.78597198</v>
+        <v>10185198.40743912</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>42010</v>
+        <v>41831</v>
       </c>
       <c r="B119">
-        <v>10347331.41185237</v>
+        <v>10258031.26404816</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>42011</v>
+        <v>41834</v>
       </c>
       <c r="B120">
-        <v>10606574.12268964</v>
+        <v>10300109.37747242</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>42012</v>
+        <v>41835</v>
       </c>
       <c r="B121">
-        <v>10487488.73932388</v>
+        <v>10289809.26809495</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>42013</v>
+        <v>41836</v>
       </c>
       <c r="B122">
-        <v>10462295.65389469</v>
+        <v>10279992.9235435</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>42016</v>
+        <v>41837</v>
       </c>
       <c r="B123">
-        <v>10571794.1541114</v>
+        <v>10227601.59829647</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>42017</v>
+        <v>41838</v>
       </c>
       <c r="B124">
-        <v>10812849.36688989</v>
+        <v>10191446.03084626</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>42018</v>
+        <v>41841</v>
       </c>
       <c r="B125">
-        <v>10808380.44359906</v>
+        <v>9994074.386163125</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>42019</v>
+        <v>41842</v>
       </c>
       <c r="B126">
-        <v>10877545.60914147</v>
+        <v>10077114.91555572</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>42020</v>
+        <v>41843</v>
       </c>
       <c r="B127">
-        <v>10720751.78582968</v>
+        <v>10063890.60731545</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>42023</v>
+        <v>41844</v>
       </c>
       <c r="B128">
-        <v>10807045.35695009</v>
+        <v>10103602.96209029</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>42024</v>
+        <v>41845</v>
       </c>
       <c r="B129">
-        <v>10751244.61351532</v>
+        <v>10077027.24747249</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>42025</v>
+        <v>41848</v>
       </c>
       <c r="B130">
-        <v>10867342.78683378</v>
+        <v>10057032.84037419</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>42026</v>
+        <v>41849</v>
       </c>
       <c r="B131">
-        <v>10970957.8124742</v>
+        <v>9924505.731573526</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>42027</v>
+        <v>41850</v>
       </c>
       <c r="B132">
-        <v>10895860.25797762</v>
+        <v>9881951.106177602</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>42030</v>
+        <v>41851</v>
       </c>
       <c r="B133">
-        <v>10878058.07783501</v>
+        <v>9962001.580683049</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>42031</v>
+        <v>41852</v>
       </c>
       <c r="B134">
-        <v>11000871.60952315</v>
+        <v>9997259.231710482</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>42032</v>
+        <v>41855</v>
       </c>
       <c r="B135">
-        <v>10960893.60796289</v>
+        <v>9990723.623034749</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>42033</v>
+        <v>41856</v>
       </c>
       <c r="B136">
-        <v>10920615.36385035</v>
+        <v>9843551.176463202</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>42034</v>
+        <v>41857</v>
       </c>
       <c r="B137">
-        <v>10712318.8528144</v>
+        <v>9843551.176463202</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>42037</v>
+        <v>41858</v>
       </c>
       <c r="B138">
-        <v>10664375.21931672</v>
+        <v>9833707.625286739</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>42038</v>
+        <v>41859</v>
       </c>
       <c r="B139">
-        <v>10634398.69194757</v>
+        <v>9798843.807952266</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>42039</v>
+        <v>41862</v>
       </c>
       <c r="B140">
-        <v>10565998.92333308</v>
+        <v>9760737.730090125</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>42040</v>
+        <v>41863</v>
       </c>
       <c r="B141">
-        <v>10565930.52356447</v>
+        <v>9671750.87685792</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>42041</v>
+        <v>41864</v>
       </c>
       <c r="B142">
-        <v>10527773.70401868</v>
+        <v>9681128.464988634</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>42044</v>
+        <v>41865</v>
       </c>
       <c r="B143">
-        <v>10446575.03310887</v>
+        <v>9671447.336523645</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>42045</v>
+        <v>41866</v>
       </c>
       <c r="B144">
-        <v>10522521.65852611</v>
+        <v>9744605.089072337</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>42046</v>
+        <v>41869</v>
       </c>
       <c r="B145">
-        <v>10459247.52142916</v>
+        <v>9706115.327268898</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>42047</v>
+        <v>41870</v>
       </c>
       <c r="B146">
-        <v>10446719.23789847</v>
+        <v>9773623.147323683</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>42048</v>
+        <v>41871</v>
       </c>
       <c r="B147">
-        <v>10438314.10943795</v>
+        <v>9770333.173335513</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>42051</v>
+        <v>41872</v>
       </c>
       <c r="B148">
-        <v>10547366.42983844</v>
+        <v>9831968.733403333</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>42052</v>
+        <v>41873</v>
       </c>
       <c r="B149">
-        <v>10588819.63973577</v>
+        <v>9867803.520501984</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>42060</v>
+        <v>41876</v>
       </c>
       <c r="B150">
-        <v>10542765.08806174</v>
+        <v>9884247.779561857</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>42061</v>
+        <v>41877</v>
       </c>
       <c r="B151">
-        <v>10407979.61398972</v>
+        <v>9884231.335302796</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>42062</v>
+        <v>41878</v>
       </c>
       <c r="B152">
-        <v>10285146.5723401</v>
+        <v>9857625.250919541</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>42065</v>
+        <v>41879</v>
       </c>
       <c r="B153">
-        <v>10065615.42151703</v>
+        <v>9930476.405554514</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>42066</v>
+        <v>41880</v>
       </c>
       <c r="B154">
-        <v>10048668.95181246</v>
+        <v>10026852.48067876</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>42067</v>
+        <v>41883</v>
       </c>
       <c r="B155">
-        <v>10056823.68419246</v>
+        <v>9989537.136548709</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>42068</v>
+        <v>41884</v>
       </c>
       <c r="B156">
-        <v>10048667.29622484</v>
+        <v>10084875.54699415</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>42069</v>
+        <v>41885</v>
       </c>
       <c r="B157">
-        <v>10134231.86068859</v>
+        <v>10129285.90684521</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>42072</v>
+        <v>41886</v>
       </c>
       <c r="B158">
-        <v>10350616.07034145</v>
+        <v>10295881.72863472</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>42073</v>
+        <v>41887</v>
       </c>
       <c r="B159">
-        <v>10329971.72371386</v>
+        <v>10348899.20771924</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>42074</v>
+        <v>41891</v>
       </c>
       <c r="B160">
-        <v>10463253.94394583</v>
+        <v>10417682.44815776</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>42075</v>
+        <v>41892</v>
       </c>
       <c r="B161">
-        <v>10366281.92206445</v>
+        <v>10637582.82113908</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>42076</v>
+        <v>41893</v>
       </c>
       <c r="B162">
-        <v>10234945.97112423</v>
+        <v>10584572.44381815</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>42079</v>
+        <v>41894</v>
       </c>
       <c r="B163">
-        <v>10292807.8773208</v>
+        <v>10653581.84023253</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>42080</v>
+        <v>41897</v>
       </c>
       <c r="B164">
-        <v>10153006.6382738</v>
+        <v>10438364.64133956</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>42081</v>
+        <v>41898</v>
       </c>
       <c r="B165">
-        <v>10116143.56586254</v>
+        <v>10385055.79267569</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>42082</v>
+        <v>41899</v>
       </c>
       <c r="B166">
-        <v>9990709.321939705</v>
+        <v>10462598.99980016</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>42083</v>
+        <v>41900</v>
       </c>
       <c r="B167">
-        <v>9998733.908065986</v>
+        <v>10495809.17029709</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>42086</v>
+        <v>41901</v>
       </c>
       <c r="B168">
-        <v>9982765.709742315</v>
+        <v>10637829.31489789</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>42087</v>
+        <v>41904</v>
       </c>
       <c r="B169">
-        <v>9692713.69967212</v>
+        <v>10881001.31283668</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>42088</v>
+        <v>41905</v>
       </c>
       <c r="B170">
-        <v>9645492.903951924</v>
+        <v>11212118.22762835</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>42089</v>
+        <v>41906</v>
       </c>
       <c r="B171">
-        <v>9488806.885753086</v>
+        <v>11203457.51841426</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>42090</v>
+        <v>41907</v>
       </c>
       <c r="B172">
-        <v>9496685.362636605</v>
+        <v>11199152.02182246</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>42093</v>
+        <v>41908</v>
       </c>
       <c r="B173">
-        <v>9390315.3734328</v>
+        <v>11494703.79480663</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>42094</v>
+        <v>41911</v>
       </c>
       <c r="B174">
-        <v>9394054.545519536</v>
+        <v>11314099.255548</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>42095</v>
+        <v>41912</v>
       </c>
       <c r="B175">
-        <v>9576278.409301301</v>
+        <v>11523065.47864312</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>42096</v>
+        <v>41920</v>
       </c>
       <c r="B176">
-        <v>9754261.426138392</v>
+        <v>11447148.33933936</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2">
-        <v>42097</v>
+        <v>41921</v>
       </c>
       <c r="B177">
-        <v>9890923.10643279</v>
+        <v>11636455.09128749</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2">
-        <v>42101</v>
+        <v>41922</v>
       </c>
       <c r="B178">
-        <v>9944853.278794324</v>
+        <v>11499747.2660825</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2">
-        <v>42102</v>
+        <v>41925</v>
       </c>
       <c r="B179">
-        <v>10046578.22185301</v>
+        <v>11211042.02902534</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2">
-        <v>42103</v>
+        <v>41926</v>
       </c>
       <c r="B180">
-        <v>9973235.626546936</v>
+        <v>10963389.61321754</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2">
-        <v>42104</v>
+        <v>41927</v>
       </c>
       <c r="B181">
-        <v>10111565.10823294</v>
+        <v>10985904.34877022</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2">
-        <v>42107</v>
+        <v>41928</v>
       </c>
       <c r="B182">
-        <v>10233195.15674445</v>
+        <v>10985904.34877022</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2">
-        <v>42108</v>
+        <v>41929</v>
       </c>
       <c r="B183">
-        <v>9901050.570222292</v>
+        <v>10974918.44442145</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2">
-        <v>42109</v>
+        <v>41932</v>
       </c>
       <c r="B184">
-        <v>9891149.51965207</v>
+        <v>10899944.75722789</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2">
-        <v>42110</v>
+        <v>41933</v>
       </c>
       <c r="B185">
-        <v>10022928.06517884</v>
+        <v>10933427.30635066</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2">
-        <v>42111</v>
+        <v>41934</v>
       </c>
       <c r="B186">
-        <v>9932418.925549807</v>
+        <v>10983439.22351881</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2">
-        <v>42114</v>
+        <v>41935</v>
       </c>
       <c r="B187">
-        <v>9964425.345086938</v>
+        <v>11227138.59122748</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2">
-        <v>42115</v>
+        <v>41936</v>
       </c>
       <c r="B188">
-        <v>9843618.574512387</v>
+        <v>11261440.20929391</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2">
-        <v>42116</v>
+        <v>41939</v>
       </c>
       <c r="B189">
-        <v>9845669.251399536</v>
+        <v>11154991.77131958</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2">
-        <v>42117</v>
+        <v>41940</v>
       </c>
       <c r="B190">
-        <v>9627356.275511086</v>
+        <v>11212196.67545482</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2">
-        <v>42118</v>
+        <v>41941</v>
       </c>
       <c r="B191">
-        <v>9614462.929197144</v>
+        <v>11194617.71070385</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2">
-        <v>42121</v>
+        <v>41942</v>
       </c>
       <c r="B192">
-        <v>9858512.837477563</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2">
-        <v>42122</v>
+        <v>41943</v>
       </c>
       <c r="B193">
-        <v>9991487.978175962</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2">
-        <v>42123</v>
+        <v>41946</v>
       </c>
       <c r="B194">
-        <v>9913779.887105724</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2">
-        <v>42124</v>
+        <v>41947</v>
       </c>
       <c r="B195">
-        <v>9696978.142257953</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2">
-        <v>42128</v>
+        <v>41948</v>
       </c>
       <c r="B196">
-        <v>9852960.422825381</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2">
-        <v>42129</v>
+        <v>41949</v>
       </c>
       <c r="B197">
-        <v>9979076.756659077</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2">
-        <v>42130</v>
+        <v>41950</v>
       </c>
       <c r="B198">
-        <v>10044321.39705637</v>
+        <v>10993999.48222522</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2">
-        <v>42131</v>
+        <v>41953</v>
       </c>
       <c r="B199">
-        <v>10056588.32298251</v>
+        <v>10983005.48274299</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2">
-        <v>42132</v>
+        <v>41954</v>
       </c>
       <c r="B200">
-        <v>9961528.618377514</v>
+        <v>11000184.12719129</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2">
-        <v>42135</v>
+        <v>41955</v>
       </c>
       <c r="B201">
-        <v>9990614.3555816</v>
+        <v>10978686.65064968</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2">
-        <v>42136</v>
+        <v>41956</v>
       </c>
       <c r="B202">
-        <v>10002961.96715672</v>
+        <v>11025927.30144051</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B203">
-        <v>9879862.773661133</v>
+        <v>11172173.53336029</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2">
-        <v>42138</v>
+        <v>41960</v>
       </c>
       <c r="B204">
-        <v>9925728.241254345</v>
+        <v>11110711.73329128</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2">
-        <v>42139</v>
+        <v>41961</v>
       </c>
       <c r="B205">
-        <v>10025044.62076867</v>
+        <v>11203450.5484067</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2">
-        <v>42142</v>
+        <v>41962</v>
       </c>
       <c r="B206">
-        <v>9974525.969109446</v>
+        <v>11499878.25306688</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2">
-        <v>42143</v>
+        <v>41963</v>
       </c>
       <c r="B207">
-        <v>10101241.99790354</v>
+        <v>11472071.18390188</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2">
-        <v>42144</v>
+        <v>41964</v>
       </c>
       <c r="B208">
-        <v>10122388.87705315</v>
+        <v>11584776.18057137</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2">
-        <v>42145</v>
+        <v>41967</v>
       </c>
       <c r="B209">
-        <v>10221681.47784602</v>
+        <v>11357398.13848007</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2">
-        <v>42146</v>
+        <v>41968</v>
       </c>
       <c r="B210">
-        <v>10081659.61274376</v>
+        <v>11526118.14909706</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2">
-        <v>42149</v>
+        <v>41969</v>
       </c>
       <c r="B211">
-        <v>10072796.7426546</v>
+        <v>11493332.47445601</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2">
-        <v>42150</v>
+        <v>41970</v>
       </c>
       <c r="B212">
-        <v>10072787.87978451</v>
+        <v>11422429.63596409</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2">
-        <v>42151</v>
+        <v>41971</v>
       </c>
       <c r="B213">
-        <v>10044053.82209507</v>
+        <v>11117998.25941361</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2">
-        <v>42152</v>
+        <v>41974</v>
       </c>
       <c r="B214">
-        <v>10065435.12130807</v>
+        <v>11074840.31678524</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2">
-        <v>42153</v>
+        <v>41975</v>
       </c>
       <c r="B215">
-        <v>10065413.74000886</v>
+        <v>11063765.47646845</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2">
-        <v>42156</v>
+        <v>41976</v>
       </c>
       <c r="B216">
-        <v>10069683.51375878</v>
+        <v>11276541.27579242</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2">
-        <v>42157</v>
+        <v>41977</v>
       </c>
       <c r="B217">
-        <v>10150779.3021082</v>
+        <v>11110367.85261728</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2">
-        <v>42158</v>
+        <v>41978</v>
       </c>
       <c r="B218">
-        <v>10163430.52911367</v>
+        <v>11110367.85261728</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2">
-        <v>42159</v>
+        <v>41981</v>
       </c>
       <c r="B219">
-        <v>10010921.41396882</v>
+        <v>11110367.85261728</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2">
-        <v>42160</v>
+        <v>41982</v>
       </c>
       <c r="B220">
-        <v>9951734.56110405</v>
+        <v>11099257.48476466</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2">
-        <v>42163</v>
+        <v>41983</v>
       </c>
       <c r="B221">
-        <v>9855364.269062288</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2">
-        <v>42164</v>
+        <v>41984</v>
       </c>
       <c r="B222">
-        <v>9889354.077844467</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2">
-        <v>42165</v>
+        <v>41985</v>
       </c>
       <c r="B223">
-        <v>9855515.767186303</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2">
-        <v>42166</v>
+        <v>41988</v>
       </c>
       <c r="B224">
-        <v>9830077.54001374</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2">
-        <v>42167</v>
+        <v>41989</v>
       </c>
       <c r="B225">
-        <v>9793556.840086969</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2">
-        <v>42170</v>
+        <v>41990</v>
       </c>
       <c r="B226">
-        <v>9564813.796288507</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2">
-        <v>42171</v>
+        <v>41991</v>
       </c>
       <c r="B227">
-        <v>9671235.949685264</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2">
-        <v>42172</v>
+        <v>41992</v>
       </c>
       <c r="B228">
-        <v>9809855.094167199</v>
+        <v>10987242.18796953</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2">
-        <v>42173</v>
+        <v>41995</v>
       </c>
       <c r="B229">
-        <v>9870101.253110331</v>
+        <v>10976254.94578156</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2">
-        <v>42174</v>
+        <v>41996</v>
       </c>
       <c r="B230">
-        <v>9786345.850784371</v>
+        <v>10695148.9263293</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2">
-        <v>42178</v>
+        <v>41997</v>
       </c>
       <c r="B231">
-        <v>9808266.487108828</v>
+        <v>10695148.9263293</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2">
-        <v>42179</v>
+        <v>41998</v>
       </c>
       <c r="B232">
-        <v>9812609.101030687</v>
+        <v>10695148.9263293</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2">
-        <v>42180</v>
+        <v>41999</v>
       </c>
       <c r="B233">
-        <v>9799458.366401436</v>
+        <v>10684453.77740297</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2">
-        <v>42181</v>
+        <v>42002</v>
       </c>
       <c r="B234">
-        <v>9908780.131053884</v>
+        <v>10703940.22650171</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2">
-        <v>42184</v>
+        <v>42003</v>
       </c>
       <c r="B235">
-        <v>9917502.254316332</v>
+        <v>10693236.28627521</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2">
-        <v>42185</v>
+        <v>42004</v>
       </c>
       <c r="B236">
-        <v>10073909.10902112</v>
+        <v>11113483.77576858</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2">
-        <v>42186</v>
+        <v>42009</v>
       </c>
       <c r="B237">
-        <v>10278267.0651966</v>
+        <v>10835039.38641646</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2">
-        <v>42187</v>
+        <v>42010</v>
       </c>
       <c r="B238">
-        <v>10348768.80684658</v>
+        <v>10839114.8094728</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2">
-        <v>42188</v>
+        <v>42011</v>
       </c>
       <c r="B239">
-        <v>10368071.87121484</v>
+        <v>11110678.69614241</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2">
-        <v>42191</v>
+        <v>42012</v>
       </c>
       <c r="B240">
-        <v>10368052.56815047</v>
+        <v>10975614.62295787</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2">
-        <v>42192</v>
+        <v>42013</v>
       </c>
       <c r="B241">
-        <v>10921181.38170224</v>
+        <v>10975614.62295787</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2">
-        <v>42193</v>
+        <v>42016</v>
       </c>
       <c r="B242">
-        <v>11117129.50631244</v>
+        <v>10964639.00833491</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2">
-        <v>42194</v>
+        <v>42017</v>
       </c>
       <c r="B243">
-        <v>11450071.2772963</v>
+        <v>11217647.12905187</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2">
-        <v>42195</v>
+        <v>42018</v>
       </c>
       <c r="B244">
-        <v>10778620.29634269</v>
+        <v>11213009.14648169</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2">
-        <v>42198</v>
+        <v>42019</v>
       </c>
       <c r="B245">
-        <v>10880081.21474068</v>
+        <v>11284763.63166442</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2">
-        <v>42199</v>
+        <v>42020</v>
       </c>
       <c r="B246">
-        <v>10793923.08110991</v>
+        <v>11122099.9852522</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2">
-        <v>42200</v>
+        <v>42023</v>
       </c>
       <c r="B247">
-        <v>10858599.82525371</v>
+        <v>11211624.09188613</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2">
-        <v>42201</v>
+        <v>42024</v>
       </c>
       <c r="B248">
-        <v>10923126.4967974</v>
+        <v>11153734.35988495</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2">
-        <v>42202</v>
+        <v>42025</v>
       </c>
       <c r="B249">
-        <v>11021311.29676309</v>
+        <v>11274178.85086361</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2">
-        <v>42205</v>
+        <v>42026</v>
       </c>
       <c r="B250">
-        <v>11027748.9506806</v>
+        <v>11370855.02240209</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2">
-        <v>42206</v>
+        <v>42027</v>
       </c>
       <c r="B251">
-        <v>11334343.821774</v>
+        <v>11359484.16737968</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2">
-        <v>42207</v>
+        <v>42030</v>
       </c>
       <c r="B252">
-        <v>11176640.22104279</v>
+        <v>11329740.06824085</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2">
-        <v>42208</v>
+        <v>42031</v>
       </c>
       <c r="B253">
-        <v>10919370.60341597</v>
+        <v>11318410.32817261</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2">
-        <v>42209</v>
+        <v>42032</v>
       </c>
       <c r="B254">
-        <v>10792612.58935197</v>
+        <v>11276805.82809455</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2">
-        <v>42212</v>
+        <v>42033</v>
       </c>
       <c r="B255">
-        <v>10781843.43604125</v>
+        <v>11235364.48520065</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2">
-        <v>42213</v>
+        <v>42034</v>
       </c>
       <c r="B256">
-        <v>10908182.12235268</v>
+        <v>11043535.2337659</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2">
-        <v>42214</v>
+        <v>42037</v>
       </c>
       <c r="B257">
-        <v>10907285.65241726</v>
+        <v>11092552.86877131</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2">
-        <v>42215</v>
+        <v>42038</v>
       </c>
       <c r="B258">
-        <v>10717160.51125313</v>
+        <v>11123357.80288314</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2">
-        <v>42216</v>
+        <v>42039</v>
       </c>
       <c r="B259">
-        <v>10582574.82825209</v>
+        <v>11194362.00428332</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2">
-        <v>42219</v>
+        <v>42040</v>
       </c>
       <c r="B260">
-        <v>10649291.23333761</v>
+        <v>11194291.00008192</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2">
-        <v>42220</v>
+        <v>42041</v>
       </c>
       <c r="B261">
-        <v>10588547.71909572</v>
+        <v>11212328.43643444</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2">
-        <v>42221</v>
+        <v>42044</v>
       </c>
       <c r="B262">
-        <v>10654882.72425839</v>
+        <v>11126359.30876343</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2">
-        <v>42222</v>
+        <v>42045</v>
       </c>
       <c r="B263">
-        <v>10669986.91076203</v>
+        <v>11207244.77366824</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2">
-        <v>42223</v>
+        <v>42046</v>
       </c>
       <c r="B264">
-        <v>10506671.38571009</v>
+        <v>11128673.00647164</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2">
-        <v>42226</v>
+        <v>42047</v>
       </c>
       <c r="B265">
-        <v>10578709.51509313</v>
+        <v>11128673.00647164</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2">
-        <v>42227</v>
+        <v>42048</v>
       </c>
       <c r="B266">
-        <v>10644972.01295478</v>
+        <v>11128673.00647164</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2">
-        <v>42228</v>
+        <v>42051</v>
       </c>
       <c r="B267">
-        <v>10619054.15969664</v>
+        <v>11128673.00647164</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2">
-        <v>42229</v>
+        <v>42052</v>
       </c>
       <c r="B268">
-        <v>10457815.87627343</v>
+        <v>11117544.33346517</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2">
-        <v>42230</v>
+        <v>42060</v>
       </c>
       <c r="B269">
-        <v>10411660.86046952</v>
+        <v>11069006.40202652</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2">
-        <v>42233</v>
+        <v>42061</v>
       </c>
       <c r="B270">
-        <v>10390791.38373277</v>
+        <v>10949487.14765703</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2">
-        <v>42234</v>
+        <v>42062</v>
       </c>
       <c r="B271">
-        <v>10200701.00764505</v>
+        <v>11056121.65065289</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2">
-        <v>42235</v>
+        <v>42065</v>
       </c>
       <c r="B272">
-        <v>10210477.93444047</v>
+        <v>10835988.97176463</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2">
-        <v>42236</v>
+        <v>42066</v>
       </c>
       <c r="B273">
-        <v>10155252.94720461</v>
+        <v>10835988.97176463</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2">
-        <v>42237</v>
+        <v>42067</v>
       </c>
       <c r="B274">
-        <v>10195239.59732363</v>
+        <v>10825152.98279286</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2">
-        <v>42240</v>
+        <v>42068</v>
       </c>
       <c r="B275">
-        <v>10260040.45101884</v>
+        <v>10816337.90665219</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2">
-        <v>42241</v>
+        <v>42069</v>
       </c>
       <c r="B276">
-        <v>10688342.18688779</v>
+        <v>10908439.53703088</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2">
-        <v>42242</v>
+        <v>42072</v>
       </c>
       <c r="B277">
-        <v>10555556.18266906</v>
+        <v>11141354.47558691</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2">
-        <v>42243</v>
+        <v>42073</v>
       </c>
       <c r="B278">
-        <v>10697259.08510682</v>
+        <v>11119132.99792706</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2">
-        <v>42244</v>
+        <v>42074</v>
       </c>
       <c r="B279">
-        <v>10506282.48953841</v>
+        <v>11262597.3531699</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2">
-        <v>42247</v>
+        <v>42075</v>
       </c>
       <c r="B280">
-        <v>10495220.4947631</v>
+        <v>11158217.12472246</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2">
-        <v>42248</v>
+        <v>42076</v>
       </c>
       <c r="B281">
-        <v>10585712.38619165</v>
+        <v>11016847.72459514</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2">
-        <v>42249</v>
+        <v>42079</v>
       </c>
       <c r="B282">
-        <v>10537762.61644065</v>
+        <v>11079130.00839233</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2">
-        <v>42254</v>
+        <v>42080</v>
       </c>
       <c r="B283">
-        <v>10505341.83292209</v>
+        <v>10950806.87196249</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2">
-        <v>42255</v>
+        <v>42081</v>
       </c>
       <c r="B284">
-        <v>10301122.86090807</v>
+        <v>10990286.44191404</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2">
-        <v>42256</v>
+        <v>42082</v>
       </c>
       <c r="B285">
-        <v>10125654.51874133</v>
+        <v>11125306.91405337</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2">
-        <v>42257</v>
+        <v>42083</v>
       </c>
       <c r="B286">
-        <v>10136044.03781078</v>
+        <v>11116317.62438341</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2">
-        <v>42258</v>
+        <v>42086</v>
       </c>
       <c r="B287">
-        <v>10079397.48482369</v>
+        <v>11111821.75162558</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2">
-        <v>42261</v>
+        <v>42087</v>
       </c>
       <c r="B288">
-        <v>9991917.453035973</v>
+        <v>10811560.28294287</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2">
-        <v>42262</v>
+        <v>42088</v>
       </c>
       <c r="B289">
-        <v>10090419.05395018</v>
+        <v>10863603.23878539</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2">
-        <v>42263</v>
+        <v>42089</v>
       </c>
       <c r="B290">
-        <v>10168101.78659149</v>
+        <v>11016753.30112253</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2">
-        <v>42264</v>
+        <v>42090</v>
       </c>
       <c r="B291">
-        <v>10046550.30059783</v>
+        <v>11046963.53064294</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2">
-        <v>42265</v>
+        <v>42093</v>
       </c>
       <c r="B292">
-        <v>10072756.39888854</v>
+        <v>11148389.00993177</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2">
-        <v>42268</v>
+        <v>42094</v>
       </c>
       <c r="B293">
-        <v>10114375.43742294</v>
+        <v>11152751.95103951</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2">
-        <v>42269</v>
+        <v>42095</v>
       </c>
       <c r="B294">
-        <v>10177225.59244734</v>
+        <v>11369092.20755864</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2">
-        <v>42270</v>
+        <v>42096</v>
       </c>
       <c r="B295">
-        <v>10288373.16328625</v>
+        <v>11580396.11409288</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2">
-        <v>42271</v>
+        <v>42097</v>
       </c>
       <c r="B296">
-        <v>10191279.03672527</v>
+        <v>11742642.78011395</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2">
-        <v>42272</v>
+        <v>42101</v>
       </c>
       <c r="B297">
-        <v>10261461.52959849</v>
+        <v>11806669.43791603</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2">
-        <v>42275</v>
+        <v>42102</v>
       </c>
       <c r="B298">
-        <v>10299059.21463575</v>
+        <v>11927438.71852936</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2">
-        <v>42276</v>
+        <v>42103</v>
       </c>
       <c r="B299">
-        <v>10478485.59873868</v>
+        <v>11840365.35965496</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2">
-        <v>42277</v>
+        <v>42104</v>
       </c>
       <c r="B300">
-        <v>10561638.45906033</v>
+        <v>12004592.06245283</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2">
-        <v>42285</v>
+        <v>42107</v>
       </c>
       <c r="B301">
-        <v>10561555.30620001</v>
+        <v>12148992.96372657</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2">
-        <v>42286</v>
+        <v>42108</v>
       </c>
       <c r="B302">
-        <v>10624735.49331616</v>
+        <v>11766815.24027484</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2">
-        <v>42289</v>
+        <v>42109</v>
       </c>
       <c r="B303">
-        <v>10445315.85936388</v>
+        <v>11808098.64333183</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2">
-        <v>42290</v>
+        <v>42110</v>
       </c>
       <c r="B304">
-        <v>10496680.99568936</v>
+        <v>11964656.63017956</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2">
-        <v>42291</v>
+        <v>42111</v>
       </c>
       <c r="B305">
-        <v>10564388.53158834</v>
+        <v>11856607.17332612</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2">
-        <v>42292</v>
+        <v>42114</v>
       </c>
       <c r="B306">
-        <v>10592877.96952364</v>
+        <v>11918527.3745322</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2">
-        <v>42293</v>
+        <v>42115</v>
       </c>
       <c r="B307">
-        <v>10554394.18034216</v>
+        <v>12062349.62282771</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2">
-        <v>42296</v>
+        <v>42116</v>
       </c>
       <c r="B308">
-        <v>10525505.41142314</v>
+        <v>12036060.41303472</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2">
-        <v>42297</v>
+        <v>42117</v>
       </c>
       <c r="B309">
-        <v>10371834.84829039</v>
+        <v>11792641.07170187</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2">
-        <v>42298</v>
+        <v>42118</v>
       </c>
       <c r="B310">
-        <v>10406684.59944421</v>
+        <v>11807923.55348977</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2">
-        <v>42299</v>
+        <v>42121</v>
       </c>
       <c r="B311">
-        <v>10383624.27585814</v>
+        <v>11508385.46035141</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2">
-        <v>42300</v>
+        <v>42122</v>
       </c>
       <c r="B312">
-        <v>10377826.77654333</v>
+        <v>11344473.86923715</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2">
-        <v>42303</v>
+        <v>42123</v>
       </c>
       <c r="B313">
-        <v>10389326.46581397</v>
+        <v>11434867.66659932</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2">
-        <v>42304</v>
+        <v>42124</v>
       </c>
       <c r="B314">
-        <v>10406565.29946879</v>
+        <v>11680533.20437892</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2">
-        <v>42305</v>
+        <v>42128</v>
       </c>
       <c r="B315">
-        <v>10395015.91195938</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2">
-        <v>42306</v>
+        <v>42129</v>
       </c>
       <c r="B316">
-        <v>10464258.26457122</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2">
-        <v>42307</v>
+        <v>42130</v>
       </c>
       <c r="B317">
-        <v>10429380.2324001</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2">
-        <v>42310</v>
+        <v>42131</v>
       </c>
       <c r="B318">
-        <v>10510903.48011741</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2">
-        <v>42311</v>
+        <v>42132</v>
       </c>
       <c r="B319">
-        <v>10493281.64120249</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2">
-        <v>42312</v>
+        <v>42135</v>
       </c>
       <c r="B320">
-        <v>10546232.5037655</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2">
-        <v>42313</v>
+        <v>42136</v>
       </c>
       <c r="B321">
-        <v>10522582.95209856</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2">
-        <v>42314</v>
+        <v>42137</v>
       </c>
       <c r="B322">
-        <v>10546269.0111356</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2">
-        <v>42317</v>
+        <v>42138</v>
       </c>
       <c r="B323">
-        <v>10463308.1812296</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2">
-        <v>42318</v>
+        <v>42139</v>
       </c>
       <c r="B324">
-        <v>10353883.06876726</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2">
-        <v>42319</v>
+        <v>42142</v>
       </c>
       <c r="B325">
-        <v>10290107.36664219</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2">
-        <v>42320</v>
+        <v>42143</v>
       </c>
       <c r="B326">
-        <v>10183027.20215062</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2">
-        <v>42321</v>
+        <v>42144</v>
       </c>
       <c r="B327">
-        <v>10275507.96228116</v>
+        <v>11488572.67810937</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2">
-        <v>42324</v>
+        <v>42145</v>
       </c>
       <c r="B328">
-        <v>10304250.07809778</v>
+        <v>11477084.10543126</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2">
-        <v>42325</v>
+        <v>42146</v>
       </c>
       <c r="B329">
-        <v>10339236.3387048</v>
+        <v>11306562.70724477</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2">
-        <v>42326</v>
+        <v>42149</v>
       </c>
       <c r="B330">
-        <v>10345073.54145997</v>
+        <v>11295256.14453752</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2">
-        <v>42327</v>
+        <v>42150</v>
       </c>
       <c r="B331">
-        <v>10439395.52946886</v>
+        <v>11295244.83797482</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2">
-        <v>42328</v>
+        <v>42151</v>
       </c>
       <c r="B332">
-        <v>10629803.11836007</v>
+        <v>11285614.03537357</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2">
-        <v>42331</v>
+        <v>42152</v>
       </c>
       <c r="B333">
-        <v>10684695.22532752</v>
+        <v>11250262.32097061</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2">
-        <v>42332</v>
+        <v>42153</v>
       </c>
       <c r="B334">
-        <v>10903915.29653793</v>
+        <v>11239012.05864964</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2">
-        <v>42333</v>
+        <v>42156</v>
       </c>
       <c r="B335">
-        <v>10865115.31861646</v>
+        <v>11234218.85077672</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2">
-        <v>42334</v>
+        <v>42157</v>
       </c>
       <c r="B336">
-        <v>10819215.93589665</v>
+        <v>11143486.22655995</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2">
-        <v>42335</v>
+        <v>42158</v>
       </c>
       <c r="B337">
-        <v>10773663.83550188</v>
+        <v>11129190.70780228</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2">
-        <v>42338</v>
+        <v>42159</v>
       </c>
       <c r="B338">
-        <v>10953849.33308148</v>
+        <v>11274328.05867876</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2">
-        <v>42339</v>
+        <v>42160</v>
       </c>
       <c r="B339">
-        <v>11110030.7533576</v>
+        <v>11231548.68735869</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2">
-        <v>42340</v>
+        <v>42163</v>
       </c>
       <c r="B340">
-        <v>11096431.20940615</v>
+        <v>11317641.96294127</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2">
-        <v>42341</v>
+        <v>42164</v>
       </c>
       <c r="B341">
-        <v>10912202.39520922</v>
+        <v>11355948.74090323</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2">
-        <v>42342</v>
+        <v>42165</v>
       </c>
       <c r="B342">
-        <v>11059492.87890609</v>
+        <v>11317089.33410669</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2">
-        <v>42345</v>
+        <v>42166</v>
       </c>
       <c r="B343">
-        <v>10945998.84178943</v>
+        <v>11287878.60609868</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2">
-        <v>42346</v>
+        <v>42167</v>
       </c>
       <c r="B344">
-        <v>10816772.50638065</v>
+        <v>11268517.64145098</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2">
-        <v>42347</v>
+        <v>42170</v>
       </c>
       <c r="B345">
-        <v>10705194.90123378</v>
+        <v>11508668.83231066</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2">
-        <v>42348</v>
+        <v>42171</v>
       </c>
       <c r="B346">
-        <v>10737808.80628334</v>
+        <v>11630896.57851182</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2">
-        <v>42349</v>
+        <v>42172</v>
       </c>
       <c r="B347">
-        <v>10651785.55001188</v>
+        <v>11797693.08425944</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2">
-        <v>42352</v>
+        <v>42173</v>
       </c>
       <c r="B348">
-        <v>10545504.63611906</v>
+        <v>11870146.69661429</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2">
-        <v>42353</v>
+        <v>42174</v>
       </c>
       <c r="B349">
-        <v>10558226.7281207</v>
+        <v>11769419.36399218</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2">
-        <v>42354</v>
+        <v>42178</v>
       </c>
       <c r="B350">
-        <v>10505410.29150983</v>
+        <v>11795781.92726505</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2">
-        <v>42355</v>
+        <v>42179</v>
       </c>
       <c r="B351">
-        <v>10375850.67509021</v>
+        <v>11801004.51444534</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2">
-        <v>42356</v>
+        <v>42180</v>
       </c>
       <c r="B352">
-        <v>10394540.43364383</v>
+        <v>11785188.95742781</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2">
-        <v>42359</v>
+        <v>42181</v>
       </c>
       <c r="B353">
-        <v>10660499.10693716</v>
+        <v>11916663.33135912</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2">
-        <v>42360</v>
+        <v>42184</v>
       </c>
       <c r="B354">
-        <v>10841820.14810166</v>
+        <v>11927152.87750693</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2">
-        <v>42361</v>
+        <v>42185</v>
       </c>
       <c r="B355">
-        <v>10713511.70237699</v>
+        <v>12115253.5120535</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2">
-        <v>42362</v>
+        <v>42186</v>
       </c>
       <c r="B356">
-        <v>10644436.19235067</v>
+        <v>12361021.9043903</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2">
-        <v>42363</v>
+        <v>42187</v>
       </c>
       <c r="B357">
-        <v>10675534.25965193</v>
+        <v>12445809.89124695</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2">
-        <v>42366</v>
+        <v>42188</v>
       </c>
       <c r="B358">
-        <v>10768194.21100314</v>
+        <v>12469024.46622972</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2">
-        <v>42367</v>
+        <v>42191</v>
       </c>
       <c r="B359">
-        <v>10786557.86624755</v>
+        <v>12469001.25165474</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2">
-        <v>42368</v>
+        <v>42192</v>
       </c>
       <c r="B360">
-        <v>11027690.95277506</v>
+        <v>13134214.30137345</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2">
-        <v>42369</v>
+        <v>42193</v>
       </c>
       <c r="B361">
-        <v>11045657.82308912</v>
+        <v>13369868.72104041</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2">
-        <v>42373</v>
+        <v>42194</v>
       </c>
       <c r="B362">
-        <v>11286781.20814</v>
+        <v>13770276.73709144</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2">
-        <v>42374</v>
+        <v>42195</v>
       </c>
       <c r="B363">
-        <v>11031525.5107279</v>
+        <v>12962765.09815027</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2">
-        <v>42375</v>
+        <v>42198</v>
       </c>
       <c r="B364">
-        <v>11081975.1191737</v>
+        <v>13084785.72933273</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2">
-        <v>42376</v>
+        <v>42199</v>
       </c>
       <c r="B365">
-        <v>10955022.00171143</v>
+        <v>12981168.78979458</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2">
-        <v>42377</v>
+        <v>42200</v>
       </c>
       <c r="B366">
-        <v>10961162.31341323</v>
+        <v>13058951.4204652</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2">
-        <v>42380</v>
+        <v>42201</v>
       </c>
       <c r="B367">
-        <v>11035395.18281212</v>
+        <v>13162308.82842969</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2">
-        <v>42381</v>
+        <v>42202</v>
       </c>
       <c r="B368">
-        <v>11022856.29112739</v>
+        <v>13044172.89495314</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2">
-        <v>42382</v>
+        <v>42205</v>
       </c>
       <c r="B369">
-        <v>11135682.0621612</v>
+        <v>13036179.10842846</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2">
-        <v>42383</v>
+        <v>42206</v>
       </c>
       <c r="B370">
-        <v>11129244.23061201</v>
+        <v>12672584.71217705</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2">
-        <v>42384</v>
+        <v>42207</v>
       </c>
       <c r="B371">
-        <v>11026856.00188189</v>
+        <v>12858284.07303119</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2">
-        <v>42387</v>
+        <v>42208</v>
       </c>
       <c r="B372">
-        <v>10884297.68501912</v>
+        <v>13120574.85380789</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2">
-        <v>42388</v>
+        <v>42209</v>
       </c>
       <c r="B373">
-        <v>11181712.69665512</v>
+        <v>13000143.63175044</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2">
-        <v>42389</v>
+        <v>42212</v>
       </c>
       <c r="B374">
-        <v>11259024.8004268</v>
+        <v>13012836.56655757</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2">
-        <v>42390</v>
+        <v>42213</v>
       </c>
       <c r="B375">
-        <v>11118884.06137982</v>
+        <v>12860351.477722</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2">
-        <v>42391</v>
+        <v>42214</v>
       </c>
       <c r="B376">
-        <v>11087758.34388767</v>
+        <v>12835052.56470017</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2">
-        <v>42394</v>
+        <v>42215</v>
       </c>
       <c r="B377">
-        <v>11198191.18074987</v>
+        <v>12636596.25935463</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2">
-        <v>42395</v>
+        <v>42216</v>
       </c>
       <c r="B378">
-        <v>11270939.68801532</v>
+        <v>12794863.20921671</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2">
-        <v>42396</v>
+        <v>42219</v>
       </c>
       <c r="B379">
-        <v>11331787.5345994</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2">
-        <v>42397</v>
+        <v>42220</v>
       </c>
       <c r="B380">
-        <v>11398797.7657663</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2">
-        <v>42398</v>
+        <v>42221</v>
       </c>
       <c r="B381">
-        <v>11106162.38889389</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2">
-        <v>42401</v>
+        <v>42222</v>
       </c>
       <c r="B382">
-        <v>11102500.34211534</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2">
-        <v>42402</v>
+        <v>42223</v>
       </c>
       <c r="B383">
-        <v>11078009.30079332</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2">
-        <v>42403</v>
+        <v>42226</v>
       </c>
       <c r="B384">
-        <v>11077984.809752</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2">
-        <v>42404</v>
+        <v>42227</v>
       </c>
       <c r="B385">
-        <v>11041427.35751451</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2">
-        <v>42405</v>
+        <v>42228</v>
       </c>
       <c r="B386">
-        <v>10855340.42391589</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2">
-        <v>42415</v>
+        <v>42229</v>
       </c>
       <c r="B387">
-        <v>10748005.41853623</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2">
-        <v>42416</v>
+        <v>42230</v>
       </c>
       <c r="B388">
-        <v>10966560.7254797</v>
+        <v>12703244.85205345</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2">
-        <v>42417</v>
+        <v>42233</v>
       </c>
       <c r="B389">
-        <v>10931858.98889056</v>
+        <v>12690541.60720139</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2">
-        <v>42418</v>
+        <v>42234</v>
       </c>
       <c r="B390">
-        <v>10920081.95513103</v>
+        <v>12897102.13945256</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2">
-        <v>42419</v>
+        <v>42235</v>
       </c>
       <c r="B391">
-        <v>10966941.10888568</v>
+        <v>12921501.3317263</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2">
-        <v>42422</v>
+        <v>42236</v>
       </c>
       <c r="B392">
-        <v>11112676.55902342</v>
+        <v>12908579.83039458</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2">
-        <v>42423</v>
+        <v>42237</v>
       </c>
       <c r="B393">
-        <v>11459347.5750807</v>
+        <v>12959165.05392813</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2">
-        <v>42424</v>
+        <v>42240</v>
       </c>
       <c r="B394">
-        <v>11260057.30682174</v>
+        <v>13041535.17926876</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2">
-        <v>42425</v>
+        <v>42241</v>
       </c>
       <c r="B395">
-        <v>11301551.676149</v>
+        <v>13585949.34598063</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2">
-        <v>42426</v>
+        <v>42242</v>
       </c>
       <c r="B396">
-        <v>11319039.44931461</v>
+        <v>13417165.08505913</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2">
-        <v>42429</v>
+        <v>42243</v>
       </c>
       <c r="B397">
-        <v>11260466.8199977</v>
+        <v>13597283.6124271</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2">
-        <v>42430</v>
+        <v>42244</v>
       </c>
       <c r="B398">
-        <v>11572223.63613663</v>
+        <v>13354533.30483735</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2">
-        <v>42431</v>
+        <v>42247</v>
       </c>
       <c r="B399">
-        <v>11697470.35559742</v>
+        <v>13340472.40577129</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2">
-        <v>42432</v>
+        <v>42248</v>
       </c>
       <c r="B400">
-        <v>11656740.91900617</v>
+        <v>13455496.62857357</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2">
-        <v>42433</v>
+        <v>42249</v>
       </c>
       <c r="B401">
-        <v>11550869.57809971</v>
+        <v>13421296.86956749</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2">
-        <v>42436</v>
+        <v>42254</v>
       </c>
       <c r="B402">
-        <v>11657057.57811677</v>
+        <v>13462480.17100932</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2">
-        <v>42437</v>
+        <v>42255</v>
       </c>
       <c r="B403">
-        <v>12840088.90037424</v>
+        <v>13695738.76750081</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2">
-        <v>42438</v>
+        <v>42256</v>
       </c>
       <c r="B404">
-        <v>12599574.89531015</v>
+        <v>13471355.20943307</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2">
-        <v>42439</v>
+        <v>42257</v>
       </c>
       <c r="B405">
-        <v>12378483.65728152</v>
+        <v>13485177.38270431</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2">
-        <v>42440</v>
+        <v>42258</v>
       </c>
       <c r="B406">
-        <v>12372302.82306182</v>
+        <v>13436784.13179702</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2">
-        <v>42443</v>
+        <v>42261</v>
       </c>
       <c r="B407">
-        <v>12045883.5331928</v>
+        <v>13526322.55961328</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2">
-        <v>42444</v>
+        <v>42262</v>
       </c>
       <c r="B408">
-        <v>11897866.04524988</v>
+        <v>13657428.29350295</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2">
-        <v>42445</v>
+        <v>42263</v>
       </c>
       <c r="B409">
-        <v>11964706.52942516</v>
+        <v>13762591.6988967</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2">
-        <v>42446</v>
+        <v>42264</v>
       </c>
       <c r="B410">
-        <v>11716779.29803871</v>
+        <v>13598071.22669705</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2">
-        <v>42447</v>
+        <v>42265</v>
       </c>
       <c r="B411">
-        <v>11264082.72628407</v>
+        <v>13633541.35090809</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2">
-        <v>42450</v>
+        <v>42268</v>
       </c>
       <c r="B412">
-        <v>11460401.01705815</v>
+        <v>13689872.99047076</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2">
-        <v>42451</v>
+        <v>42269</v>
       </c>
       <c r="B413">
-        <v>11651944.18017968</v>
+        <v>13774941.08439695</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2">
-        <v>42452</v>
+        <v>42270</v>
       </c>
       <c r="B414">
-        <v>11662409.26385636</v>
+        <v>13925380.04500286</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2">
-        <v>42453</v>
+        <v>42271</v>
       </c>
       <c r="B415">
-        <v>11894685.42165796</v>
+        <v>13793962.51270299</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2">
-        <v>42454</v>
+        <v>42272</v>
       </c>
       <c r="B416">
-        <v>11464243.95585103</v>
+        <v>13888954.97363481</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2">
-        <v>42457</v>
+        <v>42275</v>
       </c>
       <c r="B417">
-        <v>11873564.91856829</v>
+        <v>13939843.68506145</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2">
-        <v>42458</v>
+        <v>42276</v>
       </c>
       <c r="B418">
-        <v>11588748.11810709</v>
+        <v>14182698.46385681</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2">
-        <v>42459</v>
+        <v>42277</v>
       </c>
       <c r="B419">
-        <v>11437545.10706516</v>
+        <v>14295246.40155604</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2">
-        <v>42460</v>
+        <v>42285</v>
       </c>
       <c r="B420">
-        <v>11125491.25176797</v>
+        <v>14295133.85361834</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2">
-        <v>42461</v>
+        <v>42286</v>
       </c>
       <c r="B421">
-        <v>10934640.65503434</v>
+        <v>14380648.64812894</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2">
-        <v>42465</v>
+        <v>42289</v>
       </c>
       <c r="B422">
-        <v>11282422.9379128</v>
+        <v>14137803.00570643</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2">
-        <v>42466</v>
+        <v>42290</v>
       </c>
       <c r="B423">
-        <v>11217601.90318732</v>
+        <v>14207326.05206601</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2">
-        <v>42467</v>
+        <v>42291</v>
       </c>
       <c r="B424">
-        <v>11145601.14360144</v>
+        <v>14298968.64262333</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2">
-        <v>42468</v>
+        <v>42292</v>
       </c>
       <c r="B425">
-        <v>11186653.48633049</v>
+        <v>14337529.28231059</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2">
-        <v>42471</v>
+        <v>42293</v>
       </c>
       <c r="B426">
-        <v>11252849.89790091</v>
+        <v>14314086.01670839</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2">
-        <v>42472</v>
+        <v>42296</v>
       </c>
       <c r="B427">
-        <v>11765738.51687879</v>
+        <v>14353158.50868786</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2">
-        <v>42473</v>
+        <v>42297</v>
       </c>
       <c r="B428">
-        <v>12004991.49954682</v>
+        <v>14532941.61551841</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2">
-        <v>42474</v>
+        <v>42298</v>
       </c>
       <c r="B429">
-        <v>12024790.53746347</v>
+        <v>14580399.05505751</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2">
-        <v>42475</v>
+        <v>42299</v>
       </c>
       <c r="B430">
-        <v>11846174.18439069</v>
+        <v>14548088.46657056</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2">
-        <v>42478</v>
+        <v>42300</v>
       </c>
       <c r="B431">
-        <v>11675124.332328</v>
+        <v>14539965.81520096</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2">
-        <v>42479</v>
+        <v>42303</v>
       </c>
       <c r="B432">
-        <v>12244160.13961571</v>
+        <v>14556077.57853424</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2">
-        <v>42480</v>
+        <v>42304</v>
       </c>
       <c r="B433">
-        <v>12750652.90818369</v>
+        <v>14580230.231824</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2">
-        <v>42481</v>
+        <v>42305</v>
       </c>
       <c r="B434">
-        <v>13294039.31452933</v>
+        <v>14564048.83824428</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2">
-        <v>42482</v>
+        <v>42306</v>
       </c>
       <c r="B435">
-        <v>13894415.00699848</v>
+        <v>14661061.5810486</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2">
-        <v>42485</v>
+        <v>42307</v>
       </c>
       <c r="B436">
-        <v>13275887.27123822</v>
+        <v>14612195.33897411</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2">
-        <v>42486</v>
+        <v>42310</v>
       </c>
       <c r="B437">
-        <v>13269946.45567926</v>
+        <v>14726414.36194272</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2">
-        <v>42487</v>
+        <v>42311</v>
       </c>
       <c r="B438">
-        <v>12979395.32145606</v>
+        <v>14701725.09501421</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2">
-        <v>42488</v>
+        <v>42312</v>
       </c>
       <c r="B439">
-        <v>12708807.23335084</v>
+        <v>14775912.47047629</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2">
-        <v>42489</v>
+        <v>42313</v>
       </c>
       <c r="B440">
-        <v>12474954.20095043</v>
+        <v>14742778.01177058</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2">
-        <v>42493</v>
+        <v>42314</v>
       </c>
       <c r="B441">
-        <v>12489698.58491026</v>
+        <v>14775963.61951979</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2">
-        <v>42494</v>
+        <v>42317</v>
       </c>
       <c r="B442">
-        <v>13008749.77234418</v>
+        <v>14659730.45656501</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2">
-        <v>42495</v>
+        <v>42318</v>
       </c>
       <c r="B443">
-        <v>13345867.36759423</v>
+        <v>14535738.68683362</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2">
-        <v>42496</v>
+        <v>42319</v>
       </c>
       <c r="B444">
-        <v>13635784.89841839</v>
+        <v>14624993.59640461</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2">
-        <v>42499</v>
+        <v>42320</v>
       </c>
       <c r="B445">
-        <v>13503319.11702702</v>
+        <v>14746251.43715231</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2">
-        <v>42500</v>
+        <v>42321</v>
       </c>
       <c r="B446">
-        <v>14887178.21074255</v>
+        <v>14877459.33221675</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2">
-        <v>42501</v>
+        <v>42324</v>
       </c>
       <c r="B447">
-        <v>14565371.1787531</v>
+        <v>14919084.0975474</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2">
-        <v>42502</v>
+        <v>42325</v>
       </c>
       <c r="B448">
-        <v>14571964.4770921</v>
+        <v>14969739.16640915</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2">
-        <v>42503</v>
+        <v>42326</v>
       </c>
       <c r="B449">
-        <v>15179930.27577561</v>
+        <v>14978190.60330226</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2">
-        <v>42506</v>
+        <v>42327</v>
       </c>
       <c r="B450">
-        <v>15475548.31830881</v>
+        <v>15114755.38544809</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2">
-        <v>42507</v>
+        <v>42328</v>
       </c>
       <c r="B451">
-        <v>15205257.14710662</v>
+        <v>15390438.40957527</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2">
-        <v>42508</v>
+        <v>42331</v>
       </c>
       <c r="B452">
-        <v>14821098.51211475</v>
+        <v>15469914.34925614</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2">
-        <v>42509</v>
+        <v>42332</v>
       </c>
       <c r="B453">
-        <v>15246429.58803719</v>
+        <v>15787313.73723532</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2">
-        <v>42510</v>
+        <v>42333</v>
       </c>
       <c r="B454">
-        <v>15390455.74926396</v>
+        <v>15731136.90462193</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2">
-        <v>42513</v>
+        <v>42334</v>
       </c>
       <c r="B455">
-        <v>15096686.51396913</v>
+        <v>15664681.14670045</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2">
-        <v>42514</v>
+        <v>42335</v>
       </c>
       <c r="B456">
-        <v>14172733.10429594</v>
+        <v>15598728.20404043</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2">
-        <v>42515</v>
+        <v>42338</v>
       </c>
       <c r="B457">
-        <v>14031957.17366925</v>
+        <v>15859611.0982878</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2">
-        <v>42516</v>
+        <v>42339</v>
       </c>
       <c r="B458">
-        <v>14342244.71372383</v>
+        <v>16085739.5131526</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2">
-        <v>42517</v>
+        <v>42340</v>
       </c>
       <c r="B459">
-        <v>14013352.12356203</v>
+        <v>16066049.31369616</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2">
-        <v>42520</v>
+        <v>42341</v>
       </c>
       <c r="B460">
-        <v>13516204.96148406</v>
+        <v>15799312.27382855</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2">
-        <v>42521</v>
+        <v>42342</v>
       </c>
       <c r="B461">
-        <v>13819867.50382618</v>
+        <v>16012567.8809562</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2">
-        <v>42522</v>
+        <v>42345</v>
       </c>
       <c r="B462">
-        <v>13751404.03438481</v>
+        <v>15848244.70689091</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2">
-        <v>42523</v>
+        <v>42346</v>
       </c>
       <c r="B463">
-        <v>13506318.54924844</v>
+        <v>15692839.89876807</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2">
-        <v>42524</v>
+        <v>42347</v>
       </c>
       <c r="B464">
-        <v>13591048.63405143</v>
+        <v>15854356.65626034</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2">
-        <v>42527</v>
+        <v>42348</v>
       </c>
       <c r="B465">
-        <v>13957952.44082382</v>
+        <v>15806717.41362785</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2">
-        <v>42528</v>
+        <v>42349</v>
       </c>
       <c r="B466">
-        <v>13551180.03063407</v>
+        <v>15902408.1837566</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2">
-        <v>42529</v>
+        <v>42352</v>
       </c>
       <c r="B467">
-        <v>13625051.19143084</v>
+        <v>15777538.61178162</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2">
-        <v>42534</v>
+        <v>42353</v>
       </c>
       <c r="B468">
-        <v>13729461.3179307</v>
+        <v>15758223.49152972</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2">
-        <v>42535</v>
+        <v>42354</v>
       </c>
       <c r="B469">
-        <v>14237066.31662825</v>
+        <v>15805689.41530243</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2">
-        <v>42536</v>
+        <v>42355</v>
       </c>
       <c r="B470">
-        <v>13552565.81123736</v>
+        <v>15643805.91162846</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2">
-        <v>42537</v>
+        <v>42356</v>
       </c>
       <c r="B471">
-        <v>13689833.09376942</v>
+        <v>15615273.14209282</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2">
-        <v>42538</v>
+        <v>42359</v>
       </c>
       <c r="B472">
-        <v>13578053.15454161</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2">
-        <v>42541</v>
+        <v>42360</v>
       </c>
       <c r="B473">
-        <v>13558071.59767037</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>42542</v>
+        <v>42361</v>
       </c>
       <c r="B474">
-        <v>13682476.24670263</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>42543</v>
+        <v>42362</v>
       </c>
       <c r="B475">
-        <v>13476748.60758673</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>42544</v>
+        <v>42363</v>
       </c>
       <c r="B476">
-        <v>13923407.29426192</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>42545</v>
+        <v>42366</v>
       </c>
       <c r="B477">
-        <v>13954362.46066861</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>42548</v>
+        <v>42367</v>
       </c>
       <c r="B478">
-        <v>13773074.99690526</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>42549</v>
+        <v>42368</v>
       </c>
       <c r="B479">
-        <v>14711001.17121289</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>42550</v>
+        <v>42369</v>
       </c>
       <c r="B480">
-        <v>14685747.82190015</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>42551</v>
+        <v>42373</v>
       </c>
       <c r="B481">
-        <v>14510157.24252978</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>42552</v>
+        <v>42374</v>
       </c>
       <c r="B482">
-        <v>15192051.59300025</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>42555</v>
+        <v>42375</v>
       </c>
       <c r="B483">
-        <v>15241005.47449766</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>42556</v>
+        <v>42376</v>
       </c>
       <c r="B484">
-        <v>15764394.40871437</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>42557</v>
+        <v>42377</v>
       </c>
       <c r="B485">
-        <v>15501556.37998549</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>42558</v>
+        <v>42380</v>
       </c>
       <c r="B486">
-        <v>15652962.42742394</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>42559</v>
+        <v>42381</v>
       </c>
       <c r="B487">
-        <v>15510504.12122561</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>42562</v>
+        <v>42382</v>
       </c>
       <c r="B488">
-        <v>16014791.00274793</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>42563</v>
+        <v>42383</v>
       </c>
       <c r="B489">
-        <v>15800897.67783556</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>42564</v>
+        <v>42384</v>
       </c>
       <c r="B490">
-        <v>15077815.20557504</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>42565</v>
+        <v>42387</v>
       </c>
       <c r="B491">
-        <v>14941288.21066555</v>
+        <v>15197865.41599519</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>42566</v>
+        <v>42388</v>
       </c>
       <c r="B492">
-        <v>14959126.08570939</v>
+        <v>15182667.5505792</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>42569</v>
+        <v>42389</v>
       </c>
       <c r="B493">
-        <v>15036298.00519075</v>
+        <v>15290802.86587805</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>42570</v>
+        <v>42390</v>
       </c>
       <c r="B494">
-        <v>13977708.81046947</v>
+        <v>15100514.88021569</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>42571</v>
+        <v>42391</v>
       </c>
       <c r="B495">
-        <v>14296347.21495264</v>
+        <v>15058243.2970721</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>42572</v>
+        <v>42394</v>
       </c>
       <c r="B496">
-        <v>14237709.25071752</v>
+        <v>15208221.72014267</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>42573</v>
+        <v>42395</v>
       </c>
       <c r="B497">
-        <v>14738666.68544629</v>
+        <v>15307021.19682134</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>42576</v>
+        <v>42396</v>
       </c>
       <c r="B498">
-        <v>14239542.08768521</v>
+        <v>15389658.43055909</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>42577</v>
+        <v>42397</v>
       </c>
       <c r="B499">
-        <v>13961588.19537682</v>
+        <v>15480664.77583893</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>42578</v>
+        <v>42398</v>
       </c>
       <c r="B500">
-        <v>14124749.89466164</v>
+        <v>15083237.76081472</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>42579</v>
+        <v>42401</v>
       </c>
       <c r="B501">
-        <v>14383093.77152984</v>
+        <v>15108430.82425052</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>42580</v>
+        <v>42402</v>
       </c>
       <c r="B502">
-        <v>14698087.24649999</v>
+        <v>15141645.78988102</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>42583</v>
+        <v>42403</v>
       </c>
       <c r="B503">
-        <v>14349701.3834109</v>
+        <v>15141612.57491539</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>42584</v>
+        <v>42404</v>
       </c>
       <c r="B504">
-        <v>13834280.52389246</v>
+        <v>15191480.13376099</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>42585</v>
+        <v>42405</v>
       </c>
       <c r="B505">
-        <v>13931245.49886258</v>
+        <v>15415196.32891199</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>42586</v>
+        <v>42415</v>
       </c>
       <c r="B506">
-        <v>13782681.47413857</v>
+        <v>15267255.3499746</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>42587</v>
+        <v>42416</v>
       </c>
       <c r="B507">
-        <v>13972484.8226669</v>
+        <v>15577620.70694935</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>42590</v>
+        <v>42417</v>
       </c>
       <c r="B508">
-        <v>13513064.58340822</v>
+        <v>15528327.90127775</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>42591</v>
+        <v>42418</v>
       </c>
       <c r="B509">
-        <v>13892091.90243088</v>
+        <v>15511599.03143354</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>42592</v>
+        <v>42419</v>
       </c>
       <c r="B510">
-        <v>13724875.51142047</v>
+        <v>15578160.8399433</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>42593</v>
+        <v>42422</v>
       </c>
       <c r="B511">
-        <v>13686978.87897457</v>
+        <v>15785173.01040967</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>42594</v>
+        <v>42423</v>
       </c>
       <c r="B512">
-        <v>13696741.43822525</v>
+        <v>16277607.20815613</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>42597</v>
+        <v>42424</v>
       </c>
       <c r="B513">
-        <v>13568662.9309748</v>
+        <v>15994522.26934323</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>42598</v>
+        <v>42425</v>
       </c>
       <c r="B514">
-        <v>13514999.36363479</v>
+        <v>16053463.58697358</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>42599</v>
+        <v>42426</v>
       </c>
       <c r="B515">
-        <v>13123398.4033263</v>
+        <v>16078304.36439742</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>42600</v>
+        <v>42429</v>
       </c>
       <c r="B516">
-        <v>12671342.54738873</v>
+        <v>15995103.96865737</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>42601</v>
+        <v>42430</v>
       </c>
       <c r="B517">
-        <v>12639748.99050386</v>
+        <v>16437943.75201555</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>42604</v>
+        <v>42431</v>
       </c>
       <c r="B518">
-        <v>12479448.39920543</v>
+        <v>16615852.38862294</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>42605</v>
+        <v>42432</v>
       </c>
       <c r="B519">
-        <v>12380457.66306893</v>
+        <v>16557997.63150888</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>42606</v>
+        <v>42433</v>
       </c>
       <c r="B520">
-        <v>12110561.90502154</v>
+        <v>16407611.05054648</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>42607</v>
+        <v>42436</v>
       </c>
       <c r="B521">
-        <v>12090829.67111441</v>
+        <v>16558447.4348321</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>42608</v>
+        <v>42437</v>
       </c>
       <c r="B522">
-        <v>12253713.1742321</v>
+        <v>18238902.54385841</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>42611</v>
+        <v>42438</v>
       </c>
       <c r="B523">
-        <v>12597311.67010157</v>
+        <v>17897260.71156011</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>42612</v>
+        <v>42439</v>
       </c>
       <c r="B524">
-        <v>12631354.19299714</v>
+        <v>17583208.24860654</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>42613</v>
+        <v>42440</v>
       </c>
       <c r="B525">
-        <v>12909855.07411508</v>
+        <v>17574428.58720019</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>42614</v>
+        <v>42443</v>
       </c>
       <c r="B526">
-        <v>13148449.51590092</v>
+        <v>17110761.26662711</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>42615</v>
+        <v>42444</v>
       </c>
       <c r="B527">
-        <v>13035661.2481206</v>
+        <v>16934729.06285642</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>42618</v>
+        <v>42445</v>
       </c>
       <c r="B528">
-        <v>13117644.09295854</v>
+        <v>16839588.29867135</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>42619</v>
+        <v>42446</v>
       </c>
       <c r="B529">
-        <v>13230966.29601425</v>
+        <v>17191768.2101379</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>42620</v>
+        <v>42447</v>
       </c>
       <c r="B530">
-        <v>13140063.36842223</v>
+        <v>17794726.30961784</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>42621</v>
+        <v>42450</v>
       </c>
       <c r="B531">
-        <v>13630911.77267242</v>
+        <v>18083419.03368261</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>42622</v>
+        <v>42451</v>
       </c>
       <c r="B532">
-        <v>13598505.31741562</v>
+        <v>18386007.9306152</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>42625</v>
+        <v>42452</v>
       </c>
       <c r="B533">
-        <v>13645127.40876583</v>
+        <v>18402520.48181178</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>42626</v>
+        <v>42453</v>
       </c>
       <c r="B534">
-        <v>13229412.25722468</v>
+        <v>18769037.10818825</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>42627</v>
+        <v>42454</v>
       </c>
       <c r="B535">
-        <v>13385028.21230071</v>
+        <v>18089828.57488548</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>42632</v>
+        <v>42457</v>
       </c>
       <c r="B536">
-        <v>13678565.5458788</v>
+        <v>18735710.33350823</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>42633</v>
+        <v>42458</v>
       </c>
       <c r="B537">
-        <v>13453385.27996544</v>
+        <v>18321641.65283253</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>42634</v>
+        <v>42459</v>
       </c>
       <c r="B538">
-        <v>13260991.56081911</v>
+        <v>18522391.33643856</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>42635</v>
+        <v>42460</v>
       </c>
       <c r="B539">
-        <v>13174913.53396438</v>
+        <v>18064327.41755333</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>42636</v>
+        <v>42461</v>
       </c>
       <c r="B540">
-        <v>12965912.48880517</v>
+        <v>18335856.04947203</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>42639</v>
+        <v>42465</v>
       </c>
       <c r="B541">
-        <v>13115465.06309932</v>
+        <v>18901127.40358211</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>42640</v>
+        <v>42466</v>
       </c>
       <c r="B542">
-        <v>13160244.55961061</v>
+        <v>18792449.54644454</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>42641</v>
+        <v>42467</v>
       </c>
       <c r="B543">
-        <v>12845818.85831807</v>
+        <v>18671828.77387964</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>42642</v>
+        <v>42468</v>
       </c>
       <c r="B544">
-        <v>12697836.82696886</v>
+        <v>18740602.30328379</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>42643</v>
+        <v>42471</v>
       </c>
       <c r="B545">
-        <v>12565772.20786922</v>
+        <v>18851498.79476747</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>42653</v>
+        <v>42472</v>
       </c>
       <c r="B546">
-        <v>12733549.28408493</v>
+        <v>19710722.83758689</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>42654</v>
+        <v>42473</v>
       </c>
       <c r="B547">
-        <v>12522944.08582007</v>
+        <v>20111534.84124227</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>42655</v>
+        <v>42474</v>
       </c>
       <c r="B548">
-        <v>12897698.13035638</v>
+        <v>20144703.4645519</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>42656</v>
+        <v>42475</v>
       </c>
       <c r="B549">
-        <v>13020535.22824146</v>
+        <v>19845473.84759012</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>42657</v>
+        <v>42478</v>
       </c>
       <c r="B550">
-        <v>12940089.70345476</v>
+        <v>19558920.12037773</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>42660</v>
+        <v>42479</v>
       </c>
       <c r="B551">
-        <v>12703642.41731583</v>
+        <v>20512205.54874419</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>42661</v>
+        <v>42480</v>
       </c>
       <c r="B552">
-        <v>12914262.86542931</v>
+        <v>21360714.85108537</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>42662</v>
+        <v>42481</v>
       </c>
       <c r="B553">
-        <v>13023946.59141752</v>
+        <v>22271030.75125825</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>42663</v>
+        <v>42482</v>
       </c>
       <c r="B554">
-        <v>12929580.17381461</v>
+        <v>23276818.77346418</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>42664</v>
+        <v>42485</v>
       </c>
       <c r="B555">
-        <v>12614866.83792088</v>
+        <v>22240621.27940625</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>42667</v>
+        <v>42486</v>
       </c>
       <c r="B556">
-        <v>12527123.43166299</v>
+        <v>22230668.84261328</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>42668</v>
+        <v>42487</v>
       </c>
       <c r="B557">
-        <v>12435788.9944735</v>
+        <v>21743918.87204371</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>42669</v>
+        <v>42488</v>
       </c>
       <c r="B558">
-        <v>12832269.3015967</v>
+        <v>21334100.11962831</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>42670</v>
+        <v>42489</v>
       </c>
       <c r="B559">
-        <v>12628282.70777282</v>
+        <v>21724220.8106517</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>42671</v>
+        <v>42493</v>
       </c>
       <c r="B560">
-        <v>12704085.2340221</v>
+        <v>21698686.92928036</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>42674</v>
+        <v>42494</v>
       </c>
       <c r="B561">
-        <v>12302535.27719581</v>
+        <v>20792987.44669195</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>42675</v>
+        <v>42495</v>
       </c>
       <c r="B562">
-        <v>12326587.25588574</v>
+        <v>20205496.58367703</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>42676</v>
+        <v>42496</v>
       </c>
       <c r="B563">
-        <v>12416424.54618941</v>
+        <v>19740970.484835</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>42677</v>
+        <v>42499</v>
       </c>
       <c r="B564">
-        <v>12372873.9539171</v>
+        <v>19920877.79411988</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>42678</v>
+        <v>42500</v>
       </c>
       <c r="B565">
-        <v>11967852.42642416</v>
+        <v>19900956.91632576</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>42681</v>
+        <v>42501</v>
       </c>
       <c r="B566">
-        <v>12155492.13344111</v>
+        <v>19427283.82803261</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>42682</v>
+        <v>42502</v>
       </c>
       <c r="B567">
-        <v>12815525.74437716</v>
+        <v>19436054.16425969</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>42683</v>
+        <v>42503</v>
       </c>
       <c r="B568">
-        <v>12538181.95366103</v>
+        <v>20246958.62597819</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>42684</v>
+        <v>42506</v>
       </c>
       <c r="B569">
-        <v>11682412.09958375</v>
+        <v>20641253.31979403</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>42685</v>
+        <v>42507</v>
       </c>
       <c r="B570">
-        <v>11616578.0703451</v>
+        <v>20280739.53214409</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>42688</v>
+        <v>42508</v>
       </c>
       <c r="B571">
-        <v>11020268.4503341</v>
+        <v>19768349.56464436</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>42689</v>
+        <v>42509</v>
       </c>
       <c r="B572">
-        <v>10271169.12988596</v>
+        <v>20335655.24597913</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>42690</v>
+        <v>42510</v>
       </c>
       <c r="B573">
-        <v>10827593.59916653</v>
+        <v>20527757.0324464</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>42691</v>
+        <v>42513</v>
       </c>
       <c r="B574">
-        <v>10761097.8068792</v>
+        <v>20176983.76742993</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>42692</v>
+        <v>42514</v>
       </c>
       <c r="B575">
-        <v>10741807.43492153</v>
+        <v>21369037.9413532</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>42695</v>
+        <v>42515</v>
       </c>
       <c r="B576">
-        <v>10897904.55966503</v>
+        <v>21181304.74602617</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>42696</v>
+        <v>42516</v>
       </c>
       <c r="B577">
-        <v>11117536.73008901</v>
+        <v>21649118.44248357</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>42697</v>
+        <v>42517</v>
       </c>
       <c r="B578">
-        <v>10411220.03004108</v>
+        <v>21152652.97812268</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>42698</v>
+        <v>42520</v>
       </c>
       <c r="B579">
-        <v>10613703.29420725</v>
+        <v>20402226.65333586</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>42699</v>
+        <v>42521</v>
       </c>
       <c r="B580">
-        <v>10423444.87236917</v>
+        <v>20901398.83557091</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>42702</v>
+        <v>42522</v>
       </c>
       <c r="B581">
-        <v>9476166.444464603</v>
+        <v>21003578.88346144</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>42703</v>
+        <v>42523</v>
       </c>
       <c r="B582">
-        <v>9713457.504544871</v>
+        <v>21373510.82794335</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>42704</v>
+        <v>42524</v>
       </c>
       <c r="B583">
-        <v>8995576.885262936</v>
+        <v>21243351.77135244</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>42705</v>
+        <v>42527</v>
       </c>
       <c r="B584">
-        <v>9191735.754180022</v>
+        <v>20618473.45735281</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>42706</v>
+        <v>42528</v>
       </c>
       <c r="B585">
-        <v>8585249.703990297</v>
+        <v>20004488.77290937</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>42709</v>
+        <v>42529</v>
       </c>
       <c r="B586">
-        <v>8360606.893308086</v>
+        <v>20004488.77290937</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>42710</v>
+        <v>42534</v>
       </c>
       <c r="B587">
-        <v>8131841.160294825</v>
+        <v>19984484.28413646</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>42711</v>
+        <v>42535</v>
       </c>
       <c r="B588">
-        <v>8189016.149820972</v>
+        <v>20729583.66919534</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>42712</v>
+        <v>42536</v>
       </c>
       <c r="B589">
-        <v>8612524.507109731</v>
+        <v>19733224.46290452</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>42713</v>
+        <v>42537</v>
       </c>
       <c r="B590">
-        <v>8638691.757667752</v>
+        <v>19913356.69761778</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>42716</v>
+        <v>42538</v>
       </c>
       <c r="B591">
-        <v>8535452.002013521</v>
+        <v>19893443.34092016</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>42717</v>
+        <v>42541</v>
       </c>
       <c r="B592">
-        <v>8292338.108451673</v>
+        <v>19922268.43944132</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>42718</v>
+        <v>42542</v>
       </c>
       <c r="B593">
-        <v>8373515.20402416</v>
+        <v>19739636.61970259</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>42719</v>
+        <v>42543</v>
       </c>
       <c r="B594">
-        <v>8069555.130578059</v>
+        <v>20001199.40564834</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>42720</v>
+        <v>42544</v>
       </c>
       <c r="B595">
-        <v>8023247.848284103</v>
+        <v>20646149.91199934</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>42723</v>
+        <v>42545</v>
       </c>
       <c r="B596">
-        <v>7768649.555173806</v>
+        <v>20692109.24147786</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>42724</v>
+        <v>42548</v>
       </c>
       <c r="B597">
-        <v>8059700.413775277</v>
+        <v>20423289.34126393</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>42725</v>
+        <v>42549</v>
       </c>
       <c r="B598">
-        <v>8042222.974983906</v>
+        <v>21814085.29655009</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>42726</v>
+        <v>42550</v>
       </c>
       <c r="B599">
-        <v>8013387.845904027</v>
+        <v>21776638.57827368</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>42727</v>
+        <v>42551</v>
       </c>
       <c r="B600">
-        <v>7589672.89028664</v>
+        <v>21516265.55327855</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>42730</v>
+        <v>42552</v>
       </c>
       <c r="B601">
-        <v>7698438.23552297</v>
+        <v>22527406.89921791</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>42731</v>
+        <v>42555</v>
       </c>
       <c r="B602">
-        <v>7797858.667100395</v>
+        <v>22599997.75378664</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>42732</v>
+        <v>42556</v>
       </c>
       <c r="B603">
-        <v>7592951.724085259</v>
+        <v>23376100.66625176</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>42733</v>
+        <v>42557</v>
       </c>
       <c r="B604">
-        <v>7639425.162400118</v>
+        <v>23030865.25433528</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>42734</v>
+        <v>42558</v>
       </c>
       <c r="B605">
-        <v>7750928.080662081</v>
+        <v>22806068.43059187</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>42738</v>
+        <v>42559</v>
       </c>
       <c r="B606">
-        <v>7903555.844674766</v>
+        <v>22970878.7272549</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>42739</v>
+        <v>42562</v>
       </c>
       <c r="B607">
-        <v>7981129.812612289</v>
+        <v>23705987.48799333</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>42740</v>
+        <v>42563</v>
       </c>
       <c r="B608">
-        <v>7787570.269742089</v>
+        <v>23434626.7079019</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>42741</v>
+        <v>42564</v>
       </c>
       <c r="B609">
-        <v>7760110.119613227</v>
+        <v>24455562.56348461</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>42744</v>
+        <v>42565</v>
       </c>
       <c r="B610">
-        <v>7826292.193589917</v>
+        <v>24297538.86013385</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>42745</v>
+        <v>42566</v>
       </c>
       <c r="B611">
-        <v>7456288.385613813</v>
+        <v>24219913.98101125</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>42746</v>
+        <v>42569</v>
       </c>
       <c r="B612">
-        <v>7786818.020244027</v>
+        <v>24345304.40611656</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>42747</v>
+        <v>42570</v>
       </c>
       <c r="B613">
-        <v>7791186.102361019</v>
+        <v>22676476.76108644</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>42748</v>
+        <v>42571</v>
       </c>
       <c r="B614">
-        <v>7871941.658754185</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>42751</v>
+        <v>42572</v>
       </c>
       <c r="B615">
-        <v>7818443.253138413</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>42752</v>
+        <v>42573</v>
       </c>
       <c r="B616">
-        <v>8262130.364519984</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>42753</v>
+        <v>42576</v>
       </c>
       <c r="B617">
-        <v>8080544.716180904</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>42754</v>
+        <v>42577</v>
       </c>
       <c r="B618">
-        <v>8050276.125664103</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>42755</v>
+        <v>42578</v>
       </c>
       <c r="B619">
-        <v>7981257.153370974</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>42758</v>
+        <v>42579</v>
       </c>
       <c r="B620">
-        <v>7822353.317127808</v>
+        <v>22135543.53486872</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>42759</v>
+        <v>42580</v>
       </c>
       <c r="B621">
-        <v>7814530.96381068</v>
+        <v>22113407.99133386</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>42760</v>
+        <v>42583</v>
       </c>
       <c r="B622">
-        <v>7498302.061596978</v>
+        <v>21577749.97280554</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>42761</v>
+        <v>42584</v>
       </c>
       <c r="B623">
-        <v>7479060.459292232</v>
+        <v>20823883.78826724</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>42769</v>
+        <v>42585</v>
       </c>
       <c r="B624">
-        <v>7608742.254898276</v>
+        <v>20823883.78826724</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>42772</v>
+        <v>42586</v>
       </c>
       <c r="B625">
-        <v>7060448.133540327</v>
+        <v>20823883.78826724</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>42773</v>
+        <v>42587</v>
       </c>
       <c r="B626">
-        <v>7108879.589212663</v>
+        <v>20803059.90447897</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>42774</v>
+        <v>42590</v>
       </c>
       <c r="B627">
-        <v>6946535.428149209</v>
+        <v>21453927.18280824</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>42775</v>
+        <v>42591</v>
       </c>
       <c r="B628">
-        <v>6750520.189404525</v>
+        <v>22019409.70166205</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>42776</v>
+        <v>42592</v>
       </c>
       <c r="B629">
-        <v>6857366.693411176</v>
+        <v>21796429.45664634</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>42779</v>
+        <v>42593</v>
       </c>
       <c r="B630">
-        <v>6520474.745524672</v>
+        <v>21855889.32162718</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>42780</v>
+        <v>42594</v>
       </c>
       <c r="B631">
-        <v>6720481.008760445</v>
+        <v>21796793.29827238</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>42781</v>
+        <v>42597</v>
       </c>
       <c r="B632">
-        <v>6707033.982634883</v>
+        <v>21635737.21378964</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>42782</v>
+        <v>42598</v>
       </c>
       <c r="B633">
-        <v>6566327.352884641</v>
+        <v>21720601.527934</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>42783</v>
+        <v>42599</v>
       </c>
       <c r="B634">
-        <v>6613904.108795635</v>
+        <v>22300761.45684757</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>42786</v>
+        <v>42600</v>
       </c>
       <c r="B635">
-        <v>6782101.126618743</v>
+        <v>21615103.77762609</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>42787</v>
+        <v>42601</v>
       </c>
       <c r="B636">
-        <v>6943594.530783877</v>
+        <v>21667231.54477422</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>42788</v>
+        <v>42604</v>
       </c>
       <c r="B637">
-        <v>6954855.723828047</v>
+        <v>21897092.17476009</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>42789</v>
+        <v>42605</v>
       </c>
       <c r="B638">
-        <v>6826419.067166595</v>
+        <v>21769977.18977697</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>42790</v>
+        <v>42606</v>
       </c>
       <c r="B639">
-        <v>6838180.934480753</v>
+        <v>22198943.73669859</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>42793</v>
+        <v>42607</v>
       </c>
       <c r="B640">
-        <v>6810929.583210632</v>
+        <v>22206899.44080202</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>42794</v>
+        <v>42608</v>
       </c>
       <c r="B641">
-        <v>7029630.287440739</v>
+        <v>21886167.38894452</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>42795</v>
+        <v>42611</v>
       </c>
       <c r="B642">
-        <v>6785844.443138005</v>
+        <v>21886167.38894452</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>42796</v>
+        <v>42612</v>
       </c>
       <c r="B643">
-        <v>6657037.679551885</v>
+        <v>21864281.22155557</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>42797</v>
+        <v>42613</v>
       </c>
       <c r="B644">
-        <v>6676031.746363754</v>
+        <v>22348220.79763284</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>42800</v>
+        <v>42614</v>
       </c>
       <c r="B645">
-        <v>6702240.706712974</v>
+        <v>22761214.70967035</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>42801</v>
+        <v>42615</v>
       </c>
       <c r="B646">
-        <v>6457144.835556009</v>
+        <v>22610963.64957121</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>42802</v>
+        <v>42618</v>
       </c>
       <c r="B647">
-        <v>6352455.604471438</v>
+        <v>22468413.54648455</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>42803</v>
+        <v>42619</v>
       </c>
       <c r="B648">
-        <v>6201100.305740147</v>
+        <v>22271457.30806166</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>42804</v>
+        <v>42620</v>
       </c>
       <c r="B649">
-        <v>6260498.807173006</v>
+        <v>22382052.8733149</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>42807</v>
+        <v>42621</v>
       </c>
       <c r="B650">
-        <v>6214686.827798334</v>
+        <v>23208025.91327443</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>42808</v>
+        <v>42622</v>
       </c>
       <c r="B651">
-        <v>5847524.093848149</v>
+        <v>23197619.95609177</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>42809</v>
+        <v>42625</v>
       </c>
       <c r="B652">
-        <v>5828202.395943215</v>
+        <v>23118016.45339924</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>42810</v>
+        <v>42626</v>
       </c>
       <c r="B653">
-        <v>5889982.548744371</v>
+        <v>23780787.61357575</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>42811</v>
+        <v>42627</v>
       </c>
       <c r="B654">
-        <v>5865813.202756524</v>
+        <v>24043950.56813939</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>42814</v>
+        <v>42632</v>
       </c>
       <c r="B655">
-        <v>5794075.716039337</v>
+        <v>24571620.88557347</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>42815</v>
+        <v>42633</v>
       </c>
       <c r="B656">
-        <v>5797184.66587785</v>
+        <v>24167122.05437095</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>42816</v>
+        <v>42634</v>
       </c>
       <c r="B657">
-        <v>5986351.654310111</v>
+        <v>23869848.01140293</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>42817</v>
+        <v>42635</v>
       </c>
       <c r="B658">
-        <v>6077710.769634937</v>
+        <v>23976402.70917859</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>42818</v>
+        <v>42636</v>
       </c>
       <c r="B659">
-        <v>6056528.029330335</v>
+        <v>23647891.14165435</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>42821</v>
+        <v>42639</v>
       </c>
       <c r="B660">
-        <v>6040957.228001064</v>
+        <v>23374472.98074844</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>42822</v>
+        <v>42640</v>
       </c>
       <c r="B661">
-        <v>6195223.187129932</v>
+        <v>23292255.67604725</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>42823</v>
+        <v>42641</v>
       </c>
       <c r="B662">
-        <v>6187174.982563878</v>
+        <v>23805880.8109904</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>42824</v>
+        <v>42642</v>
       </c>
       <c r="B663">
-        <v>5970461.587468987</v>
+        <v>23589913.82522852</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>42825</v>
+        <v>42643</v>
       </c>
       <c r="B664">
-        <v>6014980.347921261</v>
+        <v>23787497.78944091</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>42830</v>
+        <v>42653</v>
       </c>
       <c r="B665">
-        <v>6128996.033139484</v>
+        <v>24098749.42558275</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>42831</v>
+        <v>42654</v>
       </c>
       <c r="B666">
-        <v>6198499.777638115</v>
+        <v>23748269.41177279</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>42832</v>
+        <v>42655</v>
       </c>
       <c r="B667">
-        <v>6007003.757015061</v>
+        <v>23013114.42938903</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>42835</v>
+        <v>42656</v>
       </c>
       <c r="B668">
-        <v>5785492.152605379</v>
+        <v>23013114.42938903</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>42836</v>
+        <v>42657</v>
       </c>
       <c r="B669">
-        <v>5864650.320760621</v>
+        <v>22990101.31495965</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>42837</v>
+        <v>42660</v>
       </c>
       <c r="B670">
-        <v>5893566.346116875</v>
+        <v>23361359.15216887</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>42838</v>
+        <v>42661</v>
       </c>
       <c r="B671">
-        <v>6064869.985454726</v>
+        <v>23736350.79512604</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>42839</v>
+        <v>42662</v>
       </c>
       <c r="B672">
-        <v>5989267.971685867</v>
+        <v>23938065.97664417</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>42842</v>
+        <v>42663</v>
       </c>
       <c r="B673">
-        <v>5953908.303126725</v>
+        <v>23811841.76266229</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>42843</v>
+        <v>42664</v>
       </c>
       <c r="B674">
-        <v>6004787.295703844</v>
+        <v>24341396.80073437</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>42844</v>
+        <v>42667</v>
       </c>
       <c r="B675">
-        <v>6204564.848822981</v>
+        <v>24226088.81792981</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>42845</v>
+        <v>42668</v>
       </c>
       <c r="B676">
-        <v>6132013.666696403</v>
+        <v>24353441.95034605</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>42846</v>
+        <v>42669</v>
       </c>
       <c r="B677">
-        <v>6033979.45416003</v>
+        <v>25120495.55462652</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>42849</v>
+        <v>42670</v>
       </c>
       <c r="B678">
-        <v>5968861.893580507</v>
+        <v>24769037.03955864</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>42850</v>
+        <v>42671</v>
       </c>
       <c r="B679">
-        <v>5960983.54565055</v>
+        <v>24620192.24790783</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>42851</v>
+        <v>42674</v>
       </c>
       <c r="B680">
-        <v>5887773.385597847</v>
+        <v>25356479.95057941</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>42852</v>
+        <v>42675</v>
       </c>
       <c r="B681">
-        <v>5917928.715958242</v>
+        <v>25403228.85144164</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>42853</v>
+        <v>42676</v>
       </c>
       <c r="B682">
-        <v>6046687.007500526</v>
+        <v>25588387.65453066</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>42857</v>
+        <v>42677</v>
       </c>
       <c r="B683">
-        <v>6274725.243898127</v>
+        <v>25549365.3249897</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>42858</v>
+        <v>42678</v>
       </c>
       <c r="B684">
-        <v>6257214.652680472</v>
+        <v>26331362.22760491</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>42859</v>
+        <v>42681</v>
       </c>
       <c r="B685">
-        <v>6211268.753683404</v>
+        <v>26719660.56485504</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>42860</v>
+        <v>42682</v>
       </c>
       <c r="B686">
-        <v>5856199.719530954</v>
+        <v>28171825.06027303</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>42863</v>
+        <v>42683</v>
       </c>
       <c r="B687">
-        <v>5857952.987412359</v>
+        <v>27614507.70482873</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>42864</v>
+        <v>42684</v>
       </c>
       <c r="B688">
-        <v>5758530.454087524</v>
+        <v>29435771.58574874</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>42865</v>
+        <v>42685</v>
       </c>
       <c r="B689">
-        <v>5736916.048244308</v>
+        <v>29342116.02719655</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>42866</v>
+        <v>42688</v>
       </c>
       <c r="B690">
-        <v>5593218.237369911</v>
+        <v>30782932.82343542</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B691">
-        <v>5622867.809437018</v>
+        <v>28942859.26668678</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>42870</v>
+        <v>42690</v>
       </c>
       <c r="B692">
-        <v>5826990.626048625</v>
+        <v>27387775.00439543</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>42871</v>
+        <v>42691</v>
       </c>
       <c r="B693">
-        <v>5916460.76136554</v>
+        <v>27572028.742747</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>42872</v>
+        <v>42692</v>
       </c>
       <c r="B694">
-        <v>5920255.951118162</v>
+        <v>27620470.17765385</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>42873</v>
+        <v>42695</v>
       </c>
       <c r="B695">
-        <v>5699510.086388468</v>
+        <v>27219719.31781953</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>42874</v>
+        <v>42696</v>
       </c>
       <c r="B696">
-        <v>5712597.068899225</v>
+        <v>26653845.83688715</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>42877</v>
+        <v>42697</v>
       </c>
       <c r="B697">
-        <v>5960961.098883324</v>
+        <v>28359045.72138562</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>42878</v>
+        <v>42698</v>
       </c>
       <c r="B698">
-        <v>6127657.855554719</v>
+        <v>28845454.59800525</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>42879</v>
+        <v>42699</v>
       </c>
       <c r="B699">
-        <v>6018807.299107027</v>
+        <v>28383071.43569135</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>42880</v>
+        <v>42702</v>
       </c>
       <c r="B700">
-        <v>5942365.497591536</v>
+        <v>30894877.1763977</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>42881</v>
+        <v>42703</v>
       </c>
       <c r="B701">
-        <v>5894142.305191223</v>
+        <v>31542387.82221029</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>42886</v>
+        <v>42704</v>
       </c>
       <c r="B702">
-        <v>5943856.0901558</v>
+        <v>29259257.43497566</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>42887</v>
+        <v>42705</v>
       </c>
       <c r="B703">
-        <v>5667336.984899835</v>
+        <v>28589677.01938668</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>42888</v>
+        <v>42706</v>
       </c>
       <c r="B704">
-        <v>5674732.676940781</v>
+        <v>28561087.34236729</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>42891</v>
+        <v>42709</v>
       </c>
       <c r="B705">
-        <v>5835547.400687631</v>
+        <v>27916399.0273658</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>42892</v>
+        <v>42710</v>
       </c>
       <c r="B706">
-        <v>5989826.03878959</v>
+        <v>28619020.83389737</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>42893</v>
+        <v>42711</v>
       </c>
       <c r="B707">
-        <v>5927950.085601941</v>
+        <v>28810375.36517439</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>42894</v>
+        <v>42712</v>
       </c>
       <c r="B708">
-        <v>5909651.526139427</v>
+        <v>30300851.38826661</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>42895</v>
+        <v>42713</v>
       </c>
       <c r="B709">
-        <v>5909633.227579964</v>
+        <v>30392911.8018228</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>42898</v>
+        <v>42716</v>
       </c>
       <c r="B710">
-        <v>5786060.166336367</v>
+        <v>30089686.52894022</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>42899</v>
+        <v>42717</v>
       </c>
       <c r="B711">
-        <v>5764602.851994169</v>
+        <v>30882703.27235556</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>42900</v>
+        <v>42718</v>
       </c>
       <c r="B712">
-        <v>5562598.34867358</v>
+        <v>31169512.28316227</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>42901</v>
+        <v>42719</v>
       </c>
       <c r="B713">
-        <v>5266193.369254011</v>
+        <v>30097129.20372805</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>42902</v>
+        <v>42720</v>
       </c>
       <c r="B714">
-        <v>5311002.774070049</v>
+        <v>30207001.0361736</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>42905</v>
+        <v>42723</v>
       </c>
       <c r="B715">
-        <v>5302469.300641534</v>
+        <v>29315553.10814949</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>42906</v>
+        <v>42724</v>
       </c>
       <c r="B716">
-        <v>5377767.361726981</v>
+        <v>28219423.89131555</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>42907</v>
+        <v>42725</v>
       </c>
       <c r="B717">
-        <v>5301722.046823176</v>
+        <v>28254962.39869785</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>42908</v>
+        <v>42726</v>
       </c>
       <c r="B718">
-        <v>5266974.240217558</v>
+        <v>28226707.43629916</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>42909</v>
+        <v>42727</v>
       </c>
       <c r="B719">
-        <v>5184158.172756777</v>
+        <v>26737985.0172917</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>42912</v>
+        <v>42730</v>
       </c>
       <c r="B720">
-        <v>5066027.150105508</v>
+        <v>27121108.61073082</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>42913</v>
+        <v>42731</v>
       </c>
       <c r="B721">
-        <v>4977226.533463355</v>
+        <v>27471361.17520598</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2">
-        <v>42914</v>
+        <v>42732</v>
       </c>
       <c r="B722">
-        <v>5095954.712450335</v>
+        <v>26722015.67785186</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2">
-        <v>42915</v>
+        <v>42733</v>
       </c>
       <c r="B723">
-        <v>5186538.385462094</v>
+        <v>26695293.66217401</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2">
-        <v>42916</v>
+        <v>42734</v>
       </c>
       <c r="B724">
-        <v>5181351.847076632</v>
+        <v>27087898.22508578</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2">
-        <v>42919</v>
+        <v>42738</v>
       </c>
       <c r="B725">
-        <v>5260066.680801603</v>
+        <v>27621239.44182334</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2">
-        <v>42920</v>
+        <v>42739</v>
       </c>
       <c r="B726">
-        <v>5359299.814445041</v>
+        <v>27892344.55368404</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2">
-        <v>42921</v>
+        <v>42740</v>
       </c>
       <c r="B727">
-        <v>5305078.279395874</v>
+        <v>27215895.29721154</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2">
-        <v>42922</v>
+        <v>42741</v>
       </c>
       <c r="B728">
-        <v>5352685.250712081</v>
+        <v>27119927.93585552</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2">
-        <v>42923</v>
+        <v>42744</v>
       </c>
       <c r="B729">
-        <v>5385437.070688214</v>
+        <v>27351220.15326249</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2">
-        <v>42926</v>
+        <v>42745</v>
       </c>
       <c r="B730">
-        <v>5407331.394353148</v>
+        <v>26058135.84728821</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2">
-        <v>42927</v>
+        <v>42746</v>
       </c>
       <c r="B731">
-        <v>5412017.642282396</v>
+        <v>27213266.34591091</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2">
-        <v>42928</v>
+        <v>42747</v>
       </c>
       <c r="B732">
-        <v>5611569.844835233</v>
+        <v>27228531.86024057</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2">
-        <v>42929</v>
+        <v>42748</v>
       </c>
       <c r="B733">
-        <v>5634164.526515572</v>
+        <v>27510755.28697613</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2">
-        <v>42930</v>
+        <v>42751</v>
       </c>
       <c r="B734">
-        <v>5756328.110276707</v>
+        <v>27323789.78228363</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2">
-        <v>42933</v>
+        <v>42752</v>
       </c>
       <c r="B735">
-        <v>5566568.101395438</v>
+        <v>28874381.50086294</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2">
-        <v>42934</v>
+        <v>42753</v>
       </c>
       <c r="B736">
-        <v>5716039.616432547</v>
+        <v>28239778.43193293</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2">
-        <v>42935</v>
+        <v>42754</v>
       </c>
       <c r="B737">
-        <v>5671337.648347094</v>
+        <v>28133996.17100073</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2">
-        <v>42936</v>
+        <v>42755</v>
       </c>
       <c r="B738">
-        <v>5780801.652795339</v>
+        <v>27892789.59970923</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2">
-        <v>42937</v>
+        <v>42758</v>
       </c>
       <c r="B739">
-        <v>5526778.034442794</v>
+        <v>27364774.36637288</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2">
-        <v>42940</v>
+        <v>42759</v>
       </c>
       <c r="B740">
-        <v>5496849.228996325</v>
+        <v>27223361.16177468</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2">
-        <v>42941</v>
+        <v>42760</v>
       </c>
       <c r="B741">
-        <v>5504659.867486003</v>
+        <v>27196137.8006129</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2">
-        <v>42942</v>
+        <v>42761</v>
       </c>
       <c r="B742">
-        <v>5417204.897348323</v>
+        <v>27130103.00007835</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2">
-        <v>42943</v>
+        <v>42769</v>
       </c>
       <c r="B743">
-        <v>5454067.412810343</v>
+        <v>27573328.99942613</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2">
-        <v>42944</v>
+        <v>42772</v>
       </c>
       <c r="B744">
-        <v>5437285.21576428</v>
+        <v>27545755.6704267</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2">
-        <v>42947</v>
+        <v>42773</v>
       </c>
       <c r="B745">
-        <v>5427924.855735226</v>
+        <v>27722926.36926555</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2">
-        <v>42948</v>
+        <v>42774</v>
       </c>
       <c r="B746">
-        <v>5648846.196116674</v>
+        <v>27089542.243059</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2">
-        <v>42949</v>
+        <v>42775</v>
       </c>
       <c r="B747">
-        <v>5626657.541459183</v>
+        <v>26298039.9745852</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2">
-        <v>42950</v>
+        <v>42776</v>
       </c>
       <c r="B748">
-        <v>5657180.398310446</v>
+        <v>26271741.93461061</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2">
-        <v>42951</v>
+        <v>42779</v>
       </c>
       <c r="B749">
-        <v>5755560.048269294</v>
+        <v>27528618.87269572</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2">
-        <v>42954</v>
+        <v>42780</v>
       </c>
       <c r="B750">
-        <v>5905169.624619112</v>
+        <v>28296447.44382408</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2">
-        <v>42955</v>
+        <v>42781</v>
       </c>
       <c r="B751">
-        <v>6208433.59507623</v>
+        <v>28239752.37448888</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2">
-        <v>42956</v>
+        <v>42782</v>
       </c>
       <c r="B752">
-        <v>6162904.050942954</v>
+        <v>27647310.07259612</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2">
-        <v>42957</v>
+        <v>42783</v>
       </c>
       <c r="B753">
-        <v>6317475.8025148</v>
+        <v>27847630.48232069</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2">
-        <v>42958</v>
+        <v>42786</v>
       </c>
       <c r="B754">
-        <v>6250804.210956458</v>
+        <v>28555818.61477214</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2">
-        <v>42961</v>
+        <v>42787</v>
       </c>
       <c r="B755">
-        <v>6116219.769653495</v>
+        <v>29235781.39780426</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2">
-        <v>42962</v>
+        <v>42788</v>
       </c>
       <c r="B756">
-        <v>6017427.388615036</v>
+        <v>29283196.28884637</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2">
-        <v>42963</v>
+        <v>42789</v>
       </c>
       <c r="B757">
-        <v>5912034.266253779</v>
+        <v>28742417.87775514</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2">
-        <v>42964</v>
+        <v>42790</v>
       </c>
       <c r="B758">
-        <v>5937683.849533666</v>
+        <v>28791940.84170445</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2">
-        <v>42965</v>
+        <v>42793</v>
       </c>
       <c r="B759">
-        <v>5820176.479586883</v>
+        <v>28677199.90385219</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2">
-        <v>42968</v>
+        <v>42794</v>
       </c>
       <c r="B760">
-        <v>5713699.428960668</v>
+        <v>29598032.1834547</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2">
-        <v>42969</v>
+        <v>42795</v>
       </c>
       <c r="B761">
-        <v>5548532.75687374</v>
+        <v>28626995.83562974</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2">
-        <v>42970</v>
+        <v>42796</v>
       </c>
       <c r="B762">
-        <v>5473603.042675775</v>
+        <v>29109224.55488309</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2">
-        <v>42971</v>
+        <v>42797</v>
       </c>
       <c r="B763">
-        <v>5276634.250733928</v>
+        <v>29189576.24206148</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2">
-        <v>42972</v>
+        <v>42800</v>
       </c>
       <c r="B764">
-        <v>5386407.60117919</v>
+        <v>29274987.866914</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2">
-        <v>42975</v>
+        <v>42801</v>
       </c>
       <c r="B765">
-        <v>5475357.284563973</v>
+        <v>29245712.87904709</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2">
-        <v>42976</v>
+        <v>42802</v>
       </c>
       <c r="B766">
-        <v>5483521.08182242</v>
+        <v>28816640.98221097</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2">
-        <v>42977</v>
+        <v>42803</v>
       </c>
       <c r="B767">
-        <v>5415439.136592692</v>
+        <v>28787824.34122876</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2">
-        <v>42978</v>
+        <v>42804</v>
       </c>
       <c r="B768">
-        <v>5459170.062109185</v>
+        <v>29057449.40907565</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2">
-        <v>42979</v>
+        <v>42807</v>
       </c>
       <c r="B769">
-        <v>5362495.730273677</v>
+        <v>28844779.21049709</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2">
-        <v>42982</v>
+        <v>42808</v>
       </c>
       <c r="B770">
-        <v>5564388.348178763</v>
+        <v>27140631.88086578</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2">
-        <v>42983</v>
+        <v>42809</v>
       </c>
       <c r="B771">
-        <v>5564186.455560857</v>
+        <v>27050952.36209843</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2">
-        <v>42984</v>
+        <v>42810</v>
       </c>
       <c r="B772">
-        <v>5592938.791662749</v>
+        <v>27337698.06126148</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2">
-        <v>42985</v>
+        <v>42811</v>
       </c>
       <c r="B773">
-        <v>5479631.600954258</v>
+        <v>27225518.73348179</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2">
-        <v>42986</v>
+        <v>42814</v>
       </c>
       <c r="B774">
-        <v>5413834.138154142</v>
+        <v>26892557.17793928</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2">
-        <v>42989</v>
+        <v>42815</v>
       </c>
       <c r="B775">
-        <v>5348905.763029553</v>
+        <v>26960772.13674198</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2">
-        <v>42990</v>
+        <v>42816</v>
       </c>
       <c r="B776">
-        <v>5344684.969136599</v>
+        <v>26080934.20007692</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2">
-        <v>42991</v>
+        <v>42817</v>
       </c>
       <c r="B777">
-        <v>5295446.223114471</v>
+        <v>25654293.8385044</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2">
-        <v>42992</v>
+        <v>42818</v>
       </c>
       <c r="B778">
-        <v>5346848.266294336</v>
+        <v>25720102.41510348</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2">
-        <v>42993</v>
+        <v>42821</v>
       </c>
       <c r="B779">
-        <v>5457656.143668379</v>
+        <v>25694382.31268838</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2">
-        <v>42996</v>
+        <v>42822</v>
       </c>
       <c r="B780">
-        <v>5489613.864886523</v>
+        <v>26349459.20503682</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2">
-        <v>42997</v>
+        <v>42823</v>
       </c>
       <c r="B781">
-        <v>5506763.205324526</v>
+        <v>26315228.34389971</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2">
-        <v>42998</v>
+        <v>42824</v>
       </c>
       <c r="B782">
-        <v>5590539.313753001</v>
+        <v>25393505.17223299</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2">
-        <v>42999</v>
+        <v>42825</v>
       </c>
       <c r="B783">
-        <v>5540792.823502402</v>
+        <v>25633638.91194294</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2">
-        <v>43000</v>
+        <v>42830</v>
       </c>
       <c r="B784">
-        <v>5540792.823502402</v>
+        <v>25148167.61260417</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2">
-        <v>43003</v>
+        <v>42831</v>
       </c>
       <c r="B785">
-        <v>5540792.823502402</v>
+        <v>24800700.45996245</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2">
-        <v>43004</v>
+        <v>42832</v>
       </c>
       <c r="B786">
-        <v>5540792.823502402</v>
+        <v>24015596.91590062</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2">
-        <v>43005</v>
+        <v>42835</v>
       </c>
       <c r="B787">
-        <v>5540792.823502402</v>
+        <v>23129329.92908999</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2">
-        <v>43006</v>
+        <v>42836</v>
       </c>
       <c r="B788">
-        <v>5540792.823502402</v>
+        <v>23445798.28173278</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2">
-        <v>43007</v>
+        <v>42837</v>
       </c>
       <c r="B789">
-        <v>5540792.823502402</v>
+        <v>23561399.20612754</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2">
-        <v>43017</v>
+        <v>42838</v>
       </c>
       <c r="B790">
-        <v>5540792.823502402</v>
+        <v>24246239.79396677</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2">
-        <v>43018</v>
+        <v>42839</v>
       </c>
       <c r="B791">
-        <v>5540792.823502402</v>
+        <v>23943996.78479492</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2">
-        <v>43019</v>
+        <v>42842</v>
       </c>
       <c r="B792">
-        <v>5540792.823502402</v>
+        <v>23802635.30384378</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2">
-        <v>43020</v>
+        <v>42843</v>
       </c>
       <c r="B793">
-        <v>5540792.823502402</v>
+        <v>24006040.20080938</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2">
-        <v>43021</v>
+        <v>42844</v>
       </c>
       <c r="B794">
-        <v>5540792.823502402</v>
+        <v>24804714.28120996</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2">
-        <v>43024</v>
+        <v>42845</v>
       </c>
       <c r="B795">
-        <v>5540792.823502402</v>
+        <v>24514667.93835399</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
-        <v>43025</v>
+        <v>42846</v>
       </c>
       <c r="B796">
-        <v>5540792.823502402</v>
+        <v>24122745.10556912</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2">
-        <v>43026</v>
+        <v>42849</v>
       </c>
       <c r="B797">
-        <v>5540792.823502402</v>
+        <v>23910662.5108589</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2">
-        <v>43027</v>
+        <v>42850</v>
       </c>
       <c r="B798">
-        <v>5540792.823502402</v>
+        <v>23870017.78526626</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2">
-        <v>43028</v>
+        <v>42851</v>
       </c>
       <c r="B799">
-        <v>5540792.823502402</v>
+        <v>23846147.76748099</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2">
-        <v>43031</v>
+        <v>42852</v>
       </c>
       <c r="B800">
-        <v>5540792.823502402</v>
+        <v>23967170.33121359</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2">
-        <v>43032</v>
+        <v>42853</v>
       </c>
       <c r="B801">
-        <v>5540792.823502402</v>
+        <v>24488654.85690581</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2">
-        <v>43033</v>
+        <v>42857</v>
       </c>
       <c r="B802">
-        <v>5540792.823502402</v>
+        <v>25412192.74531893</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2">
-        <v>43034</v>
+        <v>42858</v>
       </c>
       <c r="B803">
-        <v>5540792.823502402</v>
+        <v>25341276.0897978</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2">
-        <v>43035</v>
+        <v>42859</v>
       </c>
       <c r="B804">
-        <v>5540792.823502402</v>
+        <v>25155198.45360227</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2">
-        <v>43038</v>
+        <v>42860</v>
       </c>
       <c r="B805">
-        <v>5540792.823502402</v>
+        <v>23765098.77641172</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2">
-        <v>43039</v>
+        <v>42863</v>
       </c>
       <c r="B806">
-        <v>5540792.823502402</v>
+        <v>23755187.12174872</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2">
-        <v>43040</v>
+        <v>42864</v>
       </c>
       <c r="B807">
-        <v>5540792.823502402</v>
+        <v>24157845.69299047</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2">
-        <v>43041</v>
+        <v>42865</v>
       </c>
       <c r="B808">
-        <v>5540792.823502402</v>
+        <v>24244690.65411608</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2">
-        <v>43042</v>
+        <v>42866</v>
       </c>
       <c r="B809">
-        <v>5540792.823502402</v>
+        <v>24846315.08436446</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2">
-        <v>43045</v>
+        <v>42867</v>
       </c>
       <c r="B810">
-        <v>5540792.823502402</v>
+        <v>24696413.0907806</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2">
-        <v>43046</v>
+        <v>42870</v>
       </c>
       <c r="B811">
-        <v>5540792.823502402</v>
+        <v>24671716.67768982</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2">
-        <v>43047</v>
+        <v>42871</v>
       </c>
       <c r="B812">
-        <v>5540792.823502402</v>
+        <v>24277830.23714004</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2">
-        <v>43048</v>
+        <v>42872</v>
       </c>
       <c r="B813">
-        <v>5540792.823502402</v>
+        <v>24187235.56403146</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2">
-        <v>43049</v>
+        <v>42873</v>
       </c>
       <c r="B814">
-        <v>5540792.823502402</v>
+        <v>24163048.32846743</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2">
-        <v>43052</v>
+        <v>42874</v>
       </c>
       <c r="B815">
-        <v>5540792.823502402</v>
+        <v>24217392.9326655</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2">
-        <v>43053</v>
+        <v>42877</v>
       </c>
       <c r="B816">
-        <v>5540792.823502402</v>
+        <v>25270330.02459551</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2">
-        <v>43054</v>
+        <v>42878</v>
       </c>
       <c r="B817">
-        <v>5540792.823502402</v>
+        <v>25977006.95842822</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2">
-        <v>43055</v>
+        <v>42879</v>
       </c>
       <c r="B818">
-        <v>5540792.823502402</v>
+        <v>25515556.29119164</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2">
-        <v>43056</v>
+        <v>42880</v>
       </c>
       <c r="B819">
-        <v>5540792.823502402</v>
+        <v>25191496.22503987</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2">
-        <v>43059</v>
+        <v>42881</v>
       </c>
       <c r="B820">
-        <v>5540792.823502402</v>
+        <v>24987063.43311187</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2">
-        <v>43060</v>
+        <v>42886</v>
       </c>
       <c r="B821">
-        <v>5540792.823502402</v>
+        <v>25197815.30065943</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2">
-        <v>43061</v>
+        <v>42887</v>
       </c>
       <c r="B822">
-        <v>5540792.823502402</v>
+        <v>24050764.45521555</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2">
-        <v>43062</v>
+        <v>42888</v>
       </c>
       <c r="B823">
-        <v>5540792.823502402</v>
+        <v>24026713.69076033</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2">
-        <v>43063</v>
+        <v>42891</v>
       </c>
       <c r="B824">
-        <v>5540792.823502402</v>
+        <v>24709226.69958728</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2">
-        <v>43066</v>
+        <v>42892</v>
       </c>
       <c r="B825">
-        <v>5540792.823502402</v>
+        <v>25362437.98684137</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2">
-        <v>43067</v>
+        <v>42893</v>
       </c>
       <c r="B826">
-        <v>5540792.823502402</v>
+        <v>25100439.1392316</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2">
-        <v>43068</v>
+        <v>42894</v>
       </c>
       <c r="B827">
-        <v>5540792.823502402</v>
+        <v>25022958.4112263</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2">
-        <v>43069</v>
+        <v>42895</v>
       </c>
       <c r="B828">
-        <v>5540792.823502402</v>
+        <v>25022880.9304983</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2">
-        <v>43070</v>
+        <v>42898</v>
       </c>
       <c r="B829">
-        <v>5540792.823502402</v>
+        <v>24499641.35223056</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2">
-        <v>43073</v>
+        <v>42899</v>
       </c>
       <c r="B830">
-        <v>5540792.823502402</v>
+        <v>24457784.94200178</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2">
-        <v>43074</v>
+        <v>42900</v>
       </c>
       <c r="B831">
-        <v>5540792.823502402</v>
+        <v>25264256.50142611</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2">
-        <v>43075</v>
+        <v>42901</v>
       </c>
       <c r="B832">
-        <v>5540792.823502402</v>
+        <v>24030284.17221509</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2">
-        <v>43076</v>
+        <v>42902</v>
       </c>
       <c r="B833">
-        <v>5540792.823502402</v>
+        <v>24006253.88804288</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2">
-        <v>43077</v>
+        <v>42905</v>
       </c>
       <c r="B834">
-        <v>5540792.823502402</v>
+        <v>23967543.10658943</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2">
-        <v>43080</v>
+        <v>42906</v>
       </c>
       <c r="B835">
-        <v>5540792.823502402</v>
+        <v>24307897.59561022</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2">
-        <v>43081</v>
+        <v>42907</v>
       </c>
       <c r="B836">
-        <v>5540792.823502402</v>
+        <v>23964167.29386287</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2">
-        <v>43082</v>
+        <v>42908</v>
       </c>
       <c r="B837">
-        <v>5540792.823502402</v>
+        <v>23807104.69377285</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2">
-        <v>43083</v>
+        <v>42909</v>
       </c>
       <c r="B838">
-        <v>5540792.823502402</v>
+        <v>23456577.18082288</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2">
-        <v>43084</v>
+        <v>42912</v>
       </c>
       <c r="B839">
-        <v>5540792.823502402</v>
+        <v>23433120.60364206</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" s="2">
-        <v>43087</v>
+        <v>42913</v>
       </c>
       <c r="B840">
-        <v>5540792.823502402</v>
+        <v>23787801.3876393</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" s="2">
-        <v>43088</v>
+        <v>42914</v>
       </c>
       <c r="B841">
-        <v>5540792.823502402</v>
+        <v>24337748.98024852</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" s="2">
-        <v>43089</v>
+        <v>42915</v>
       </c>
       <c r="B842">
-        <v>5540792.823502402</v>
+        <v>24794830.32627053</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" s="2">
-        <v>43090</v>
+        <v>42916</v>
       </c>
       <c r="B843">
-        <v>5540792.823502402</v>
+        <v>24816601.42777343</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" s="2">
-        <v>43091</v>
+        <v>42919</v>
       </c>
       <c r="B844">
-        <v>5540792.823502402</v>
+        <v>25192953.11309702</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" s="2">
-        <v>43094</v>
+        <v>42920</v>
       </c>
       <c r="B845">
-        <v>5540792.823502402</v>
+        <v>25668239.442724</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" s="2">
-        <v>43095</v>
+        <v>42921</v>
       </c>
       <c r="B846">
-        <v>5540792.823502402</v>
+        <v>25408546.79333181</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" s="2">
-        <v>43096</v>
+        <v>42922</v>
       </c>
       <c r="B847">
-        <v>5540792.823502402</v>
+        <v>25636559.25424518</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" s="2">
-        <v>43097</v>
+        <v>42923</v>
       </c>
       <c r="B848">
-        <v>5540792.823502402</v>
+        <v>25793423.32044887</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" s="2">
+        <v>42926</v>
+      </c>
+      <c r="B849">
+        <v>25898285.66517445</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" s="2">
+        <v>42927</v>
+      </c>
+      <c r="B850">
+        <v>25920730.33865909</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" s="2">
+        <v>42928</v>
+      </c>
+      <c r="B851">
+        <v>26876480.8872985</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" s="2">
+        <v>42929</v>
+      </c>
+      <c r="B852">
+        <v>26984697.58015409</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" s="2">
+        <v>42930</v>
+      </c>
+      <c r="B853">
+        <v>27569797.17168852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" s="2">
+        <v>42933</v>
+      </c>
+      <c r="B854">
+        <v>26660946.10275546</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" s="2">
+        <v>42934</v>
+      </c>
+      <c r="B855">
+        <v>27376836.38447187</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" s="2">
+        <v>42935</v>
+      </c>
+      <c r="B856">
+        <v>27162737.36688963</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" s="2">
+        <v>42936</v>
+      </c>
+      <c r="B857">
+        <v>27687012.62403683</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" s="2">
+        <v>42937</v>
+      </c>
+      <c r="B858">
+        <v>26522372.08745049</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" s="2">
+        <v>42940</v>
+      </c>
+      <c r="B859">
+        <v>26636527.77031946</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" s="2">
+        <v>42941</v>
+      </c>
+      <c r="B860">
+        <v>26609891.24254914</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" s="2">
+        <v>42942</v>
+      </c>
+      <c r="B861">
+        <v>26186039.12128288</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" s="2">
+        <v>42943</v>
+      </c>
+      <c r="B862">
+        <v>26338047.84014242</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" s="2">
+        <v>42944</v>
+      </c>
+      <c r="B863">
+        <v>26338047.84014242</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" s="2">
+        <v>42947</v>
+      </c>
+      <c r="B864">
+        <v>26311709.79230228</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B865">
+        <v>25186735.7863983</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" s="2">
+        <v>42949</v>
+      </c>
+      <c r="B866">
+        <v>25079335.61942622</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" s="2">
+        <v>42950</v>
+      </c>
+      <c r="B867">
+        <v>25215420.63166199</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B868">
+        <v>25653921.9003191</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B869">
+        <v>26320767.94889808</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B870">
+        <v>27672488.74550681</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B871">
+        <v>27469552.56549422</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" s="2">
+        <v>42957</v>
+      </c>
+      <c r="B872">
+        <v>28158516.21312629</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B873">
+        <v>27861344.81895915</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B874">
+        <v>27261469.44294973</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B875">
+        <v>26821127.92836927</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" s="2">
+        <v>42963</v>
+      </c>
+      <c r="B876">
+        <v>26405007.57055994</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B877">
+        <v>26263619.65229151</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" s="2">
+        <v>42965</v>
+      </c>
+      <c r="B878">
+        <v>26263619.65229151</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" s="2">
+        <v>42968</v>
+      </c>
+      <c r="B879">
+        <v>26263619.65229151</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" s="2">
+        <v>42969</v>
+      </c>
+      <c r="B880">
+        <v>26263619.65229151</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" s="2">
+        <v>42970</v>
+      </c>
+      <c r="B881">
+        <v>26237356.03263922</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" s="2">
+        <v>42971</v>
+      </c>
+      <c r="B882">
+        <v>27168212.43890336</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" s="2">
+        <v>42972</v>
+      </c>
+      <c r="B883">
+        <v>26613784.26713499</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B884">
+        <v>26587170.48286786</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" s="2">
+        <v>42976</v>
+      </c>
+      <c r="B885">
+        <v>26627838.52276234</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" s="2">
+        <v>42977</v>
+      </c>
+      <c r="B886">
+        <v>26349865.08064641</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B887">
+        <v>26110975.3277078</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B888">
+        <v>26110975.3277078</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" s="2">
+        <v>42982</v>
+      </c>
+      <c r="B889">
+        <v>26084864.35238009</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" s="2">
+        <v>42983</v>
+      </c>
+      <c r="B890">
+        <v>26084838.24140476</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" s="2">
+        <v>42984</v>
+      </c>
+      <c r="B891">
+        <v>26219625.00702066</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" s="2">
+        <v>42985</v>
+      </c>
+      <c r="B892">
+        <v>25688442.28273857</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" s="2">
+        <v>42986</v>
+      </c>
+      <c r="B893">
+        <v>25379984.62466135</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" s="2">
+        <v>42989</v>
+      </c>
+      <c r="B894">
+        <v>25100981.22398611</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" s="2">
+        <v>42990</v>
+      </c>
+      <c r="B895">
+        <v>25075880.24276213</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" s="2">
+        <v>42991</v>
+      </c>
+      <c r="B896">
+        <v>25306437.94644808</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" s="2">
+        <v>42992</v>
+      </c>
+      <c r="B897">
+        <v>25015121.54485656</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" s="2">
+        <v>42993</v>
+      </c>
+      <c r="B898">
+        <v>25545198.89951761</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B899">
+        <v>25694700.7873762</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" s="2">
+        <v>42997</v>
+      </c>
+      <c r="B900">
+        <v>25774970.36416892</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" s="2">
+        <v>42998</v>
+      </c>
+      <c r="B901">
+        <v>26167093.03260628</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" s="2">
+        <v>42999</v>
+      </c>
+      <c r="B902">
+        <v>25960046.0504406</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" s="2">
+        <v>43000</v>
+      </c>
+      <c r="B903">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" s="2">
+        <v>43003</v>
+      </c>
+      <c r="B904">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2">
+      <c r="A905" s="2">
+        <v>43004</v>
+      </c>
+      <c r="B905">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2">
+      <c r="A906" s="2">
+        <v>43005</v>
+      </c>
+      <c r="B906">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2">
+      <c r="A907" s="2">
+        <v>43006</v>
+      </c>
+      <c r="B907">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2">
+      <c r="A908" s="2">
+        <v>43007</v>
+      </c>
+      <c r="B908">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2">
+      <c r="A909" s="2">
+        <v>43017</v>
+      </c>
+      <c r="B909">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2">
+      <c r="A910" s="2">
+        <v>43018</v>
+      </c>
+      <c r="B910">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2">
+      <c r="A911" s="2">
+        <v>43019</v>
+      </c>
+      <c r="B911">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2">
+      <c r="A912" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B912">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2">
+      <c r="A913" s="2">
+        <v>43021</v>
+      </c>
+      <c r="B913">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2">
+      <c r="A914" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B914">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2">
+      <c r="A915" s="2">
+        <v>43025</v>
+      </c>
+      <c r="B915">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2">
+      <c r="A916" s="2">
+        <v>43026</v>
+      </c>
+      <c r="B916">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2">
+      <c r="A917" s="2">
+        <v>43027</v>
+      </c>
+      <c r="B917">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2">
+      <c r="A918" s="2">
+        <v>43028</v>
+      </c>
+      <c r="B918">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2">
+      <c r="A919" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B919">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2">
+      <c r="A920" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B920">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2">
+      <c r="A921" s="2">
+        <v>43033</v>
+      </c>
+      <c r="B921">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2">
+      <c r="A922" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B922">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2">
+      <c r="A923" s="2">
+        <v>43035</v>
+      </c>
+      <c r="B923">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2">
+      <c r="A924" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B924">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2">
+      <c r="A925" s="2">
+        <v>43039</v>
+      </c>
+      <c r="B925">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2">
+      <c r="A926" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B926">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2">
+      <c r="A927" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B927">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2">
+      <c r="A928" s="2">
+        <v>43042</v>
+      </c>
+      <c r="B928">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2">
+      <c r="A929" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B929">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2">
+      <c r="A930" s="2">
+        <v>43046</v>
+      </c>
+      <c r="B930">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2">
+      <c r="A931" s="2">
+        <v>43047</v>
+      </c>
+      <c r="B931">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2">
+      <c r="A932" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B932">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2">
+      <c r="A933" s="2">
+        <v>43049</v>
+      </c>
+      <c r="B933">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2">
+      <c r="A934" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B934">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2">
+      <c r="A935" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B935">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2">
+      <c r="A936" s="2">
+        <v>43054</v>
+      </c>
+      <c r="B936">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2">
+      <c r="A937" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B937">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2">
+      <c r="A938" s="2">
+        <v>43056</v>
+      </c>
+      <c r="B938">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2">
+      <c r="A939" s="2">
+        <v>43059</v>
+      </c>
+      <c r="B939">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2">
+      <c r="A940" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B940">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2">
+      <c r="A941" s="2">
+        <v>43061</v>
+      </c>
+      <c r="B941">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2">
+      <c r="A942" s="2">
+        <v>43062</v>
+      </c>
+      <c r="B942">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2">
+      <c r="A943" s="2">
+        <v>43063</v>
+      </c>
+      <c r="B943">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2">
+      <c r="A944" s="2">
+        <v>43066</v>
+      </c>
+      <c r="B944">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2">
+      <c r="A945" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B945">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2">
+      <c r="A946" s="2">
+        <v>43068</v>
+      </c>
+      <c r="B946">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2">
+      <c r="A947" s="2">
+        <v>43069</v>
+      </c>
+      <c r="B947">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2">
+      <c r="A948" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B948">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2">
+      <c r="A949" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B949">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2">
+      <c r="A950" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B950">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2">
+      <c r="A951" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B951">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2">
+      <c r="A952" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B952">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2">
+      <c r="A953" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B953">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2">
+      <c r="A954" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B954">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2">
+      <c r="A955" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B955">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2">
+      <c r="A956" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B956">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2">
+      <c r="A957" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B957">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2">
+      <c r="A958" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B958">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2">
+      <c r="A959" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B959">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2">
+      <c r="A960" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B960">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2">
+      <c r="A961" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B961">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2">
+      <c r="A962" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B962">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2">
+      <c r="A963" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B963">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2">
+      <c r="A964" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B964">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2">
+      <c r="A965" s="2">
+        <v>43095</v>
+      </c>
+      <c r="B965">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2">
+      <c r="A966" s="2">
+        <v>43096</v>
+      </c>
+      <c r="B966">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2">
+      <c r="A967" s="2">
+        <v>43097</v>
+      </c>
+      <c r="B967">
+        <v>26754156.21337252</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2">
+      <c r="A968" s="2">
         <v>43098</v>
       </c>
-      <c r="B849">
-        <v>5540792.823502402</v>
+      <c r="B968">
+        <v>26754156.21337252</v>
       </c>
     </row>
   </sheetData>
